--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.506</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.615</v>
+        <v>18.83</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1961674800.526</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1256818.326</v>
+        <v>36.566</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.841</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.722</v>
+        <v>15.996</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>743694.3751821273</v>
+        <v>10.31300072490726</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1167357.251522151</v>
+        <v>10.37033394500293</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1808722.818572522</v>
+        <v>10.38475045061787</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-302318.1047581204</v>
+        <v>10.28954131477196</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>935016.2482563623</v>
+        <v>10.3479823539652</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1359261.835030227</v>
+        <v>10.36482076356147</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>202866.3447086408</v>
+        <v>10.33473838709835</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2257070.072533678</v>
+        <v>10.38204081374372</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2812597.417013554</v>
+        <v>10.39538372190281</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1131053.238622489</v>
+        <v>10.39237135914687</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1306494.537944567</v>
+        <v>10.43635706301496</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1630720.731089551</v>
+        <v>10.45258785840911</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>364534.7636217286</v>
+        <v>10.30337674489804</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>759880.4795180422</v>
+        <v>10.40757008397113</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1427086.209381477</v>
+        <v>10.43581644725263</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>528634.0721387796</v>
+        <v>10.31241546447886</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1004389.648266314</v>
+        <v>10.39265124590457</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1422601.078374526</v>
+        <v>10.41457930324713</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-363419.1795026716</v>
+        <v>10.27279037929496</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>478736.033123154</v>
+        <v>10.35519535634432</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>849965.1539030059</v>
+        <v>10.38061164659335</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-212480.9996119968</v>
+        <v>10.33741055484639</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1213043.74801603</v>
+        <v>10.40408940922998</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1701530.659402548</v>
+        <v>10.42431742971148</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>721317.6411478887</v>
+        <v>10.4254484326213</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1207610.760742131</v>
+        <v>10.48994717384921</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1428158.378758039</v>
+        <v>10.51554562779246</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-11912.59149783106</v>
+        <v>10.30985364169678</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>664273.0146851011</v>
+        <v>10.45531500828315</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1040839.654472174</v>
+        <v>10.49807048587996</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>544882.9601803881</v>
+        <v>10.32584691423057</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1074700.623538939</v>
+        <v>10.414260649998</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1540776.360105676</v>
+        <v>10.43983323058228</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-290300.0740140763</v>
+        <v>10.29012581626993</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>564811.2988449323</v>
+        <v>10.38154628531847</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>976697.4809404367</v>
+        <v>10.41105717571991</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5530.126106610274</v>
+        <v>10.36128215796099</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1393808.424889921</v>
+        <v>10.43526866226709</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1926788.596426277</v>
+        <v>10.45880535530837</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1167148.50846538</v>
+        <v>10.47297576896876</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1499512.704878711</v>
+        <v>10.54629228625519</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1752791.992128669</v>
+        <v>10.57733556532751</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-9690.855336633758</v>
+        <v>10.35501265187438</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>812043.098538657</v>
+        <v>10.51511017751186</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1178604.909129739</v>
+        <v>10.56475674253031</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>387720.3330191621</v>
+        <v>10.32140579368483</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1318444.721495152</v>
+        <v>10.38948325772208</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1751855.711802728</v>
+        <v>10.40475881332781</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-54942.17768278184</v>
+        <v>10.29768031754425</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1440794.732624606</v>
+        <v>10.3672984920152</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1715545.279349743</v>
+        <v>10.38515698008052</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>622455.3567584308</v>
+        <v>10.34984278858958</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2855908.907130664</v>
+        <v>10.4062067318774</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3170949.420561686</v>
+        <v>10.42033791902655</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1398339.947133925</v>
+        <v>10.41759227899031</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1719243.824531809</v>
+        <v>10.47087687109745</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1855964.251831332</v>
+        <v>10.48757876991782</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>193889.5688643371</v>
+        <v>10.31240139607166</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1157445.30936147</v>
+        <v>10.43610299031555</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1554478.213612198</v>
+        <v>10.46619230337149</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>271297.6494160912</v>
+        <v>10.32220425516879</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>993010.912606156</v>
+        <v>10.41716995408763</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1290662.788481544</v>
+        <v>10.44073790969757</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-241326.4494168968</v>
+        <v>10.28077438508858</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>739799.1012875147</v>
+        <v>10.37856910109617</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1018704.67759022</v>
+        <v>10.40589263077297</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>58532.54369436762</v>
+        <v>10.35560110517434</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1537392.332318341</v>
+        <v>10.43475041520186</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1860694.717836099</v>
+        <v>10.45647860261187</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>853809.88769317</v>
+        <v>10.45845957119414</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1238123.994766275</v>
+        <v>10.53600672856259</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1374041.256320164</v>
+        <v>10.56294446746027</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>40004.94303559324</v>
+        <v>10.32207279742871</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>886963.3704534697</v>
+        <v>10.49422538778817</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1115940.455181726</v>
+        <v>10.54036763236609</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>280819.9824218089</v>
+        <v>10.34534166512699</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1078777.178182577</v>
+        <v>10.44974276966468</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1492629.253799886</v>
+        <v>10.47751620014744</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-329537.7276455781</v>
+        <v>10.30863069764853</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>712939.8255250435</v>
+        <v>10.41683649481037</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1093951.726206756</v>
+        <v>10.44888118140036</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>142465.6217714792</v>
+        <v>10.39070296979788</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1626869.232573374</v>
+        <v>10.47828952637423</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2066322.511151146</v>
+        <v>10.50383304393102</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1124881.31390642</v>
+        <v>10.52209757556188</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1410666.479669821</v>
+        <v>10.60981553687225</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1652267.740348992</v>
+        <v>10.64305836307313</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>46187.87265141889</v>
+        <v>10.38269273054935</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1025673.945104465</v>
+        <v>10.5717542601925</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1305386.340982582</v>
+        <v>10.62583944733636</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>387720.3330191621</v>
+        <v>10.32140579368483</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1318444.721495152</v>
+        <v>10.38948325772208</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1751855.711802728</v>
+        <v>10.40475881332781</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-54942.17768278184</v>
+        <v>10.29768031754425</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1440794.732624606</v>
+        <v>10.3672984920152</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1715545.279349743</v>
+        <v>10.38515698008052</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>622455.3567584308</v>
+        <v>10.34984278858958</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2855908.907130664</v>
+        <v>10.4062067318774</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3170949.420561686</v>
+        <v>10.42033791902655</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1398339.947133925</v>
+        <v>10.41759227899031</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1719243.824531809</v>
+        <v>10.47087687109745</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1855964.251831332</v>
+        <v>10.48757876991782</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>193889.5688643371</v>
+        <v>10.31240139607166</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1157445.30936147</v>
+        <v>10.43610299031555</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1554478.213612198</v>
+        <v>10.46619230337149</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>271297.6494160912</v>
+        <v>10.32220425516879</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>993010.912606156</v>
+        <v>10.41716995408763</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1290662.788481544</v>
+        <v>10.44073790969757</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-241326.4494168968</v>
+        <v>10.28077438508858</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>739799.1012875147</v>
+        <v>10.37856910109617</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1018704.67759022</v>
+        <v>10.40589263077297</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>58532.54369436762</v>
+        <v>10.35560110517434</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1537392.332318341</v>
+        <v>10.43475041520186</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1860694.717836099</v>
+        <v>10.45647860261187</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>853809.88769317</v>
+        <v>10.45845957119414</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1238123.994766275</v>
+        <v>10.53600672856259</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1374041.256320164</v>
+        <v>10.56294446746027</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>40004.94303559324</v>
+        <v>10.32207279742871</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>886963.3704534697</v>
+        <v>10.49422538778817</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1115940.455181726</v>
+        <v>10.54036763236609</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>280819.9824218089</v>
+        <v>10.34534166512699</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1078777.178182577</v>
+        <v>10.44974276966468</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1492629.253799886</v>
+        <v>10.47751620014744</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-329537.7276455781</v>
+        <v>10.30863069764853</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>712939.8255250435</v>
+        <v>10.41683649481037</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1093951.726206756</v>
+        <v>10.44888118140036</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>142465.6217714792</v>
+        <v>10.39070296979788</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1626869.232573374</v>
+        <v>10.47828952637423</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2066322.511151146</v>
+        <v>10.50383304393102</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1124881.31390642</v>
+        <v>10.52209757556188</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1410666.479669821</v>
+        <v>10.60981553687225</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1652267.740348992</v>
+        <v>10.64305836307313</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>46187.87265141889</v>
+        <v>10.38269273054935</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1025673.945104465</v>
+        <v>10.5717542601925</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1305386.340982582</v>
+        <v>10.62583944733636</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>652047.6072725949</v>
+        <v>10.28513874523323</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>724859.1400765423</v>
+        <v>10.34301796829492</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1268384.480723307</v>
+        <v>10.35752184735206</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-164515.3085239318</v>
+        <v>10.25793277501823</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>644655.0443795787</v>
+        <v>10.31686648096688</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>986415.4633004561</v>
+        <v>10.3337987225304</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>83327.25987457226</v>
+        <v>10.30558541295996</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1695908.102338931</v>
+        <v>10.3532824211399</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2156779.532218879</v>
+        <v>10.36669696416128</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>810859.2984589718</v>
+        <v>10.35649010938092</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>834239.3793839556</v>
+        <v>10.40066473046229</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1132340.66413723</v>
+        <v>10.41700072338008</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>403379.4358254962</v>
+        <v>10.26574893172603</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>415527.2165836471</v>
+        <v>10.37092678422641</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>979725.9797841639</v>
+        <v>10.39934622397295</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>393931.1352953413</v>
+        <v>10.27861199527194</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>682854.2530522018</v>
+        <v>10.35967001400236</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1071177.011931543</v>
+        <v>10.38178781254102</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-378200.20986016</v>
+        <v>10.23411848964244</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>236454.0204578689</v>
+        <v>10.31729015995735</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>587171.8533971827</v>
+        <v>10.34291367976111</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-383701.5495970093</v>
+        <v>10.30192056373703</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>803786.9357961761</v>
+        <v>10.36921397585375</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1263535.053959554</v>
+        <v>10.38960467130056</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>452132.2507954496</v>
+        <v>10.38204632428431</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>861562.8750474541</v>
+        <v>10.44693452615853</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1100365.888810392</v>
+        <v>10.47277377200068</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-60356.53860166135</v>
+        <v>10.26419325743612</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>402796.0627423064</v>
+        <v>10.4111312920647</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>748356.7547242437</v>
+        <v>10.45425635577867</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>450674.4724186498</v>
+        <v>10.29522353756209</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>839920.5470432565</v>
+        <v>10.38461386160242</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1287677.185354724</v>
+        <v>10.41044894643372</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-332792.1516251063</v>
+        <v>10.25483467906369</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>350530.3042901589</v>
+        <v>10.34719114942958</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>752436.0890373418</v>
+        <v>10.37699079565566</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-115650.6647872066</v>
+        <v>10.32914411382195</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1090740.353271957</v>
+        <v>10.40388234579882</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1606671.475978325</v>
+        <v>10.42764740357918</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>953647.4262415951</v>
+        <v>10.43398838651435</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1231913.273991824</v>
+        <v>10.50786516991427</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1500104.518312006</v>
+        <v>10.53926156500806</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-59799.9928194259</v>
+        <v>10.31368327204302</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>592886.2552095666</v>
+        <v>10.47553545996103</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>934477.4684763364</v>
+        <v>10.52568688596247</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>495016.4477264991</v>
+        <v>10.3227140292778</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1021937.100895894</v>
+        <v>10.38081234739215</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1655033.752162487</v>
+        <v>10.39505312840498</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-313100.0604622357</v>
+        <v>10.30021953454439</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1045843.115959785</v>
+        <v>10.35952272114663</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1462563.7844007</v>
+        <v>10.3761513858917</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>210687.2410900711</v>
+        <v>10.3450433615142</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2396607.7382956</v>
+        <v>10.39304754275324</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2938335.159970394</v>
+        <v>10.40622156605773</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>970096.1658331964</v>
+        <v>10.40504667537458</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1198793.029846784</v>
+        <v>10.45012704343118</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1488763.395887356</v>
+        <v>10.46616873806235</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-34617.38194923454</v>
+        <v>10.31572580685015</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>473035.778596048</v>
+        <v>10.42132519282487</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1113967.186694625</v>
+        <v>10.44922530883583</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>484398.867129321</v>
+        <v>10.32794724411884</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1091227.8057102</v>
+        <v>10.40917735642806</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1468773.914276266</v>
+        <v>10.43086060580766</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-282851.7524527663</v>
+        <v>10.28981686484479</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>706064.0727780086</v>
+        <v>10.37334194435951</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1037946.362016265</v>
+        <v>10.39846699014676</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-74580.75843212266</v>
+        <v>10.35377993037426</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1505031.441386502</v>
+        <v>10.42137050258336</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1948990.748873443</v>
+        <v>10.44136390621551</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>857326.3370109363</v>
+        <v>10.44565998288921</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1420868.328396071</v>
+        <v>10.51157934487295</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1608118.076042389</v>
+        <v>10.53690879021217</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20942.74565469658</v>
+        <v>10.32967192705002</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>835745.5157323845</v>
+        <v>10.47695994572909</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1163593.358289646</v>
+        <v>10.51923491328504</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>423737.4454377487</v>
+        <v>10.34170764974847</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1049673.399949178</v>
+        <v>10.43111482855443</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1537630.197079011</v>
+        <v>10.45645367400024</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-341627.2112113249</v>
+        <v>10.3074455430302</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>622602.222974234</v>
+        <v>10.39998503418369</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1060609.328646014</v>
+        <v>10.42921704440446</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-20907.24779894833</v>
+        <v>10.37792888545974</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1481740.405222389</v>
+        <v>10.45282611966381</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2037869.435617302</v>
+        <v>10.47613824102291</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1170016.044431267</v>
+        <v>10.49350567715968</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1560016.151291881</v>
+        <v>10.56825152872053</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1829737.243963208</v>
+        <v>10.5990384591261</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-97106.59213820497</v>
+        <v>10.37514831423329</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>832780.0033886351</v>
+        <v>10.53707014545381</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1206385.087917616</v>
+        <v>10.58625611362143</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>164122.3172159962</v>
+        <v>10.31074310233933</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>539581.6405802248</v>
+        <v>10.4003627189993</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>814138.5047499216</v>
+        <v>10.42072121997222</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-71840.12600217738</v>
+        <v>10.27883882432584</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>674278.0504407287</v>
+        <v>10.37047250775087</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>848791.3239931404</v>
+        <v>10.39426195566778</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>304495.5092787517</v>
+        <v>10.34757320390512</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1448616.729313046</v>
+        <v>10.42176332360646</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1655541.564355535</v>
+        <v>10.44059375999343</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>548282.379976965</v>
+        <v>10.43634996217727</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>656251.2196949075</v>
+        <v>10.50676001060809</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>742406.8614194172</v>
+        <v>10.52914353454019</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-124872.7457029218</v>
+        <v>10.29907210051738</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>228703.4094848974</v>
+        <v>10.46195423179168</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>483055.8668966246</v>
+        <v>10.50198431234549</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>318703.9671380869</v>
+        <v>10.32028504617854</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>705474.9406172482</v>
+        <v>10.44538262440677</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>857068.8904635911</v>
+        <v>10.47666915155314</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-16808.38205433522</v>
+        <v>10.26561782118478</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>549156.7586921996</v>
+        <v>10.39443027400504</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>683210.7831525744</v>
+        <v>10.43069089605264</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>223953.8801600454</v>
+        <v>10.3635722162865</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1065044.443262933</v>
+        <v>10.46782939118657</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1231318.403818335</v>
+        <v>10.49666963823463</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>590850.4095047357</v>
+        <v>10.5008099162626</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>820963.2192413014</v>
+        <v>10.60334869236429</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>887383.2596631857</v>
+        <v>10.6392509312128</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>144917.9925449652</v>
+        <v>10.32277995020091</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>597576.9306569241</v>
+        <v>10.54960125321545</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>713846.1060478548</v>
+        <v>10.61076987285779</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>256530.4139419706</v>
+        <v>10.35002034753085</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>670347.8342512617</v>
+        <v>10.48754348575721</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>903644.3298480572</v>
+        <v>10.52436293096893</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-161608.5945935087</v>
+        <v>10.3016492244714</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>418959.6492966533</v>
+        <v>10.44416580763779</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>629024.9822179644</v>
+        <v>10.48663932572676</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>144385.2921015371</v>
+        <v>10.40911095348718</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>970549.658715629</v>
+        <v>10.52447489925413</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1220309.149301801</v>
+        <v>10.55833595854226</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>664503.2020813682</v>
+        <v>10.58390041745474</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>836201.4430271467</v>
+        <v>10.69985756828286</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>964262.9210271976</v>
+        <v>10.74403416791496</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>71681.19588196602</v>
+        <v>10.40203865842884</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>598543.5247666334</v>
+        <v>10.65111086154218</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>757106.8326518467</v>
+        <v>10.72273268180562</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-40848.28146710272</v>
+        <v>10.28444358366347</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>179835.687925584</v>
+        <v>10.37157359758034</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>497869.8590081926</v>
+        <v>10.39250543137365</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-426025.8904336373</v>
+        <v>10.2497253075279</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>142563.9693216006</v>
+        <v>10.33855027661912</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>364436.0617989367</v>
+        <v>10.36302609400004</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-190667.0077729917</v>
+        <v>10.31936752436744</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>763287.877788879</v>
+        <v>10.39127119302726</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1024245.17229362</v>
+        <v>10.41065387778566</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>368585.477713916</v>
+        <v>10.40171222531855</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>404203.8843856698</v>
+        <v>10.46852621200795</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>561812.6958164128</v>
+        <v>10.49151571499525</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-27374.19817161876</v>
+        <v>10.26545672051853</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>157234.1076243563</v>
+        <v>10.42376014844318</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>477106.2105015375</v>
+        <v>10.4649223802249</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>99082.59037455542</v>
+        <v>10.2766223505116</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>319255.050252876</v>
+        <v>10.39848772665879</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>534196.1375491288</v>
+        <v>10.43057530405409</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-319088.7633589447</v>
+        <v>10.21750239854814</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>62389.88219848227</v>
+        <v>10.34266939096788</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>261074.0455332424</v>
+        <v>10.379885500654</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-200410.2082946642</v>
+        <v>10.31720019693049</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>447135.6864315986</v>
+        <v>10.41848976839349</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>683629.3015940608</v>
+        <v>10.4480992238518</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>251017.5885370216</v>
+        <v>10.44359333197068</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>392233.313632276</v>
+        <v>10.54146944335137</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>516486.6243602067</v>
+        <v>10.57823742751115</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-64955.63095746249</v>
+        <v>10.26678631068786</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>211522.993346901</v>
+        <v>10.48766503649978</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>401021.7353305472</v>
+        <v>10.55040897312613</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>156450.9816147814</v>
+        <v>10.3056369518448</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>443919.4487852181</v>
+        <v>10.43993614131811</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>677709.2670393843</v>
+        <v>10.47752056012288</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-290336.1675028019</v>
+        <v>10.25295819563812</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>149233.9453019694</v>
+        <v>10.39183859430871</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>357545.5300386314</v>
+        <v>10.43522741696775</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-58718.7566225948</v>
+        <v>10.36219721340031</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>619800.3763803416</v>
+        <v>10.47460150277389</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>871337.4821764557</v>
+        <v>10.50919911440307</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>497694.0636980288</v>
+        <v>10.52610369602304</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>602975.967943085</v>
+        <v>10.63737479790775</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>738271.2496084213</v>
+        <v>10.68237572582784</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19192.63571196164</v>
+        <v>10.34546364644063</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>406346.189688034</v>
+        <v>10.58861054054332</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>581984.6944826309</v>
+        <v>10.66174285808984</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>7639.531009594662</v>
+        <v>10.30526651332713</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>350914.5531799239</v>
+        <v>10.37231888945276</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>817773.2446159343</v>
+        <v>10.38859209942711</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-724022.9365776591</v>
+        <v>10.27796799144553</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>250239.6743736919</v>
+        <v>10.34640223949959</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>547450.1887426614</v>
+        <v>10.36540431778391</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-364606.8654124539</v>
+        <v>10.33070483314514</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1268869.49321918</v>
+        <v>10.386100134737</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1656125.957045631</v>
+        <v>10.40115179940656</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>387887.9459483819</v>
+        <v>10.39602709095334</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>509723.2560111957</v>
+        <v>10.44802948512686</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>711756.9329230336</v>
+        <v>10.46630709015254</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-348125.5554630402</v>
+        <v>10.29263928233583</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-26566.62104743581</v>
+        <v>10.41450871476841</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>433705.9775201776</v>
+        <v>10.44641029676131</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>59009.78320717973</v>
+        <v>10.30755393441195</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>499337.0788406269</v>
+        <v>10.40130740422205</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>782087.1778641092</v>
+        <v>10.42613393794702</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-612971.6868888622</v>
+        <v>10.26184727197634</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>117058.298198913</v>
+        <v>10.35823839730187</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>365061.5257098316</v>
+        <v>10.38700378722542</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-481999.7781954745</v>
+        <v>10.33696579334489</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>715943.9515969406</v>
+        <v>10.41496735551927</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1046057.36155294</v>
+        <v>10.43785526947402</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>386329.1157621597</v>
+        <v>10.4380883862365</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>788067.3906494365</v>
+        <v>10.51413745119074</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>926900.8073649388</v>
+        <v>10.54307945649736</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-215048.0109328241</v>
+        <v>10.30385819177223</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>379280.3730356633</v>
+        <v>10.47384660076434</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>614579.7644543725</v>
+        <v>10.52227255996286</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>69069.10890079381</v>
+        <v>10.32514790477534</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>544768.2048419393</v>
+        <v>10.42835305164156</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>928435.836242306</v>
+        <v>10.45740232352017</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-608181.8613030538</v>
+        <v>10.28398013638314</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>127755.1419095041</v>
+        <v>10.39079143782602</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>472080.175326172</v>
+        <v>10.42430058171605</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-363225.0629368655</v>
+        <v>10.36655800916786</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>797843.9679640427</v>
+        <v>10.45300553330183</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1230565.510752485</v>
+        <v>10.4797266891912</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>687292.7717767202</v>
+        <v>10.49539406347919</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>967148.7403085039</v>
+        <v>10.58164623378806</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1180095.855676014</v>
+        <v>10.61689663981795</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-259251.2095740794</v>
+        <v>10.35839081377987</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>446758.3583160767</v>
+        <v>10.54529653559121</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>729481.9453476642</v>
+        <v>10.60170444020386</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>364679.8961555369</v>
+        <v>10.34822045993707</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1091809.834872806</v>
+        <v>10.4295383584365</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1552083.887022577</v>
+        <v>10.44806125682893</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>152917.9615705546</v>
+        <v>10.3247670207066</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1377648.547217293</v>
+        <v>10.40797709306694</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1703797.105218886</v>
+        <v>10.42964493907481</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>752853.1956903213</v>
+        <v>10.38450873542174</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2453929.219442913</v>
+        <v>10.45188623177252</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2823739.564362229</v>
+        <v>10.46903974057324</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1233806.773942755</v>
+        <v>10.47454967326003</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1480410.434080475</v>
+        <v>10.53863237893249</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1646594.635169722</v>
+        <v>10.55885750035682</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>329146.5112476039</v>
+        <v>10.35111733249944</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1042352.514109611</v>
+        <v>10.49891190419339</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1484061.246708874</v>
+        <v>10.53535814257642</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>74595.40198337704</v>
+        <v>10.35648572971125</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>629470.3578825543</v>
+        <v>10.46989189755148</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>879759.309331776</v>
+        <v>10.49830409476995</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-336844.4218601312</v>
+        <v>10.31329515984769</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>458725.1225891457</v>
+        <v>10.43014456217013</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>680118.6423217914</v>
+        <v>10.46310606950459</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-52106.48257499725</v>
+        <v>10.39932001059916</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1070222.457717347</v>
+        <v>10.49390442545277</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1333414.779151935</v>
+        <v>10.52012251316705</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>605800.5138740025</v>
+        <v>10.53343008218765</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>883188.257988689</v>
+        <v>10.62659498575809</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>992794.4807188967</v>
+        <v>10.6590091953831</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23310.72558955206</v>
+        <v>10.37338838119198</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>657441.0767890811</v>
+        <v>10.5790169267988</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>867712.7203533058</v>
+        <v>10.63460106316543</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>131156.4179136008</v>
+        <v>10.37897372979886</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>704304.3497895394</v>
+        <v>10.50355715755202</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1022152.092775616</v>
+        <v>10.53693652051048</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-346947.2520094484</v>
+        <v>10.34130558745876</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>448295.6730099812</v>
+        <v>10.4704839289144</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>730073.5985803262</v>
+        <v>10.50902249134078</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27802.97552613074</v>
+        <v>10.43612457461616</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1113950.701812089</v>
+        <v>10.54070119465287</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1446015.197896159</v>
+        <v>10.57142661201675</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>763317.7168196205</v>
+        <v>10.60304727022598</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>972078.1712990911</v>
+        <v>10.70826398943604</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1141839.484195966</v>
+        <v>10.74810612419367</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21091.58792979059</v>
+        <v>10.43955248230955</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>730968.9117323384</v>
+        <v>10.66519688287261</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>964894.967764427</v>
+        <v>10.7301677570839</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-112899.4904755894</v>
+        <v>10.26620672919843</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>163505.611566859</v>
+        <v>10.33915767552111</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>426771.2660882662</v>
+        <v>10.35642392599663</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-746447.1418195595</v>
+        <v>10.23311753988002</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-174235.7643445647</v>
+        <v>10.30749090301453</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>177.4562712022888</v>
+        <v>10.32766908432505</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-510912.8647941481</v>
+        <v>10.29371150056758</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>591898.3323967976</v>
+        <v>10.35390822957453</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>797803.6080699346</v>
+        <v>10.36988056205986</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>207739.0005842256</v>
+        <v>10.35457206372333</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>262411.9597736297</v>
+        <v>10.41014538322248</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>424396.6314981962</v>
+        <v>10.42920652713845</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-358223.7670439512</v>
+        <v>10.23843574228444</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-43509.02270805069</v>
+        <v>10.37094746310627</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>200073.8991402771</v>
+        <v>10.40494354398496</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-24136.42515631534</v>
+        <v>10.25018775193979</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>217662.9950061971</v>
+        <v>10.35219917240233</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>464767.4144550366</v>
+        <v>10.37881544221318</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-483398.2821842325</v>
+        <v>10.19530862288091</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-120845.4603260984</v>
+        <v>10.30008623116369</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>125598.3418572571</v>
+        <v>10.33093755634601</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-430194.82421772</v>
+        <v>10.28193185358482</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>289470.7700982115</v>
+        <v>10.36670946325584</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>570034.9675002159</v>
+        <v>10.39124945109214</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>94881.7170815314</v>
+        <v>10.37697296365684</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>266339.2889589549</v>
+        <v>10.4584034324478</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>419667.911962843</v>
+        <v>10.48904461313701</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-336822.1425597648</v>
+        <v>10.22626475778132</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4394.708812245037</v>
+        <v>10.41111962816874</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>199677.3346871624</v>
+        <v>10.46321173729057</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-5449.823882245008</v>
+        <v>10.27638743394494</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>335513.0581176686</v>
+        <v>10.38884377667905</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>628548.1757566202</v>
+        <v>10.42010259317692</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-473398.2713187209</v>
+        <v>10.22671594587654</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-14757.56413059963</v>
+        <v>10.34302020955687</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>263666.1489374014</v>
+        <v>10.37908416026441</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-284978.1944580777</v>
+        <v>10.32134977600372</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>492742.6755407869</v>
+        <v>10.41546877265736</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>813620.284945546</v>
+        <v>10.44422077803423</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>429063.3689599263</v>
+        <v>10.44821915442372</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>545787.8502065085</v>
+        <v>10.54088950708509</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>742134.8870361864</v>
+        <v>10.57850964731281</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-207918.4154479064</v>
+        <v>10.29418189217696</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>259524.5974921398</v>
+        <v>10.49776108891656</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>464909.243634335</v>
+        <v>10.55862266427438</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-450379.7282984511</v>
+        <v>10.29973465971841</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>39677.92006448469</v>
+        <v>10.37027179731155</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>278504.0674990413</v>
+        <v>10.38604134367134</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-867340.6811844222</v>
+        <v>10.27158962875095</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41572.25485809402</v>
+        <v>10.3436826604342</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>158343.4724645486</v>
+        <v>10.36210280012089</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-554856.1966407341</v>
+        <v>10.32728379471615</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>993038.4250544028</v>
+        <v>10.38564600338271</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>1137863.058772288</v>
+        <v>10.40021949627207</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>237251.8530162601</v>
+        <v>10.39151565579035</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>352245.4595412312</v>
+        <v>10.44657312052493</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>403520.830507885</v>
+        <v>10.46390463294211</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-634797.6102103037</v>
+        <v>10.28160155405614</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-122549.89048273</v>
+        <v>10.40976887448092</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>78101.75294485524</v>
+        <v>10.44081992301629</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>206133.2013440437</v>
+        <v>10.30065735076574</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>701287.6299969759</v>
+        <v>10.3991151387264</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>890049.3573868242</v>
+        <v>10.42349542895914</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-200679.6364184937</v>
+        <v>10.2535264980577</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>482849.5955931344</v>
+        <v>10.35486972605506</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>663557.8812933443</v>
+        <v>10.38311283330865</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-13569.24337463595</v>
+        <v>10.33288043858644</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1102254.303066584</v>
+        <v>10.41489445933243</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1316535.711526372</v>
+        <v>10.43735238024436</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>593905.5135473949</v>
+        <v>10.43333882644566</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>884834.2590304241</v>
+        <v>10.51356508844737</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>967302.5070180837</v>
+        <v>10.54155468441867</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-29135.75443857072</v>
+        <v>10.2908108691046</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>572399.9294829385</v>
+        <v>10.4692861298155</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>698264.9371733002</v>
+        <v>10.51700171678703</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>229629.6739044238</v>
+        <v>10.32782116632103</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>819623.4705690963</v>
+        <v>10.4361194649577</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1135270.711073165</v>
+        <v>10.46489385013441</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-297644.5004202514</v>
+        <v>10.28569899212165</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>473459.3949323434</v>
+        <v>10.39789993319034</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>768865.9745251946</v>
+        <v>10.43107618660006</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>58880.39018949469</v>
+        <v>10.37244559912222</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1214448.53936674</v>
+        <v>10.46325873738771</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1556098.013527681</v>
+        <v>10.48970305374685</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>871094.1721878082</v>
+        <v>10.50333981849813</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1085855.56904739</v>
+        <v>10.5941841050386</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1273229.400906057</v>
+        <v>10.62876421016011</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-8899.44043161186</v>
+        <v>10.35765469875154</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>732350.8908641993</v>
+        <v>10.55376645029054</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>925844.9463093143</v>
+        <v>10.60977919015445</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>173862.3376720503</v>
+        <v>10.27871046337413</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>454564.4983143096</v>
+        <v>10.34377534193708</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>791540.7351791442</v>
+        <v>10.35870849452218</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-191142.7292076752</v>
+        <v>10.25030852025597</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>520142.4283224391</v>
+        <v>10.31666063905856</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>723037.1215611859</v>
+        <v>10.33411603998065</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-51.41134220526155</v>
+        <v>10.30373765850777</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1395306.003910284</v>
+        <v>10.35744709510045</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>1630752.353314648</v>
+        <v>10.37125855074149</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>687471.2068967447</v>
+        <v>10.3580660726827</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>697895.4423944238</v>
+        <v>10.408032025598</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>849366.1150976336</v>
+        <v>10.42433025633153</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>145293.8738194988</v>
+        <v>10.25517722915831</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>400077.3404315717</v>
+        <v>10.37336746879647</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>715852.8547026673</v>
+        <v>10.40279604265601</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-166122.370174621</v>
+        <v>10.2655369086737</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>102799.9848412357</v>
+        <v>10.35646639881847</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>403038.7685440667</v>
+        <v>10.3795646700769</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-641439.8902235677</v>
+        <v>10.21812695605849</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-190071.1699374749</v>
+        <v>10.31154029742921</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>102781.5266746513</v>
+        <v>10.3383146994141</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-701588.6117136165</v>
+        <v>10.29454867585109</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>209177.8156931321</v>
+        <v>10.37013762455586</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>541546.9372885858</v>
+        <v>10.39142931172825</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19818.36627578734</v>
+        <v>10.37939292214795</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>174676.0209202782</v>
+        <v>10.45247384764109</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>362203.9628101676</v>
+        <v>10.47884704640341</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-401347.5913361039</v>
+        <v>10.24596303518873</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-55783.66273667828</v>
+        <v>10.41074080008735</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>185543.1698816837</v>
+        <v>10.45597727891763</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>87338.43486160504</v>
+        <v>10.29216561382884</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>526598.7994082652</v>
+        <v>10.39235269219097</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>885274.2197976268</v>
+        <v>10.41956569040588</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-519123.5333226623</v>
+        <v>10.24963026510718</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>102876.7481813184</v>
+        <v>10.35325783892147</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>435099.4786050613</v>
+        <v>10.38465119785231</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-262205.7314757307</v>
+        <v>10.33295400290454</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>768202.2501685808</v>
+        <v>10.41682070071547</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1152433.849373543</v>
+        <v>10.44184482566613</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>601734.2555622675</v>
+        <v>10.44664602274198</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>708951.7273129118</v>
+        <v>10.52969853429291</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>942286.9166690554</v>
+        <v>10.56225166919971</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-151819.8489475188</v>
+        <v>10.31019135887355</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>411747.57360016</v>
+        <v>10.49156369830975</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>647981.4894843623</v>
+        <v>10.54456967821296</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-489898.8722836606</v>
+        <v>10.24965479389491</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-642074.0534586072</v>
+        <v>10.31661247263191</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-501482.5556471725</v>
+        <v>10.33197643987674</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-814313.6675127761</v>
+        <v>10.21596740505862</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-678807.0247323768</v>
+        <v>10.28418035542068</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-637913.9654174757</v>
+        <v>10.30212268017746</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-949842.0931050596</v>
+        <v>10.27313163167225</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-228105.0642091257</v>
+        <v>10.32834021385305</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-166631.0080184746</v>
+        <v>10.34253477913971</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-318569.5530951268</v>
+        <v>10.32154877335802</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-517009.3556511484</v>
+        <v>10.37266671788725</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-458233.1486534474</v>
+        <v>10.38952174795621</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-542782.4454811126</v>
+        <v>10.2143619607299</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-730493.8978602591</v>
+        <v>10.33598054019953</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-614286.8190937323</v>
+        <v>10.36624888773746</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-195421.2988376415</v>
+        <v>10.23438183348188</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-152772.9848266963</v>
+        <v>10.32804516055934</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33871.96244414301</v>
+        <v>10.35186930449047</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-564272.8915104425</v>
+        <v>10.18018188730459</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-408891.3496434077</v>
+        <v>10.27632137953671</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-220272.6788802033</v>
+        <v>10.30391384449645</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-729458.1539201888</v>
+        <v>10.26137272796779</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-179606.618274288</v>
+        <v>10.33915804274099</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>37841.3247376962</v>
+        <v>10.3610988733639</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-210393.4686370343</v>
+        <v>10.34064890023005</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-154372.7248239357</v>
+        <v>10.41557462785168</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-27931.3546938596</v>
+        <v>10.44289786147071</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-445849.4474428807</v>
+        <v>10.20162326083728</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-345320.7464068715</v>
+        <v>10.37133782516778</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-212678.4588454354</v>
+        <v>10.41798087942202</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>59360.07196111137</v>
+        <v>10.2657751925379</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>290188.109726598</v>
+        <v>10.36906847893064</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>546879.1911524157</v>
+        <v>10.39717924344945</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-466573.9819808395</v>
+        <v>10.21677387112816</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-115267.0724356971</v>
+        <v>10.32353801614988</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>126460.218705602</v>
+        <v>10.35594260083454</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-321590.1724993747</v>
+        <v>10.30494433067918</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>381083.0237623176</v>
+        <v>10.39133992727238</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>662777.9548106433</v>
+        <v>10.41716898794962</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>363566.1966881924</v>
+        <v>10.41504594405764</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>394718.9027344577</v>
+        <v>10.50035425136227</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>567773.2328380521</v>
+        <v>10.53411975554666</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-195845.2412044481</v>
+        <v>10.2728555706347</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>129228.2914547219</v>
+        <v>10.45983445105768</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>274714.282491714</v>
+        <v>10.51456922009433</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>266882.0848043289</v>
+        <v>10.29116190122958</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>499167.6280973707</v>
+        <v>10.35708292824088</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>980247.7993070292</v>
+        <v>10.37361506921295</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-693043.9276150446</v>
+        <v>10.26244919710258</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>150931.7913302649</v>
+        <v>10.32960833168939</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>462390.2957260138</v>
+        <v>10.34891967294138</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-357400.8994301658</v>
+        <v>10.31572382934556</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1135195.491046993</v>
+        <v>10.3700812217088</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1543125.792341129</v>
+        <v>10.38538186334296</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>554363.5632693423</v>
+        <v>10.37760435493558</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>621030.3882262709</v>
+        <v>10.42798568343975</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>864184.0442853307</v>
+        <v>10.446540799832</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60677.63244187272</v>
+        <v>10.27469737825965</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>261144.7663625255</v>
+        <v>10.39448745044277</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>754490.6703691655</v>
+        <v>10.42689945505719</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>109648.4513706181</v>
+        <v>10.28492427560914</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>412488.5212608394</v>
+        <v>10.37720762522106</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>740366.398570071</v>
+        <v>10.40239506570811</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-682774.4605461133</v>
+        <v>10.23702317315571</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-106479.1519212846</v>
+        <v>10.3317578800938</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>185773.4236823669</v>
+        <v>10.36095288806861</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-611333.0008551127</v>
+        <v>10.31309513229932</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>425201.3830051615</v>
+        <v>10.38974841675381</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>804885.6892516313</v>
+        <v>10.41298236811453</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>251056.0720352784</v>
+        <v>10.4086187488901</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>573660.8579727882</v>
+        <v>10.48256426861972</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>750596.026601552</v>
+        <v>10.51190138653703</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-244446.5470912806</v>
+        <v>10.27496757238743</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>204395.8609670237</v>
+        <v>10.44225494097398</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>493243.4409998909</v>
+        <v>10.49138957073521</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>194423.1216817959</v>
+        <v>10.30205427469414</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>568510.6212597131</v>
+        <v>10.4037910000667</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>933733.8929283437</v>
+        <v>10.43318478792362</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-547191.6215936709</v>
+        <v>10.25874669855359</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>73678.90934042608</v>
+        <v>10.36390359279612</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>395609.3284604137</v>
+        <v>10.39782405677349</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-328366.0640948496</v>
+        <v>10.34230038655299</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>712108.2265974765</v>
+        <v>10.42740143394864</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1125537.963682142</v>
+        <v>10.45445376101192</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>686412.8214727559</v>
+        <v>10.46548284951441</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>907127.4253580731</v>
+        <v>10.54961896457676</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1107485.172336888</v>
+        <v>10.58524569970215</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-166854.1665308469</v>
+        <v>10.32905965257334</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>425097.2429783426</v>
+        <v>10.51326850138493</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>704700.6096297826</v>
+        <v>10.57035559873385</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>830069.2497318289</v>
+        <v>10.31271532003018</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1662046.678836489</v>
+        <v>10.3770153804656</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>2072146.746522926</v>
+        <v>10.39166277158142</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>322666.6306993999</v>
+        <v>10.28810014086424</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1615194.237592845</v>
+        <v>10.35378945263991</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1900703.953352649</v>
+        <v>10.37090614689037</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>987914.567555438</v>
+        <v>10.33849512326553</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3024171.973064268</v>
+        <v>10.39167080821042</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>3346679.879883196</v>
+        <v>10.40521532584198</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1660315.056474897</v>
+        <v>10.40009750452087</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1932692.362641083</v>
+        <v>10.44990126482095</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2155953.205468854</v>
+        <v>10.46598350692255</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>527684.0048626552</v>
+        <v>10.2991910964346</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1441026.690510754</v>
+        <v>10.4160113514966</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1823595.553850272</v>
+        <v>10.44486280839881</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>233641.4121847513</v>
+        <v>10.3089760799733</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>854639.4657026192</v>
+        <v>10.39873619443858</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>1183125.556013219</v>
+        <v>10.42136008294767</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-247393.4014827623</v>
+        <v>10.26669887924874</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>571961.2995782178</v>
+        <v>10.35905372746082</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>898868.9885906773</v>
+        <v>10.38527345667486</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-51629.58361038264</v>
+        <v>10.339041436139</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1265661.945604966</v>
+        <v>10.41377781033539</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1633881.219219012</v>
+        <v>10.43462914231486</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>687996.3257752112</v>
+        <v>10.43279152557877</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1040066.414341175</v>
+        <v>10.50543244332347</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1233932.090248907</v>
+        <v>10.53137408179447</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-79381.4476723394</v>
+        <v>10.3019176368902</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>685395.3248813159</v>
+        <v>10.4646074200364</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>944721.5284702717</v>
+        <v>10.50889931413458</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>149220.8207925972</v>
+        <v>10.33139387176002</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>866892.9804310447</v>
+        <v>10.4301726746062</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>1294448.60098812</v>
+        <v>10.45681748590643</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-418476.4942394833</v>
+        <v>10.29354697087289</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>489296.1248475814</v>
+        <v>10.39585527408386</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>898464.707928933</v>
+        <v>10.42658899610608</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-58362.09086401413</v>
+        <v>10.37283021431681</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1291935.972122896</v>
+        <v>10.45563275534534</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1755771.11653301</v>
+        <v>10.48013180170441</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>921810.184071312</v>
+        <v>10.49392904423103</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1183278.925589054</v>
+        <v>10.57628558651437</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1470816.541994121</v>
+        <v>10.60826605885113</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-120452.5776550793</v>
+        <v>10.36014823872263</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>779491.2634858829</v>
+        <v>10.53900684042878</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1079293.274298102</v>
+        <v>10.59089267484061</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1038204.640652178</v>
+        <v>10.33568430653648</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1927442.478180592</v>
+        <v>10.39245262493717</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>2728401.085708163</v>
+        <v>10.40630115056733</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>88429.3174808917</v>
+        <v>10.31588435596788</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1949609.604759081</v>
+        <v>10.37386214239321</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2494295.317410666</v>
+        <v>10.39004188478154</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>929491.1952921182</v>
+        <v>10.35869695155468</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>3712596.23023617</v>
+        <v>10.40563178873435</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>4395038.246299469</v>
+        <v>10.41845026006336</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1832388.556901711</v>
+        <v>10.42057775256556</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2186329.903413328</v>
+        <v>10.46475191194632</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>2529358.621382427</v>
+        <v>10.48027237278554</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>543243.6584596627</v>
+        <v>10.33374546441786</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1423236.949955392</v>
+        <v>10.4369269595371</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2230984.999254282</v>
+        <v>10.46407569406642</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>408863.3796682393</v>
+        <v>10.34078397182838</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1196820.117500002</v>
+        <v>10.42010551398062</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1657400.298351921</v>
+        <v>10.44118798850338</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-540441.7185067574</v>
+        <v>10.30612725158242</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>697265.1434286691</v>
+        <v>10.38772731404559</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1098311.626559912</v>
+        <v>10.41216796688912</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-243831.3102695428</v>
+        <v>10.36753548036046</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1647911.092362167</v>
+        <v>10.43357283724231</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2171941.36947859</v>
+        <v>10.45302170329821</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>954885.4745786709</v>
+        <v>10.46057153518797</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1565122.452088902</v>
+        <v>10.52508306040824</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>1773027.514886239</v>
+        <v>10.54960914764096</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-49104.55541874726</v>
+        <v>10.34783970666006</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>965158.2424112868</v>
+        <v>10.49166846415684</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1368189.937176249</v>
+        <v>10.53279408689673</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>415606.4936612986</v>
+        <v>10.3530993429571</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1217931.896908145</v>
+        <v>10.44036456506832</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1778885.437932733</v>
+        <v>10.46499413851361</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-504564.9326990198</v>
+        <v>10.32217442903145</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>697419.7934843337</v>
+        <v>10.41253249927925</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1193183.428177336</v>
+        <v>10.44095785273226</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-82713.28096288933</v>
+        <v>10.38998181644147</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1713670.299038199</v>
+        <v>10.46311792798164</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2339600.640515347</v>
+        <v>10.48578686576686</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1329083.31297309</v>
+        <v>10.50577561857252</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1756620.319309977</v>
+        <v>10.57885538575822</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2049601.375677727</v>
+        <v>10.60867764821886</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-122082.4603297932</v>
+        <v>10.39072754964576</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1014450.85161375</v>
+        <v>10.54877326610198</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1447633.744543596</v>
+        <v>10.59660528005774</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2648760.45146463</v>
+        <v>10.32400970408129</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>3378519.424184127</v>
+        <v>10.36564540622444</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4533629.827674218</v>
+        <v>10.37614528958403</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>1825096.668019976</v>
+        <v>10.30684716328556</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>4068162.687170192</v>
+        <v>10.34926879197332</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>4847082.893223257</v>
+        <v>10.36152813672523</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>2639479.233731921</v>
+        <v>10.33948260719771</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>6347043.196775002</v>
+        <v>10.37381803053061</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>7369972.728624983</v>
+        <v>10.38353262624343</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>3198331.098938752</v>
+        <v>10.38179200763657</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3599676.858057179</v>
+        <v>10.41366826098439</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4240730.247884993</v>
+        <v>10.42551784632929</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1890302.802488966</v>
+        <v>10.31691178946716</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2532655.674050961</v>
+        <v>10.39257790817452</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>3789152.068881872</v>
+        <v>10.41313713271416</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1706681.457411261</v>
+        <v>10.32554375419418</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2558366.833401426</v>
+        <v>10.38382448887395</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>3310819.352440471</v>
+        <v>10.3997944504722</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>689649.815774028</v>
+        <v>10.2966600232065</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2223775.314198618</v>
+        <v>10.35649330409681</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>2902565.174568154</v>
+        <v>10.37499798832957</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>818525.8830395511</v>
+        <v>10.3432924119311</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3404609.455042021</v>
+        <v>10.39170607517182</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>4301681.4454983</v>
+        <v>10.40643357984404</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1915174.873633304</v>
+        <v>10.40809823026122</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2869677.796236476</v>
+        <v>10.45486788250438</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>3315067.172567152</v>
+        <v>10.47354739368675</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>603374.7684248735</v>
+        <v>10.32382199393271</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1806762.068206241</v>
+        <v>10.42947996009352</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2520614.603988141</v>
+        <v>10.46060140596057</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1442408.761409249</v>
+        <v>10.3357364067996</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2376504.094276538</v>
+        <v>10.39997065612118</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>3194675.932189854</v>
+        <v>10.41859698685137</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>397126.0693869351</v>
+        <v>10.30971774386299</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1930801.751763461</v>
+        <v>10.3761134669004</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2664187.038472481</v>
+        <v>10.39760257150219</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>793222.7778997386</v>
+        <v>10.36107906904115</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3290908.878985605</v>
+        <v>10.41481205679939</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4248209.044610285</v>
+        <v>10.43195109593857</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2476249.211967926</v>
+        <v>10.44320260702239</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3127738.231330227</v>
+        <v>10.49639375206367</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3605849.749269549</v>
+        <v>10.51904012593328</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>324391.7435730698</v>
+        <v>10.35720041297578</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1775573.253261791</v>
+        <v>10.47351267377966</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2443486.895264564</v>
+        <v>10.50965615624319</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>596854.0997997576</v>
+        <v>10.31831453715479</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>1757143.524211234</v>
+        <v>10.37772776082418</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2248520.396763476</v>
+        <v>10.39155152170411</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-631917.2458611515</v>
+        <v>10.29585672743742</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1226191.215556535</v>
+        <v>10.35656914088461</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1519367.335248157</v>
+        <v>10.37272381727161</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>344805.078461068</v>
+        <v>10.34205940168769</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3162654.574561615</v>
+        <v>10.39120658623862</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3529219.280073315</v>
+        <v>10.40399436524799</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1619745.63909923</v>
+        <v>10.40083063047113</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2031004.116382587</v>
+        <v>10.4469652304536</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2208717.709542238</v>
+        <v>10.46228684411376</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>46387.65701159717</v>
+        <v>10.30848825324006</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1324904.492943739</v>
+        <v>10.41644715555784</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1770957.23391064</v>
+        <v>10.44363701854099</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>98581.01586794689</v>
+        <v>10.31688581748582</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>974041.8409709185</v>
+        <v>10.39983797613628</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1323434.594477269</v>
+        <v>10.42107895173614</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-822807.8785528878</v>
+        <v>10.2782731286563</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>361479.8572786623</v>
+        <v>10.36364494741003</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>683052.1995146628</v>
+        <v>10.38826685423999</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-479067.685159236</v>
+        <v>10.34453163673127</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1358419.926572141</v>
+        <v>10.41361828997154</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1752801.618417047</v>
+        <v>10.4332020728917</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>769285.6080859252</v>
+        <v>10.43373418508727</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1303949.025629086</v>
+        <v>10.50102846407802</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1440647.104442981</v>
+        <v>10.52554876421713</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-318980.3371737483</v>
+        <v>10.31391901626045</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>783656.8020417863</v>
+        <v>10.46429302948624</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1036644.86890969</v>
+        <v>10.50583374207142</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-3409.962856648737</v>
+        <v>10.33418435331041</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>942444.0256832873</v>
+        <v>10.42544701444756</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1445660.846351299</v>
+        <v>10.45039401914585</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-880190.8250670733</v>
+        <v>10.29951706638824</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>350379.9296857629</v>
+        <v>10.39405849737688</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>811541.3081568282</v>
+        <v>10.42284194385548</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-417364.4528191613</v>
+        <v>10.37231577580667</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1398206.425746777</v>
+        <v>10.44883382740479</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>1946817.397947504</v>
+        <v>10.47178048433341</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1087833.489698215</v>
+        <v>10.48610019958853</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1477505.464149049</v>
+        <v>10.56235031523383</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>1762229.459630959</v>
+        <v>10.59242766003523</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-356361.7057539232</v>
+        <v>10.36370641781982</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>880211.2092211449</v>
+        <v>10.52897204128333</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1219895.753886016</v>
+        <v>10.57751500959041</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>87958.10110779967</v>
+        <v>10.29250711671608</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>428039.9235694276</v>
+        <v>10.34972188934504</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>875142.3546962456</v>
+        <v>10.36386689654193</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-1017647.48833709</v>
+        <v>10.26725716504298</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31054.9041094554</v>
+        <v>10.32553106113095</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>272712.1019352146</v>
+        <v>10.34205992212098</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-502018.4019571606</v>
+        <v>10.31378189401819</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>1307888.694219063</v>
+        <v>10.36094797526695</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>1652937.901476843</v>
+        <v>10.3740373038245</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>466572.6781744254</v>
+        <v>10.36552684673998</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>485155.9171291664</v>
+        <v>10.40915940684008</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>608736.8511169134</v>
+        <v>10.42491015334187</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-378370.8798724753</v>
+        <v>10.27558059306472</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-62348.47583288095</v>
+        <v>10.37953396939247</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>354289.5986733371</v>
+        <v>10.40729658588659</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>261053.9029487236</v>
+        <v>10.28699647900361</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>625773.5147330605</v>
+        <v>10.36712958320084</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>992435.6269757864</v>
+        <v>10.38874219312664</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-658796.1272862819</v>
+        <v>10.24508553679643</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20009.52578870648</v>
+        <v>10.32733015474544</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>347695.0760171087</v>
+        <v>10.35238689762851</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-424645.6303541975</v>
+        <v>10.31141425273403</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>792207.547035147</v>
+        <v>10.37796170518352</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1215734.363016257</v>
+        <v>10.39789478156725</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>427865.3063042883</v>
+        <v>10.39218985916766</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>715097.6648783889</v>
+        <v>10.45629585868268</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>860872.8012141413</v>
+        <v>10.48131950354405</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-327396.4912495746</v>
+        <v>10.27537332656339</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>208459.0033955117</v>
+        <v>10.42061233259168</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>512756.2825933243</v>
+        <v>10.46280933702686</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>240259.681885903</v>
+        <v>10.30343872355649</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>753262.6874274595</v>
+        <v>10.39181359264588</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1153046.953442843</v>
+        <v>10.41709215966943</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-622779.5322795121</v>
+        <v>10.26558357389062</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>181751.8603282028</v>
+        <v>10.35691447272234</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>531296.3430069389</v>
+        <v>10.38608970594475</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-269163.4612384622</v>
+        <v>10.33834270892137</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1025494.809859094</v>
+        <v>10.41225540676068</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1476276.713731742</v>
+        <v>10.43551606109225</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>815079.1582823049</v>
+        <v>10.44350422217097</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1050592.979394585</v>
+        <v>10.51650028124058</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1210782.061718171</v>
+        <v>10.54700545525775</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-321624.3736800917</v>
+        <v>10.32425624212777</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>452461.836233316</v>
+        <v>10.48424944022269</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>743874.1729511423</v>
+        <v>10.53337334190899</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>638197.6707515784</v>
+        <v>10.31918300883052</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1219557.618918633</v>
+        <v>10.36042743718183</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2429657.13640341</v>
+        <v>10.37093162827141</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-364196.9841661693</v>
+        <v>10.30170062671664</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1708368.472451053</v>
+        <v>10.34370470827115</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2545407.542483889</v>
+        <v>10.35596929773255</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>64969.3760800606</v>
+        <v>10.33441798150393</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3584799.084643987</v>
+        <v>10.36841455550654</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>4670513.752333438</v>
+        <v>10.37813433235008</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1595524.43830711</v>
+        <v>10.37536513988559</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1926937.262313405</v>
+        <v>10.40682693979377</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2638288.866513524</v>
+        <v>10.41868785175529</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>536230.1349044277</v>
+        <v>10.3109127343224</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1029323.026789735</v>
+        <v>10.3858644450811</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2345015.634762755</v>
+        <v>10.40643023905888</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>345339.9914953138</v>
+        <v>10.31864431487839</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1078258.076042596</v>
+        <v>10.37639623918122</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1908301.35467865</v>
+        <v>10.39236571500194</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-772690.3278198706</v>
+        <v>10.28932899096257</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>627860.0323369761</v>
+        <v>10.34859681386911</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1387375.823155395</v>
+        <v>10.36710169647341</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-902089.1423231175</v>
+        <v>10.33608057247058</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1538663.943720051</v>
+        <v>10.38403548730125</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2519739.449022271</v>
+        <v>10.39876428512628</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>756393.1150936659</v>
+        <v>10.39890812189924</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1651162.522296857</v>
+        <v>10.44511348892937</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2166343.619415794</v>
+        <v>10.46379893458026</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-423156.8371987047</v>
+        <v>10.31517909912473</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>657995.8266406378</v>
+        <v>10.41987310557385</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1452753.526110518</v>
+        <v>10.45099129572474</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>313197.1608520385</v>
+        <v>10.32851303042387</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1145554.754225231</v>
+        <v>10.39218625419544</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2001967.035916683</v>
+        <v>10.41079825561714</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-847756.8304410882</v>
+        <v>10.30203844575555</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>570863.0629569159</v>
+        <v>10.36783308246586</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1344025.554752816</v>
+        <v>10.38930694731309</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-666486.0579494953</v>
+        <v>10.35351079708436</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1706095.103255458</v>
+        <v>10.40675618356286</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2704889.628301304</v>
+        <v>10.42388403967356</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1491349.500648113</v>
+        <v>10.43351393508712</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2089375.232954497</v>
+        <v>10.48610329060545</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2603008.389235116</v>
+        <v>10.50873546948503</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-544813.2404184414</v>
+        <v>10.34807065728888</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>796578.7512383696</v>
+        <v>10.46336113809186</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1512572.572145062</v>
+        <v>10.49947545939408</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1122159.752812158</v>
+        <v>10.31953049866237</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1622644.109066936</v>
+        <v>10.38225871443226</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>2220923.014775023</v>
+        <v>10.3977653892626</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>720889.8030585265</v>
+        <v>10.29521742579584</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1950209.717082914</v>
+        <v>10.35911709763057</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2369714.183190873</v>
+        <v>10.37723761160036</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>1257739.735525558</v>
+        <v>10.34414125441664</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3203588.440170227</v>
+        <v>10.39586482239128</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>3718176.93903578</v>
+        <v>10.41022019036664</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1659361.460137536</v>
+        <v>10.40822742097512</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1848311.726314173</v>
+        <v>10.4560701764336</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2170104.713249653</v>
+        <v>10.47329801201041</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>917637.1952142324</v>
+        <v>10.30973467317259</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1350528.862053595</v>
+        <v>10.42370983011351</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>2002952.111862123</v>
+        <v>10.45413794366508</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>604168.1859682046</v>
+        <v>10.32054882411159</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1043146.835189675</v>
+        <v>10.40833112395805</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1429492.957094728</v>
+        <v>10.43200918873252</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>19856.03711376012</v>
+        <v>10.2788519391833</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>794920.4984383688</v>
+        <v>10.36895364659322</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>1149576.953084551</v>
+        <v>10.39640550070571</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>148901.2106695475</v>
+        <v>10.34899846951776</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1427647.3286389</v>
+        <v>10.42190828977235</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1870394.646669203</v>
+        <v>10.44375410699794</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>770860.2594760917</v>
+        <v>10.44648510941125</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1125844.686473331</v>
+        <v>10.51667567789806</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1354106.523238748</v>
+        <v>10.54404029439826</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>137455.70450918</v>
+        <v>10.31861916611157</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>704766.8496835709</v>
+        <v>10.47772958169162</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1073212.436650809</v>
+        <v>10.52395082266635</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>467250.3527406489</v>
+        <v>10.33913406251888</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>991575.3555315465</v>
+        <v>10.43590819223289</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1385047.814866707</v>
+        <v>10.46357160931808</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-152179.5596065286</v>
+        <v>10.30198635937423</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>676579.0132831777</v>
+        <v>10.40200267913901</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1025597.867772847</v>
+        <v>10.43393066017534</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>131750.9272722464</v>
+        <v>10.37913014654634</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1417720.726772254</v>
+        <v>10.46007606943286</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1861407.663307121</v>
+        <v>10.48553891426548</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1054642.466601888</v>
+        <v>10.50332448959373</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1307716.89636291</v>
+        <v>10.58320354094067</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1534832.710665541</v>
+        <v>10.61652948393946</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>84811.44860984873</v>
+        <v>10.37275008519627</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>818740.5347974384</v>
+        <v>10.54795892226061</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1135397.699387497</v>
+        <v>10.60171297098702</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>307521.0047400633</v>
+        <v>10.31761464948813</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1395424.784896908</v>
+        <v>10.37839052983088</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1910637.316220578</v>
+        <v>10.39267498189105</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-759280.0264506487</v>
+        <v>10.29490992346424</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1047689.785764771</v>
+        <v>10.35701495988362</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1358672.798204802</v>
+        <v>10.37370837626983</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>106101.3328575583</v>
+        <v>10.34206985257777</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2808847.603305199</v>
+        <v>10.39234572426579</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3204965.563378836</v>
+        <v>10.40556198146101</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1416232.883837898</v>
+        <v>10.40247954725566</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1824878.816167759</v>
+        <v>10.44963422327635</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>1954116.754182075</v>
+        <v>10.46553702799926</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-66346.52063764144</v>
+        <v>10.30821929064121</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>1131920.087541413</v>
+        <v>10.41866788066468</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1610440.173042761</v>
+        <v>10.44673842374542</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26365.83117796246</v>
+        <v>10.31558242256345</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>824011.5530281218</v>
+        <v>10.40043820639748</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>1166443.975459935</v>
+        <v>10.42234699240283</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-797085.0962860386</v>
+        <v>10.2763825608827</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>320117.0015989942</v>
+        <v>10.36371417084475</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>626334.809936618</v>
+        <v>10.38911195490288</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-507644.2342713762</v>
+        <v>10.3440332727453</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1223916.818010869</v>
+        <v>10.41470789400739</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1610291.956277472</v>
+        <v>10.43491048088539</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>710080.6067575717</v>
+        <v>10.43550056882603</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1205927.654109193</v>
+        <v>10.504288696717</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1306685.34365826</v>
+        <v>10.52966512704185</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-337824.5760803043</v>
+        <v>10.31317698033686</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>682778.9104662663</v>
+        <v>10.46702023107693</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>940216.6856114171</v>
+        <v>10.50983552309399</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-56116.43580208557</v>
+        <v>10.33099211593323</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>791644.038868773</v>
+        <v>10.42432920828127</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1256922.499715646</v>
+        <v>10.45003404713201</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-845951.9259837691</v>
+        <v>10.29570750475111</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>292630.1022808698</v>
+        <v>10.39239607285645</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>709603.7860635745</v>
+        <v>10.42205674464559</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-456627.341594774</v>
+        <v>10.3701535732138</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1233932.690663329</v>
+        <v>10.44841156266854</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1743061.380008513</v>
+        <v>10.4720589482851</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>980450.5590378523</v>
+        <v>10.48625550727131</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1334625.734465718</v>
+        <v>10.56417899034247</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>1567432.957677174</v>
+        <v>10.59524288980798</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-406855.6696035138</v>
+        <v>10.36132986376408</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>729675.6156351434</v>
+        <v>10.53036782901871</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1048958.547919888</v>
+        <v>10.5803557275028</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.436</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.83</v>
+        <v>17.615</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.66</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.566</v>
+        <v>20.147</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.647</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.996</v>
+        <v>10.722</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.31300072490726</v>
+        <v>12.55316024440806</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.37033394500293</v>
+        <v>17.1488982279989</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.38475045061787</v>
+        <v>24.10619437658836</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.28954131477196</v>
+        <v>0.8602823160043398</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.3479823539652</v>
+        <v>15.69902174161169</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.36482076356147</v>
+        <v>20.78678940866083</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.33473838709835</v>
+        <v>6.615069124039556</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10.38204081374372</v>
+        <v>28.17541741198224</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10.39538372190281</v>
+        <v>34.00607717967176</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.39237135914687</v>
+        <v>22.68404926900969</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10.43635706301496</v>
+        <v>25.5068357277816</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10.45258785840911</v>
+        <v>30.72351681213191</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.30337674489804</v>
+        <v>10.50341400256192</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10.40757008397113</v>
+        <v>17.02962971740152</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10.43581644725263</v>
+        <v>28.04360645770883</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.31241546447886</v>
+        <v>13.91700990872345</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10.39265124590457</v>
+        <v>22.40482269156258</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10.41457930324713</v>
+        <v>29.86600759514983</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.27279037929496</v>
+        <v>-2.682148567613834</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.35519535634432</v>
+        <v>13.92821481265683</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.38061164659335</v>
+        <v>21.25020308874121</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.33741055484639</v>
+        <v>0.8179784815114166</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.40408940922998</v>
+        <v>25.42528477237532</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.42431742971148</v>
+        <v>33.85751091756256</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10.4254484326213</v>
+        <v>23.57330194106171</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.48994717384921</v>
+        <v>36.44160765233045</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.51554562779246</v>
+        <v>42.27774651213473</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10.30985364169678</v>
+        <v>4.162345343491586</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.45531500828315</v>
+        <v>22.52042982462261</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.49807048587996</v>
+        <v>32.74401654810475</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.32584691423057</v>
+        <v>15.22309833325469</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>10.414260649998</v>
+        <v>25.66352513374152</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>10.43983323058228</v>
+        <v>34.84787278319519</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.29012581626993</v>
+        <v>-1.838533157278833</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>10.38154628531847</v>
+        <v>16.79046888199559</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>10.41105717571991</v>
+        <v>25.76360240558122</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10.36128215796099</v>
+        <v>4.591241937851684</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10.43526866226709</v>
+        <v>31.06074354465102</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.45880535530837</v>
+        <v>41.22276906880646</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>10.47297576896876</v>
+        <v>38.5994922695219</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>10.54629228625519</v>
+        <v>48.31392385289855</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.57733556532751</v>
+        <v>55.71684009365886</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>10.35501265187438</v>
+        <v>4.19514796369686</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>10.51511017751186</v>
+        <v>28.8369571291976</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.56475674253031</v>
+        <v>39.82925718123738</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.32140579368483</v>
+        <v>10.00530207028576</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.38948325772208</v>
+        <v>23.25483407338039</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10.40475881332781</v>
+        <v>29.42475167484525</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>10.29768031754425</v>
+        <v>3.621127213260407</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10.3672984920152</v>
+        <v>27.16130524386535</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>10.38515698008052</v>
+        <v>31.48537904277136</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.34984278858958</v>
+        <v>13.05946237023467</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.4062067318774</v>
+        <v>43.8228231222225</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10.42033791902655</v>
+        <v>48.16215893001443</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10.41759227899031</v>
+        <v>34.01172053892714</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>10.47087687109745</v>
+        <v>40.78760121296041</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>10.48757876991782</v>
+        <v>43.67445103414884</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.31240139607166</v>
+        <v>8.686120705816137</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10.43610299031555</v>
+        <v>29.56012772475788</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10.46619230337149</v>
+        <v>38.16125714754095</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.32220425516879</v>
+        <v>10.83766629895997</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.41716995408763</v>
+        <v>27.73511689887494</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>10.44073790969757</v>
+        <v>34.70403118256198</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.28077438508858</v>
+        <v>-1.760724999933317</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.37856910109617</v>
+        <v>23.63474019202142</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>10.40589263077297</v>
+        <v>30.8539353804021</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.35560110517434</v>
+        <v>5.811748818558384</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10.43475041520186</v>
+        <v>39.31299084996655</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>10.45647860261187</v>
+        <v>46.63689778819162</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.45845957119414</v>
+        <v>34.13602699975178</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>10.53600672856259</v>
+        <v>47.48212058153148</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10.56294446746027</v>
+        <v>52.20212554281544</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.32207279742871</v>
+        <v>5.911071917809855</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>10.49422538778817</v>
+        <v>36.08752073120101</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>10.54036763236609</v>
+        <v>44.2457904325923</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.34534166512699</v>
+        <v>11.74790847553223</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>10.44974276966468</v>
+        <v>32.38345662353065</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>10.47751620014744</v>
+        <v>43.08586582281995</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>10.30863069764853</v>
+        <v>-4.935666581973103</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>10.41683649481037</v>
+        <v>24.86858457682781</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.44888118140036</v>
+        <v>35.76164826714044</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.39070296979788</v>
+        <v>8.050483011162747</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>10.47828952637423</v>
+        <v>45.19252918787496</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10.50383304393102</v>
+        <v>56.18832160354361</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.52209757556188</v>
+        <v>47.63309841514921</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>10.60981553687225</v>
+        <v>58.59503882238566</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.64305836307313</v>
+        <v>67.86220499878316</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.38269273054935</v>
+        <v>6.303376486603489</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10.5717542601925</v>
+        <v>44.84981138724886</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10.62583944733636</v>
+        <v>55.85753876781137</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.32140579368483</v>
+        <v>10.00530207028576</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>10.38948325772208</v>
+        <v>23.25483407338039</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>10.40475881332781</v>
+        <v>29.42475167484525</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.29768031754425</v>
+        <v>3.621127213260407</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>10.3672984920152</v>
+        <v>27.16130524386535</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.38515698008052</v>
+        <v>31.48537904277136</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.34984278858958</v>
+        <v>13.05946237023467</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>10.4062067318774</v>
+        <v>43.8228231222225</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10.42033791902655</v>
+        <v>48.16215893001443</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.41759227899031</v>
+        <v>34.01172053892714</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>10.47087687109745</v>
+        <v>40.78760121296041</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.48757876991782</v>
+        <v>43.67445103414884</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.31240139607166</v>
+        <v>8.686120705816137</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.43610299031555</v>
+        <v>29.56012772475788</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10.46619230337149</v>
+        <v>38.16125714754095</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10.32220425516879</v>
+        <v>10.83766629895997</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>10.41716995408763</v>
+        <v>27.73511689887494</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>10.44073790969757</v>
+        <v>34.70403118256198</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.28077438508858</v>
+        <v>-1.760724999933317</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>10.37856910109617</v>
+        <v>23.63474019202142</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>10.40589263077297</v>
+        <v>30.8539353804021</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.35560110517434</v>
+        <v>5.811748818558384</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10.43475041520186</v>
+        <v>39.31299084996655</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>10.45647860261187</v>
+        <v>46.63689778819162</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>10.45845957119414</v>
+        <v>34.13602699975178</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>10.53600672856259</v>
+        <v>47.48212058153148</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>10.56294446746027</v>
+        <v>52.20212554281544</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>10.32207279742871</v>
+        <v>5.911071917809855</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>10.49422538778817</v>
+        <v>36.08752073120101</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>10.54036763236609</v>
+        <v>44.2457904325923</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>10.34534166512699</v>
+        <v>11.74790847553223</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>10.44974276966468</v>
+        <v>32.38345662353065</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>10.47751620014744</v>
+        <v>43.08586582281995</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.30863069764853</v>
+        <v>-4.935666581973103</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>10.41683649481037</v>
+        <v>24.86858457682781</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>10.44888118140036</v>
+        <v>35.76164826714044</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.39070296979788</v>
+        <v>8.050483011162747</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>10.47828952637423</v>
+        <v>45.19252918787496</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>10.50383304393102</v>
+        <v>56.18832160354361</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>10.52209757556188</v>
+        <v>47.63309841514921</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>10.60981553687225</v>
+        <v>58.59503882238566</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>10.64305836307313</v>
+        <v>67.86220499878316</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>10.38269273054935</v>
+        <v>6.303376486603489</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>10.5717542601925</v>
+        <v>44.84981138724886</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>10.62583944733636</v>
+        <v>55.85753876781137</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.28513874523323</v>
+        <v>11.79884467299271</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>10.34301796829492</v>
+        <v>12.61545876790429</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>10.35752184735206</v>
+        <v>18.71133996999746</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10.25793277501823</v>
+        <v>2.445982736142585</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.31686648096688</v>
+        <v>12.47900435548266</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.3337987225304</v>
+        <v>16.71654180277882</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.30558541295996</v>
+        <v>5.390073844638379</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>10.3532824211399</v>
+        <v>22.88916942249385</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>10.36669696416128</v>
+        <v>27.89036563430564</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>10.35649010938092</v>
+        <v>17.9746200833801</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>10.40066473046229</v>
+        <v>18.36355241603578</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>10.41700072338008</v>
+        <v>23.32252704142476</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10.26574893172603</v>
+        <v>11.37043142984019</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>10.37092678422641</v>
+        <v>11.57776192307433</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>10.39934622397295</v>
+        <v>21.20714281055454</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>10.27861199527194</v>
+        <v>11.75211730819334</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>10.35967001400236</v>
+        <v>17.08148942231929</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>10.38178781254102</v>
+        <v>24.24435163465704</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10.23411848964244</v>
+        <v>-3.226622557260545</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>10.31729015995735</v>
+        <v>9.307666772338379</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>10.34291367976111</v>
+        <v>16.45965332718151</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>10.30192056373703</v>
+        <v>-2.362207506018266</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>10.36921397585375</v>
+        <v>18.83118926867518</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>10.38960467130056</v>
+        <v>27.03642612318314</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>10.38204632428431</v>
+        <v>16.8557900722256</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.44693452615853</v>
+        <v>28.05752822184889</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.47277377200068</v>
+        <v>34.59101319113122</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>10.26419325743612</v>
+        <v>2.791550361493285</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10.4111312920647</v>
+        <v>15.79227015301633</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>10.45425635577867</v>
+        <v>25.49217837847627</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.29522353756209</v>
+        <v>13.66778236004043</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.38461386160242</v>
+        <v>21.59823378611131</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>10.41044894643372</v>
+        <v>30.7207722067113</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.25483467906369</v>
+        <v>-3.010079591552562</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>10.34719114942958</v>
+        <v>12.38119012398473</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10.37699079565566</v>
+        <v>21.43378349294641</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10.32914411382195</v>
+        <v>2.205986392282674</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>10.40388234579882</v>
+        <v>25.98748246317109</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>10.42764740357918</v>
+        <v>36.15799416611432</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>10.43398838651435</v>
+        <v>33.30435020304444</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>10.50786516991427</v>
+        <v>41.71336111060194</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>10.53926156500806</v>
+        <v>49.81792412842543</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>10.31368327204302</v>
+        <v>2.631686299710103</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>10.47553545996103</v>
+        <v>22.86782595271354</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.52568688596247</v>
+        <v>33.4586535008342</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.3227140292778</v>
+        <v>9.855594182537931</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>10.38081234739215</v>
+        <v>15.57143428878109</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>10.39505312840498</v>
+        <v>22.43903230124757</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>10.30021953454439</v>
+        <v>0.7309796495186687</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>10.35952272114663</v>
+        <v>17.02811359718491</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.3761513858917</v>
+        <v>22.02563863735471</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.3450433615142</v>
+        <v>6.697155066941142</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>10.39304754275324</v>
+        <v>29.63996575856291</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>10.40622156605773</v>
+        <v>35.3257853928267</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>10.40504667537458</v>
+        <v>20.09430872748239</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>10.45012704343118</v>
+        <v>23.77395778043986</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.46616873806235</v>
+        <v>28.43947511225814</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.31572580685015</v>
+        <v>3.914363203987555</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.42132519282487</v>
+        <v>12.29450721674572</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>10.44922530883583</v>
+        <v>22.87475751282575</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.32794724411884</v>
+        <v>13.12782286106181</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10.40917735642806</v>
+        <v>23.95407625741007</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>10.43086060580766</v>
+        <v>30.68976333538661</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.28981686484479</v>
+        <v>-1.093065914146309</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.37334194435951</v>
+        <v>18.41195045732299</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>10.39846699014676</v>
+        <v>24.95787612646239</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.35377993037426</v>
+        <v>3.198402587043502</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>10.42137050258336</v>
+        <v>30.46555546278488</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>10.44136390621551</v>
+        <v>38.12914929248728</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>10.44565998288921</v>
+        <v>27.17236885612178</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>10.51157934487295</v>
+        <v>42.08483694190303</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10.53690879021217</v>
+        <v>47.03984637958619</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>10.32967192705002</v>
+        <v>5.054350511282514</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>10.47695994572909</v>
+        <v>27.17581827363448</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.51923491328504</v>
+        <v>36.07671521019949</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>10.34170764974847</v>
+        <v>12.8358414213895</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>10.43111482855443</v>
+        <v>25.17034622714703</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>10.45645367400024</v>
+        <v>34.7858754451392</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>10.3074455430302</v>
+        <v>-2.95671889760179</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.39998503418369</v>
+        <v>18.04947125013876</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>10.42921704440446</v>
+        <v>27.59166133643523</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.37792888545974</v>
+        <v>4.087175777858241</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>10.45282611966381</v>
+        <v>32.73729189719214</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10.47613824102291</v>
+        <v>43.34068336165998</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>10.49350567715968</v>
+        <v>38.68330539456183</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10.56825152872053</v>
+        <v>50.08233512306954</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>10.5990384591261</v>
+        <v>57.96581694700124</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>10.37514831423329</v>
+        <v>1.573761937032237</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.53707014545381</v>
+        <v>29.45880663363873</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.58625611362143</v>
+        <v>40.66231739622401</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10.31074310233933</v>
+        <v>8.532539586218178</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.4003627189993</v>
+        <v>17.79023663667418</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>10.42072121997222</v>
+        <v>24.5599826875406</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.27883882432584</v>
+        <v>2.527451838472735</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.37047250775087</v>
+        <v>22.86613259955597</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>10.39426195566778</v>
+        <v>27.62324731867494</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.34757320390512</v>
+        <v>11.7501576927273</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.42176332360646</v>
+        <v>39.04556136403424</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>10.44059375999343</v>
+        <v>43.98218591325687</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>10.43634996217727</v>
+        <v>24.53763159068529</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>10.50676001060809</v>
+        <v>28.48629255425291</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.52914353454019</v>
+        <v>31.63719627941181</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10.29907210051738</v>
+        <v>-0.1997949086893351</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.46195423179168</v>
+        <v>13.06720048548894</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10.50198431234549</v>
+        <v>22.61109317018602</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>10.32028504617854</v>
+        <v>17.4099333768581</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.44538262440677</v>
+        <v>33.0944449786823</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>10.47666915155314</v>
+        <v>39.24195145711398</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10.26561782118478</v>
+        <v>3.732126130448832</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.39443027400504</v>
+        <v>29.10571489038318</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>10.43069089605264</v>
+        <v>35.11568165932989</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.3635722162865</v>
+        <v>13.27296465301785</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>10.46782939118657</v>
+        <v>46.27473940862757</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>10.49666963823463</v>
+        <v>52.79881188630591</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>10.5008099162626</v>
+        <v>40.02468372222063</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.60334869236429</v>
+        <v>53.86574087534159</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>10.6392509312128</v>
+        <v>57.86084039477469</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>10.32277995020091</v>
+        <v>13.42872916544919</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>10.54960125321545</v>
+        <v>41.36302732336438</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10.61076987285779</v>
+        <v>48.53818181272697</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.35002034753085</v>
+        <v>15.97610681599135</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>10.48754348575721</v>
+        <v>34.51167104419449</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>10.52436293096893</v>
+        <v>44.96140555541395</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>10.3016492244714</v>
+        <v>-3.517035247040611</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.44416580763779</v>
+        <v>25.23214107195516</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.48663932572676</v>
+        <v>35.63437260669331</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.40911095348718</v>
+        <v>10.74314359878004</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>10.52447489925413</v>
+        <v>46.54791541401159</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>10.55833595854226</v>
+        <v>57.37213143021723</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>10.58390041745474</v>
+        <v>48.63302311268722</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>10.69985756828286</v>
+        <v>60.04009629594434</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>10.74403416791496</v>
+        <v>68.54808474973602</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>10.40203865842884</v>
+        <v>9.371563509828881</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>10.65111086154218</v>
+        <v>45.28390537078258</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.72273268180562</v>
+        <v>56.09200343964739</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.28444358366347</v>
+        <v>3.47858143742448</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.37157359758034</v>
+        <v>8.919984021925121</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>10.39250543137365</v>
+        <v>16.76174962569856</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>10.2497253075279</v>
+        <v>-7.127414401667033</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>10.33855027661912</v>
+        <v>8.371963587872276</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>10.36302609400004</v>
+        <v>14.42004792781566</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.31936752436744</v>
+        <v>-0.06297936753938504</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>10.39127119302726</v>
+        <v>22.69560882195643</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>10.41065387778566</v>
+        <v>28.92129065509736</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10.40171222531855</v>
+        <v>17.96571560925166</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>10.46852621200795</v>
+        <v>19.26836007941875</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.49151571499525</v>
+        <v>25.03246537902588</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.26545672051853</v>
+        <v>3.458576172211486</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.42376014844318</v>
+        <v>10.38550692471538</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.4649223802249</v>
+        <v>22.38784829681336</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.2766223505116</v>
+        <v>8.503747887112223</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>10.39848772665879</v>
+        <v>17.43228114880103</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.43057530405409</v>
+        <v>26.14866942137716</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.21750239854814</v>
+        <v>-9.819835877851908</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>10.34266939096788</v>
+        <v>7.282776237626954</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>10.379885500654</v>
+        <v>16.19026875018395</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.31720019693049</v>
+        <v>-3.37776081688071</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>10.41848976839349</v>
+        <v>22.02992380014226</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>10.4480992238518</v>
+        <v>31.30919687858691</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>10.44359333197068</v>
+        <v>19.58407677423446</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>10.54146944335137</v>
+        <v>28.0780625032343</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>10.57823742751115</v>
+        <v>35.55177584070903</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>10.26678631068786</v>
+        <v>0.4770963116848099</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>10.48766503649978</v>
+        <v>17.53902898404924</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>10.55040897312613</v>
+        <v>29.23329571210811</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>10.3056369518448</v>
+        <v>11.49338411080702</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.43993614131811</v>
+        <v>24.36957050440201</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>10.47752056012288</v>
+        <v>34.84140175044309</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>10.25295819563812</v>
+        <v>-9.891499799023848</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.39183859430871</v>
+        <v>11.87558582885261</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>10.43522741696775</v>
+        <v>22.19097345453047</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>10.36219721340031</v>
+        <v>1.940907127219545</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>10.47460150277389</v>
+        <v>31.34694751238514</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.50919911440307</v>
+        <v>42.24820280738576</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>10.52610369602304</v>
+        <v>37.55076601620626</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>10.63737479790775</v>
+        <v>44.54535361349445</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>10.68237572582784</v>
+        <v>53.5339324760703</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>10.34546364644063</v>
+        <v>5.79380322355498</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.58861054054332</v>
+        <v>32.18322228205164</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>10.66174285808984</v>
+        <v>44.15521132420423</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.30526651332713</v>
+        <v>4.59457810909437</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.37231888945276</v>
+        <v>9.481345285742474</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.38859209942711</v>
+        <v>16.12741500272296</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>10.27796799144553</v>
+        <v>-6.90898678787167</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>10.34640223949959</v>
+        <v>8.424134399623114</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.36540431778391</v>
+        <v>13.10168723167471</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>10.33070483314514</v>
+        <v>-0.5362317153840026</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>10.386100134737</v>
+        <v>21.96310456678608</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>10.40115179940656</v>
+        <v>27.29713548865215</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>10.39602709095334</v>
+        <v>12.6760413243618</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>10.44802948512686</v>
+        <v>15.2485921129793</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>10.46630709015254</v>
+        <v>19.51453024371077</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>10.29263928233583</v>
+        <v>-3.05583363482365</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>10.41450871476841</v>
+        <v>3.910264092466874</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.44641029676131</v>
+        <v>13.88138776422259</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.30755393441195</v>
+        <v>5.867376967753095</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.40130740422205</v>
+        <v>16.17674649890268</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>10.42613393794702</v>
+        <v>22.79676593606035</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.26184727197634</v>
+        <v>-11.38039465913239</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>10.35823839730187</v>
+        <v>7.515709985239545</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.38700378722542</v>
+        <v>13.93502841724267</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.33696579334489</v>
+        <v>-6.433160591200342</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>10.41496735551927</v>
+        <v>20.70437005267866</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.43785526947402</v>
+        <v>28.18257003472932</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.4380883862365</v>
+        <v>17.90180084191649</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.51413745119074</v>
+        <v>31.85298429667273</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.54307945649736</v>
+        <v>36.67425871169252</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.30385819177223</v>
+        <v>-3.176260070354872</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>10.47384660076434</v>
+        <v>17.99918311148321</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.52227255996286</v>
+        <v>26.38271152457517</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.32514790477534</v>
+        <v>6.271931356534458</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>10.42835305164156</v>
+        <v>18.57373357149496</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>10.45740232352017</v>
+        <v>28.49555885567362</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>10.28398013638314</v>
+        <v>-12.90205369333079</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>10.39079143782602</v>
+        <v>8.138256684664732</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>10.42430058171605</v>
+        <v>17.98244924785551</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.36655800916786</v>
+        <v>-4.602670501727681</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>10.45300553330183</v>
+        <v>24.44905050344006</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.4797266891912</v>
+        <v>35.27640460507936</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>10.49539406347919</v>
+        <v>30.8483940414986</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>10.58164623378806</v>
+        <v>41.5829065955699</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.61689663981795</v>
+        <v>49.75097781898591</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10.35839081377987</v>
+        <v>-5.716792079584558</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.54529653559121</v>
+        <v>22.06732105206454</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.60170444020386</v>
+        <v>33.19355004998918</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.34822045993707</v>
+        <v>11.8276602338812</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.4295383584365</v>
+        <v>26.46649364899944</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>10.44806125682893</v>
+        <v>35.73289132560939</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>10.3247670207066</v>
+        <v>7.889305730051393</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>10.40797709306694</v>
+        <v>35.14831665825779</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>10.42964493907481</v>
+        <v>42.40745365620277</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.38450873542174</v>
+        <v>19.1508031401826</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.45188623177252</v>
+        <v>52.28645927932312</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>10.46903974057324</v>
+        <v>59.49008113680598</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>10.47454967326003</v>
+        <v>41.32857960445382</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>10.53863237893249</v>
+        <v>48.69243583196005</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>10.55885750035682</v>
+        <v>53.65487865791521</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>10.35111733249944</v>
+        <v>14.56975957562706</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.49891190419339</v>
+        <v>36.42013834567135</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>10.53535814257642</v>
+        <v>49.95269846799072</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.35648572971125</v>
+        <v>6.955663013028306</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>10.46989189755148</v>
+        <v>25.32809381117102</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>10.49830409476995</v>
+        <v>33.61539600629058</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.31329515984769</v>
+        <v>-7.844641799480887</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.43014456217013</v>
+        <v>21.27759533755554</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>10.46310606950459</v>
+        <v>29.3818203261071</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>10.39932001059916</v>
+        <v>2.816419929537466</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>10.49390442545277</v>
+        <v>38.77222917675272</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.52012251316705</v>
+        <v>47.20406459067925</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>10.53343008218765</v>
+        <v>34.23741458943844</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>10.62659498575809</v>
+        <v>47.86033143719083</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.6590091953831</v>
+        <v>53.24325296104274</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10.37338838119198</v>
+        <v>5.660226091627798</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>10.5790169267988</v>
+        <v>37.61233844804416</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.63460106316543</v>
+        <v>48.2073575443891</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>10.37897372979886</v>
+        <v>9.282406031240804</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>10.50355715755202</v>
+        <v>30.24370255770856</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>10.53693652051048</v>
+        <v>41.86810250833254</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.34130558745876</v>
+        <v>-9.542106118086103</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>10.4704839289144</v>
+        <v>22.61125024701704</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10.50902249134078</v>
+        <v>34.00412878971042</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>10.43612457461616</v>
+        <v>5.469559090757371</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>10.54070119465287</v>
+        <v>43.9037478496444</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.57142661201675</v>
+        <v>55.65411035904602</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>10.60304727022598</v>
+        <v>45.89210368959906</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>10.70826398943604</v>
+        <v>57.21639378315925</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.74810612419367</v>
+        <v>66.42516063846114</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.43955248230955</v>
+        <v>5.659481658882235</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>10.66519688287261</v>
+        <v>45.16740961891487</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.7301677570839</v>
+        <v>58.18646722197673</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>10.26620672919843</v>
+        <v>2.429861792417362</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.33915767552111</v>
+        <v>7.463307742927401</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.35642392599663</v>
+        <v>12.25747917054316</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.23311753988002</v>
+        <v>-10.54193665088497</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10.30749090301453</v>
+        <v>0.9780222822693139</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.32766908432505</v>
+        <v>4.48937004287967</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10.29371150056758</v>
+        <v>-4.516286506536226</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.35390822957453</v>
+        <v>14.91483781916081</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>10.36988056205986</v>
+        <v>18.54281241817797</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.35457206372333</v>
+        <v>10.09687593027989</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>10.41014538322248</v>
+        <v>11.57361333539015</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>10.42920652713845</v>
+        <v>15.94888087783266</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>10.23843574228444</v>
+        <v>-5.441356956450663</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>10.37094746310627</v>
+        <v>3.280038555835694</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.40494354398496</v>
+        <v>10.0302243660368</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.25018775193979</v>
+        <v>3.762868152724699</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.35219917240233</v>
+        <v>11.00475381864934</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>10.37881544221318</v>
+        <v>18.40552406032347</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.19530862288091</v>
+        <v>-11.52003180646423</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10.30008623116369</v>
+        <v>0.4844325497732553</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>10.33093755634601</v>
+        <v>8.644418242238494</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>10.28193185358482</v>
+        <v>-7.980583160461568</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.36670946325584</v>
+        <v>12.87414621935583</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10.39124945109214</v>
+        <v>21.0044368108453</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>10.37697296365684</v>
+        <v>8.70061767437624</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>10.4584034324478</v>
+        <v>16.31727502294159</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.48904461313701</v>
+        <v>23.12859032596238</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.22626475778132</v>
+        <v>-10.86566696977937</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>10.41111962816874</v>
+        <v>4.685981030386009</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>10.46321173729057</v>
+        <v>13.58638159953364</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.27638743394494</v>
+        <v>4.305454679000163</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>10.38884377667905</v>
+        <v>15.58478791116155</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>10.42010259317692</v>
+        <v>25.27863118579719</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10.22671594587654</v>
+        <v>-12.827505568702</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>10.34302020955687</v>
+        <v>3.946006691934271</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>10.37908416026441</v>
+        <v>14.12858205343898</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>10.32134977600372</v>
+        <v>-4.635736970316416</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>10.41546877265736</v>
+        <v>20.25727722652463</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>10.44422077803423</v>
+        <v>30.52781411770592</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.44821915442372</v>
+        <v>25.53843071370883</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>10.54088950708509</v>
+        <v>31.26572655618896</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>10.57850964731281</v>
+        <v>40.89984577186502</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.29418189217696</v>
+        <v>-5.981256007913552</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>10.49776108891656</v>
+        <v>17.55051072047831</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.55862266427438</v>
+        <v>27.88987498268317</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.29973465971841</v>
+        <v>-2.657674875127218</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>10.37027179731155</v>
+        <v>5.115149720448744</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>10.38604134367134</v>
+        <v>8.903181106239334</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.27158962875095</v>
+        <v>-10.72304524952383</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.3436826604342</v>
+        <v>5.214780272470192</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.36210280012089</v>
+        <v>7.262368350939709</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.32728379471615</v>
+        <v>-4.029277040906117</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.38564600338271</v>
+        <v>19.72547471320584</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.40021949627207</v>
+        <v>21.94802473284891</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.39151565579035</v>
+        <v>10.06730431626677</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>10.44657312052493</v>
+        <v>12.77261240489614</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>10.46390463294211</v>
+        <v>13.97890273716602</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.28160155405614</v>
+        <v>-10.83625788030121</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>10.40976887448092</v>
+        <v>1.527806770748096</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>10.44081992301629</v>
+        <v>6.370912549718226</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>10.30065735076574</v>
+        <v>9.862977019188833</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>10.3991151387264</v>
+        <v>22.7796129306957</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.42349542895914</v>
+        <v>27.70366564159411</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>10.2535264980577</v>
+        <v>-1.301690183538775</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>10.35486972605506</v>
+        <v>18.4107746081405</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>10.38311283330865</v>
+        <v>23.62226455267808</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.33288043858644</v>
+        <v>4.143289333487487</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.41489445933243</v>
+        <v>32.30646871612845</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>10.43735238024436</v>
+        <v>37.71489172715161</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>10.43333882644566</v>
+        <v>27.46504871773572</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>10.51356508844737</v>
+        <v>38.72163552822172</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>10.54155468441867</v>
+        <v>41.91248898286793</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>10.2908108691046</v>
+        <v>3.329106022339828</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.4692861298155</v>
+        <v>27.20830110057216</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.51700171678703</v>
+        <v>32.20477122279073</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>10.32782116632103</v>
+        <v>11.10208112523161</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>10.4361194649577</v>
+        <v>28.10157968577381</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.46489385013441</v>
+        <v>37.19632753045429</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.28569899212165</v>
+        <v>-4.995418215920439</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.39789993319034</v>
+        <v>19.56731269911015</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.43107618660006</v>
+        <v>28.9771890708903</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.37244559912222</v>
+        <v>6.127247063298277</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.46325873738771</v>
+        <v>38.34250684738635</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>10.48970305374685</v>
+        <v>47.86710872658158</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>10.50333981849813</v>
+        <v>41.71330249429271</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>10.5941841050386</v>
+        <v>50.8914752120203</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.62876421016011</v>
+        <v>58.8991964167172</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>10.35765469875154</v>
+        <v>4.095478796609817</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>10.55376645029054</v>
+        <v>36.59695627240142</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>10.60977919015445</v>
+        <v>45.08105728285181</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.27871046337413</v>
+        <v>6.960879480141577</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.34377534193708</v>
+        <v>10.95687690625389</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>10.35870849452218</v>
+        <v>15.75397633751323</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>10.25030852025597</v>
+        <v>1.477578298567212</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>10.31666063905856</v>
+        <v>12.67191275898664</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.33411603998065</v>
+        <v>15.86510613904511</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.30373765850777</v>
+        <v>4.485117820088184</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>10.35744709510045</v>
+        <v>23.70462813236409</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.37125855074149</v>
+        <v>26.94764206621915</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>10.3580660726827</v>
+        <v>19.00173749414747</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>10.408032025598</v>
+        <v>19.22184507409126</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.42433025633153</v>
+        <v>22.42014611107475</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.25517722915831</v>
+        <v>7.633366997007427</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>10.37336746879647</v>
+        <v>13.15287318314708</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>10.40279604265601</v>
+        <v>19.9936816846956</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.2655369086737</v>
+        <v>0.5963647330500832</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.35646639881847</v>
+        <v>6.892635621860538</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>10.3795646700769</v>
+        <v>13.92211709954503</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.21812695605849</v>
+        <v>-12.11726596611811</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>10.31154029742921</v>
+        <v>-0.4340327483763611</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.3383146994141</v>
+        <v>7.146169864678341</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>10.29454867585109</v>
+        <v>-11.40760016666286</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>10.37013762455586</v>
+        <v>9.224380466894701</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>10.39142931172825</v>
+        <v>16.75368004755458</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>10.37939292214795</v>
+        <v>5.173965273694242</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.45247384764109</v>
+        <v>10.55171413251363</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>10.47884704640341</v>
+        <v>17.06400555143015</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>10.24596303518873</v>
+        <v>-9.813964555030161</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.41074080008735</v>
+        <v>2.498200795192836</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>10.45597727891763</v>
+        <v>11.0964820992798</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.29216561382884</v>
+        <v>6.744384713056916</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>10.39235269219097</v>
+        <v>18.10386420677371</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>10.41956569040588</v>
+        <v>27.3793791670592</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.24963026510718</v>
+        <v>-10.3558916519158</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.35325783892147</v>
+        <v>7.426987753410514</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.38465119785231</v>
+        <v>16.92517758790432</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.33295400290454</v>
+        <v>-2.075012493783569</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>10.41682070071547</v>
+        <v>23.7073694383221</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>10.44184482566613</v>
+        <v>33.32143106979056</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>10.44664602274198</v>
+        <v>27.56660244266057</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>10.52969853429291</v>
+        <v>31.67917257136568</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>10.56225166919971</v>
+        <v>40.62927477068678</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.31019135887355</v>
+        <v>-1.488966830053124</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.49156369830975</v>
+        <v>20.68951592361569</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>10.54456967821296</v>
+        <v>29.98620274341933</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.24965479389491</v>
+        <v>-3.28448964965568</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.31661247263191</v>
+        <v>-5.69814648171563</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.33197643987674</v>
+        <v>-3.468218929789562</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.21596740505862</v>
+        <v>-9.793214395172189</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.28418035542068</v>
+        <v>-7.417099869719034</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.30212268017746</v>
+        <v>-6.700038401476506</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.27313163167225</v>
+        <v>-10.09092476897717</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.32834021385305</v>
+        <v>0.9852064565461047</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.34253477913971</v>
+        <v>1.928617541296552</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.32154877335802</v>
+        <v>-3.0087978360774</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>10.37266671788725</v>
+        <v>-7.677238275367373</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.38952174795621</v>
+        <v>-6.294485329223652</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.2143619607299</v>
+        <v>-8.615298368379172</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.33598054019953</v>
+        <v>-13.14606823533147</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>10.36624888773746</v>
+        <v>-10.34119125990775</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.23438183348188</v>
+        <v>-0.6120040722346944</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>10.32804516055934</v>
+        <v>0.5005230757421257</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>10.35186930449047</v>
+        <v>5.369357300204871</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.18018188730459</v>
+        <v>-11.78744397989581</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.27632137953671</v>
+        <v>-7.306358124479119</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.30391384449645</v>
+        <v>-1.866738672465162</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>10.26137272796779</v>
+        <v>-13.92561400704887</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.33915804274099</v>
+        <v>-0.04746321734236592</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>10.3610988733639</v>
+        <v>5.440882538546201</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>10.34064890023005</v>
+        <v>-3.654809512527863</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.41557462785168</v>
+        <v>-1.487260324933751</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.44289786147071</v>
+        <v>3.404996907818755</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.20162326083728</v>
+        <v>-13.21320033286954</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.37133782516778</v>
+        <v>-9.222506967264181</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.41798087942202</v>
+        <v>-3.956998793832693</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>10.2657751925379</v>
+        <v>6.196100978482405</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>10.36906847893064</v>
+        <v>12.84695208558098</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.39717924344945</v>
+        <v>20.24299538955</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>10.21677387112816</v>
+        <v>-10.37649516831942</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>10.32353801614988</v>
+        <v>0.8140294026912178</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.35594260083454</v>
+        <v>8.514006595006016</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>10.30494433067918</v>
+        <v>-4.479620239112955</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>10.39133992727238</v>
+        <v>15.10970435156849</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.41716898794962</v>
+        <v>22.96287630862279</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>10.41504594405764</v>
+        <v>20.02328051486862</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>10.50035425136227</v>
+        <v>21.35464136881048</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.53411975554666</v>
+        <v>28.75039570114392</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.2728555706347</v>
+        <v>-4.101502002553539</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.45983445105768</v>
+        <v>10.15194201443064</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.51456922009433</v>
+        <v>16.53104157242304</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.29116190122958</v>
+        <v>8.285082575939683</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.35708292824088</v>
+        <v>11.59183458311101</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.37361506921295</v>
+        <v>18.44035730736233</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.26244919710258</v>
+        <v>-6.42143354159876</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.32960833168939</v>
+        <v>6.861208974319282</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>10.34891967294138</v>
+        <v>11.76299925046272</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.31572382934556</v>
+        <v>-0.4369774770146764</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>10.3700812217088</v>
+        <v>20.12189253383141</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>10.38538186334296</v>
+        <v>25.74068277833198</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>10.37760435493558</v>
+        <v>16.19117154731454</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.42798568343975</v>
+        <v>17.59884058044197</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.446540799832</v>
+        <v>22.73302646897807</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>10.27469737825965</v>
+        <v>5.800281538428087</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.39448745044277</v>
+        <v>10.143104879777</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.42689945505719</v>
+        <v>20.83071269547942</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.28492427560914</v>
+        <v>7.052978559657439</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>10.37720762522106</v>
+        <v>14.14336387144408</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>10.40239506570811</v>
+        <v>21.81995860402173</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10.23702317315571</v>
+        <v>-13.18717046620274</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.3317578800938</v>
+        <v>1.729664020430937</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.36095288806861</v>
+        <v>9.294333094306289</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.31309513229932</v>
+        <v>-9.363001288980321</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>10.38974841675381</v>
+        <v>14.11805454517981</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>10.41298236811453</v>
+        <v>22.71920519986083</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>10.4086187488901</v>
+        <v>13.20416766258671</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.48256426861972</v>
+        <v>24.40727882559468</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>10.51190138653703</v>
+        <v>30.55171452276214</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.27496757238743</v>
+        <v>-4.223706311947852</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>10.44225494097398</v>
+        <v>11.76818834732581</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>10.49138957073521</v>
+        <v>22.05959573117062</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>10.30205427469414</v>
+        <v>9.513645047476963</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>10.4037910000667</v>
+        <v>19.18772361975618</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.43318478792362</v>
+        <v>28.63256909182793</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>10.25874669855359</v>
+        <v>-11.15835339301605</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>10.36390359279612</v>
+        <v>6.592226640846412</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>10.39782405677349</v>
+        <v>15.79616109289115</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>10.34230038655299</v>
+        <v>-3.730445094011338</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.42740143394864</v>
+        <v>22.30381126952936</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>10.45445376101192</v>
+        <v>32.64845491892956</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.46548284951441</v>
+        <v>30.81464154504206</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>10.54961896457676</v>
+        <v>39.28065246738776</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>10.58524569970215</v>
+        <v>46.96582981605277</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>10.32905965257334</v>
+        <v>-2.080623373522195</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>10.51326850138493</v>
+        <v>21.21487526878736</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>10.57035559873385</v>
+        <v>32.21831194210569</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.31271532003018</v>
+        <v>15.69607010360733</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>10.3770153804656</v>
+        <v>26.93208337218037</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>10.39166277158142</v>
+        <v>32.47056271160716</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.28810014086424</v>
+        <v>9.303410814308222</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>10.35378945263991</v>
+        <v>28.60155801522219</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.37090614689037</v>
+        <v>32.86437491185152</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>10.33849512326553</v>
+        <v>17.39497468385628</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>10.39167080821042</v>
+        <v>44.00288604120208</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.40521532584198</v>
+        <v>48.21711837424184</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.40009750452087</v>
+        <v>37.74428927735595</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>10.44990126482095</v>
+        <v>43.20039729584737</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.46598350692255</v>
+        <v>47.67263212302201</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.2991910964346</v>
+        <v>15.33066096592844</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>10.4160113514966</v>
+        <v>34.10151324399119</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.44486280839881</v>
+        <v>41.96399874124271</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.3089760799733</v>
+        <v>9.675312718603983</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>10.39873619443858</v>
+        <v>23.46860669791745</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>10.42136008294767</v>
+        <v>30.76477322549903</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>10.26669887924874</v>
+        <v>-1.589147869717771</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>10.35905372746082</v>
+        <v>18.53070457183428</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>10.38527345667486</v>
+        <v>26.55816136975444</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.339041436139</v>
+        <v>3.376223688959569</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>10.41377781033539</v>
+        <v>31.68604068835688</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>10.43462914231486</v>
+        <v>39.59941447120897</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>10.43279152557877</v>
+        <v>27.15175709944438</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>10.50543244332347</v>
+        <v>38.75069500706531</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>10.53137408179447</v>
+        <v>45.13759355455172</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>10.3019176368902</v>
+        <v>1.802577751673559</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>10.4646074200364</v>
+        <v>27.6526630597192</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>10.50889931413458</v>
+        <v>36.41810250030237</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>10.33139387176002</v>
+        <v>8.146671176610624</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>10.4301726746062</v>
+        <v>25.75360646672111</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>10.45681748590643</v>
+        <v>36.24299781759093</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.29354697087289</v>
+        <v>-6.864442063209673</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>10.39585527408386</v>
+        <v>17.7567930820294</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>10.42658899610608</v>
+        <v>28.85454563180649</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>10.37283021431681</v>
+        <v>3.100410806643054</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>10.45563275534534</v>
+        <v>35.15311849219142</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>10.48013180170441</v>
+        <v>46.16340777985572</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>10.49392904423103</v>
+        <v>38.02938943586006</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>10.57628558651437</v>
+        <v>47.54395111741473</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>10.60826605885113</v>
+        <v>58.00713065916087</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>10.36014823872263</v>
+        <v>-0.01128405610216365</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>10.53900684042878</v>
+        <v>33.58742691988264</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.59089267484061</v>
+        <v>44.78030435380041</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>10.33568430653648</v>
+        <v>14.93659146708441</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>10.39245262493717</v>
+        <v>23.88781454074822</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>10.40630115056733</v>
+        <v>31.95040349747147</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.31588435596788</v>
+        <v>5.469930061583582</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>10.37386214239321</v>
+        <v>26.18221339347188</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.39004188478154</v>
+        <v>32.24378888101484</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.35869695155468</v>
+        <v>13.53873181288271</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>10.40563178873435</v>
+        <v>40.64510746844984</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.41845026006336</v>
+        <v>47.29183097269397</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>10.42057775256556</v>
+        <v>31.84438851483938</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>10.46475191194632</v>
+        <v>37.12892725045119</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.48027237278554</v>
+        <v>42.25053444723134</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>10.33374546441786</v>
+        <v>12.80745376707483</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>10.4369269595371</v>
+        <v>26.28756095708825</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.46407569406642</v>
+        <v>38.6609851550868</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.34078397182838</v>
+        <v>11.25473868150251</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>10.42010551398062</v>
+        <v>24.2997324083251</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>10.44118798850338</v>
+        <v>31.92485353672671</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>10.30612725158242</v>
+        <v>-5.405769519575107</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>10.38772731404559</v>
+        <v>17.24768233193294</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>10.41216796688912</v>
+        <v>24.58793992865064</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>10.36753548036046</v>
+        <v>0.5800304404182048</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>10.43357283724231</v>
+        <v>30.88270131166044</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>10.45302170329821</v>
+        <v>39.27682357266829</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>10.46057153518797</v>
+        <v>27.93368704979902</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>10.52508306040824</v>
+        <v>42.91850122854537</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>10.54960914764096</v>
+        <v>48.02376172185418</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>10.34783970666006</v>
+        <v>3.248651894877951</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>10.49166846415684</v>
+        <v>28.80163072162218</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>10.53279408689673</v>
+        <v>38.95546894271182</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>10.3530993429571</v>
+        <v>12.08563332109068</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>10.44036456506832</v>
+        <v>26.75704688890578</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.46499413851361</v>
+        <v>37.01470713423054</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>10.32217442903145</v>
+        <v>-5.71451757758316</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>10.41253249927925</v>
+        <v>18.58487700391667</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>10.44095785273226</v>
+        <v>28.6072640743489</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>10.38998181644147</v>
+        <v>3.022371230321425</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>10.46311792798164</v>
+        <v>34.80559183937513</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.48578686576686</v>
+        <v>45.8801097488826</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>10.50577561857252</v>
+        <v>40.53408047321408</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>10.57885538575822</v>
+        <v>52.1300340688453</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>10.60867764821886</v>
+        <v>60.07646837436853</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.39072754964576</v>
+        <v>1.088538571148596</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>10.54877326610198</v>
+        <v>32.71518356095958</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>10.59660528005774</v>
+        <v>44.76949065990673</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>10.32400970408129</v>
+        <v>19.95145150458962</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>10.36564540622444</v>
+        <v>24.21237024153376</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.37614528958403</v>
+        <v>30.95683210561019</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.30684716328556</v>
+        <v>16.26692964411184</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>10.34926879197332</v>
+        <v>30.74600912167653</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>10.36152813672523</v>
+        <v>35.7739697228544</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.33948260719771</v>
+        <v>19.39729832886357</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>10.37381803053061</v>
+        <v>40.34275672815131</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>10.38353262624343</v>
+        <v>46.12168007737719</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>10.38179200763657</v>
+        <v>32.18449677487227</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>10.41366826098439</v>
+        <v>35.66028915427662</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>10.42551784632929</v>
+        <v>41.21203210043256</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.31691178946716</v>
+        <v>21.28180371827971</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>10.39257790817452</v>
+        <v>26.98931811566473</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>10.41313713271416</v>
+        <v>38.15369766661365</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>10.32554375419418</v>
+        <v>20.87487777574074</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.38382448887395</v>
+        <v>29.05349820080615</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10.3997944504722</v>
+        <v>36.27919881113942</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.2966600232065</v>
+        <v>11.80741612156901</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>10.35649330409681</v>
+        <v>28.0942564531527</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.37499798832957</v>
+        <v>35.30053917635854</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.3432924119311</v>
+        <v>12.09104692737881</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>10.39170607517182</v>
+        <v>36.11922419687076</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>10.40643357984404</v>
+        <v>44.45422351535224</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>10.40809823026122</v>
+        <v>31.76433344807869</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>10.45486788250438</v>
+        <v>45.35965442648804</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>10.47354739368675</v>
+        <v>51.70349202844776</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>10.32382199393271</v>
+        <v>13.30316133273411</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>10.42947996009352</v>
+        <v>30.88870600388028</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>10.46060140596057</v>
+        <v>41.32049771290439</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>10.3357364067996</v>
+        <v>19.78505452149026</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>10.39997065612118</v>
+        <v>29.69273472407514</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>10.41859698685137</v>
+        <v>38.37084779838833</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>10.30971774386299</v>
+        <v>9.142599507391175</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>10.3761134669004</v>
+        <v>27.12672802099934</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.39760257150219</v>
+        <v>35.72652222633195</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.36107906904115</v>
+        <v>12.62638450514918</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>10.41481205679939</v>
+        <v>38.25918423249853</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>10.43195109593857</v>
+        <v>48.08359067562477</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>10.44320260702239</v>
+        <v>43.44290358210363</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>10.49639375206367</v>
+        <v>53.69232189650434</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>10.51904012593328</v>
+        <v>61.21411397995014</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>10.35720041297578</v>
+        <v>9.72182100052202</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>10.47351267377966</v>
+        <v>33.14533517846755</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.50965615624319</v>
+        <v>43.9261262501844</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>10.31831453715479</v>
+        <v>11.01314446879733</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>10.37772776082418</v>
+        <v>23.70228218966003</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.39155152170411</v>
+        <v>29.0760696925676</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>10.29585672743742</v>
+        <v>-3.154302205201312</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>10.35656914088461</v>
+        <v>19.31098245903111</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.37272381727161</v>
+        <v>22.85560061367164</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>10.34205940168769</v>
+        <v>8.134361190610242</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>10.39120658623862</v>
+        <v>37.95115758782259</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>10.40399436524799</v>
+        <v>41.82992584913477</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>10.40083063047113</v>
+        <v>30.75967833364592</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>10.4469652304536</v>
+        <v>37.43069431013021</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.46228684411376</v>
+        <v>40.31338314134592</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>10.30848825324006</v>
+        <v>5.257813890362775</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.41644715555784</v>
+        <v>26.53537106928842</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.44363701854099</v>
+        <v>33.95874824665756</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>10.31688581748582</v>
+        <v>6.258918861953155</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>10.39983797613628</v>
+        <v>22.00525611686066</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.42107895173614</v>
+        <v>28.28955345305287</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>10.2782731286563</v>
+        <v>-11.87544695217335</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.36364494741003</v>
+        <v>11.67369846482243</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.38826685423999</v>
+        <v>18.06805147573728</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>10.34453163673127</v>
+        <v>-3.851330780997871</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.41361828997154</v>
+        <v>28.12618049945361</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>10.4332020728917</v>
+        <v>34.98954377834464</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>10.43373418508727</v>
+        <v>25.00881223812439</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>10.50102846407802</v>
+        <v>39.27259258059064</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.52554876421713</v>
+        <v>42.91943151787655</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>10.31391901626045</v>
+        <v>-4.245080123586058</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>10.46429302948624</v>
+        <v>25.93531949041208</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>10.50583374207142</v>
+        <v>32.85988305179619</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>10.33418435331041</v>
+        <v>4.418054380435733</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>10.42544701444756</v>
+        <v>23.20892259120716</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>10.45039401914585</v>
+        <v>33.20611145246908</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>10.29951706638824</v>
+        <v>-14.8461166693952</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>10.39405849737688</v>
+        <v>12.18129300246393</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>10.42284194385548</v>
+        <v>22.30992433279586</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>10.37231577580667</v>
+        <v>-3.536807248160955</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.44883382740479</v>
+        <v>31.36222342327929</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>10.47178048433341</v>
+        <v>41.90766198012908</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>10.48610019958853</v>
+        <v>36.54080951474257</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>10.56235031523383</v>
+        <v>48.02322505430049</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>10.59242766003523</v>
+        <v>56.41315156829565</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.36370641781982</v>
+        <v>-6.287909070867337</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>10.52897204128333</v>
+        <v>31.09662864265533</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>10.57751500959041</v>
+        <v>41.36609962729161</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>10.29250711671608</v>
+        <v>5.472327103750973</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>10.34972188934504</v>
+        <v>9.28649772963394</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>10.36386689654193</v>
+        <v>14.30095262528423</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>10.26725716504298</v>
+        <v>-8.13212800841341</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.32553106113095</v>
+        <v>4.870886422255878</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>10.34205992212098</v>
+        <v>7.867229382121258</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.31378189401819</v>
+        <v>-0.9618679698431842</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.36094797526695</v>
+        <v>18.67853481122933</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.3740373038245</v>
+        <v>22.42287363621571</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>10.36552684673998</v>
+        <v>12.24734314371538</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>10.40915940684008</v>
+        <v>12.55647904868495</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>10.42491015334187</v>
+        <v>14.61227265700009</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.27558059306472</v>
+        <v>-1.971979152656883</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>10.37953396939247</v>
+        <v>3.421687576082582</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.40729658588659</v>
+        <v>10.53259772570554</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.28699647900361</v>
+        <v>9.301111579856084</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>10.36712958320084</v>
+        <v>16.02859861380746</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>10.38874219312664</v>
+        <v>22.79191631391055</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>10.24508553679643</v>
+        <v>-8.948653319018021</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>10.32733015474544</v>
+        <v>4.893838987280474</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>10.35238689762851</v>
+        <v>11.57614148045038</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>10.31141425273403</v>
+        <v>-3.092946506638726</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>10.37796170518352</v>
+        <v>18.62452909180178</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>10.39789478156725</v>
+        <v>26.18331552739133</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>10.39218985916766</v>
+        <v>16.19186328761897</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>10.45629585868268</v>
+        <v>24.05034157004712</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>10.48131950354405</v>
+        <v>28.03864827998493</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>10.27537332656339</v>
+        <v>-4.704276256868028</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>10.42061233259168</v>
+        <v>10.33721787360484</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>10.46280933702686</v>
+        <v>18.87885976160383</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>10.30343872355649</v>
+        <v>9.380817418249919</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>10.39181359264588</v>
+        <v>19.83267726243516</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>10.41709215966943</v>
+        <v>27.97783249771678</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>10.26558357389062</v>
+        <v>-9.541804037488319</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>10.35691447272234</v>
+        <v>8.579596117084101</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>10.38608970594475</v>
+        <v>16.45279472766687</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>10.33834270892137</v>
+        <v>-0.820199903031587</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>10.41225540676068</v>
+        <v>24.70130193705108</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>10.43551606109225</v>
+        <v>33.58753195310737</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>10.44350422217097</v>
+        <v>29.11690827967342</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>10.51650028124058</v>
+        <v>36.23398105962887</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>10.54700545525775</v>
+        <v>41.07478977338734</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>10.32425624212777</v>
+        <v>-5.486019185361394</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>10.48424944022269</v>
+        <v>18.51405235677971</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>10.53337334190899</v>
+        <v>27.54911439499322</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>10.31918300883052</v>
+        <v>8.194880465681941</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>10.36042743718183</v>
+        <v>11.57357498680043</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.37093162827141</v>
+        <v>18.60632057346387</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>10.30170062671664</v>
+        <v>2.145862181872725</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>10.34370470827115</v>
+        <v>15.4622723119399</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>10.35596929773255</v>
+        <v>20.84031985000191</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.33441798150393</v>
+        <v>4.85119637705662</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>10.36841455550654</v>
+        <v>24.64379788502639</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.37813433235008</v>
+        <v>30.7489562444368</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>10.37536513988559</v>
+        <v>18.23951971462407</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>10.40682693979377</v>
+        <v>21.09635018246363</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.41868785175529</v>
+        <v>27.22831246339994</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.3109127343224</v>
+        <v>9.22831786440517</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>10.3858644450811</v>
+        <v>13.58927782129843</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>10.40643023905888</v>
+        <v>25.22538710895074</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.31864431487839</v>
+        <v>7.786709750682863</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>10.37639623918122</v>
+        <v>14.79216416863606</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>10.39236571500194</v>
+        <v>22.72597079178782</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>10.28932899096257</v>
+        <v>-3.679258334910732</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.34859681386911</v>
+        <v>11.1205022911896</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>10.36710169647341</v>
+        <v>19.14638426990184</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>10.33608057247058</v>
+        <v>-3.856875100609437</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>10.38403548730125</v>
+        <v>18.71575319365585</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.39876428512628</v>
+        <v>27.78895803212407</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.39890812189924</v>
+        <v>15.20940377903408</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>10.44511348892937</v>
+        <v>27.89477967756946</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.46379893458026</v>
+        <v>35.1986345257105</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.31517909912473</v>
+        <v>-1.669230180593332</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>10.41987310557385</v>
+        <v>14.05673950540672</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>10.45099129572474</v>
+        <v>25.61693438593293</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.32851303042387</v>
+        <v>7.792417116577886</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>10.39218625419544</v>
+        <v>16.58002631680619</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>10.41079825561714</v>
+        <v>25.62159271290597</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>10.30203844575555</v>
+        <v>-5.408968126407495</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>10.36783308246586</v>
+        <v>11.14880480804802</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>10.38930694731309</v>
+        <v>20.17296204718286</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>10.35351079708436</v>
+        <v>-2.322310455769611</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>10.40675618356286</v>
+        <v>21.91359647056186</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>10.42388403967356</v>
+        <v>32.11627848765896</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>10.43351393508712</v>
+        <v>27.83929517462359</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>10.48610329060545</v>
+        <v>37.20395488986209</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>10.50873546948503</v>
+        <v>45.24708659338182</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>10.34807065728888</v>
+        <v>-4.26720552808417</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>10.46336113809186</v>
+        <v>17.28372545101427</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>10.49947545939408</v>
+        <v>28.7869500951095</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>10.31953049866237</v>
+        <v>18.93553710744257</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>10.38225871443226</v>
+        <v>25.38012073461238</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>10.3977653892626</v>
+        <v>33.083974795229</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.29521742579584</v>
+        <v>14.74820943405186</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>10.35911709763057</v>
+        <v>32.24846379997928</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>10.37723761160036</v>
+        <v>38.22041201360822</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>10.34414125441664</v>
+        <v>20.15595997736531</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>10.39586482239128</v>
+        <v>44.39920971378026</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>10.41022019036664</v>
+        <v>50.81044685658016</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>10.40822742097512</v>
+        <v>36.17831643511921</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>10.4560701764336</v>
+        <v>39.78711968248081</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>10.47329801201041</v>
+        <v>45.93311566187516</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>10.30973467317259</v>
+        <v>22.46725784194621</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>10.42370983011351</v>
+        <v>30.94993854322438</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.45413794366508</v>
+        <v>43.73442605859761</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>10.32054882411159</v>
+        <v>17.28076249769375</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>10.40833112395805</v>
+        <v>26.57737670358219</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>10.43200918873252</v>
+        <v>34.75934831350525</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.2788519391833</v>
+        <v>4.950671505679828</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>10.36895364659322</v>
+        <v>23.09723207890379</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>10.39640550070571</v>
+        <v>31.40079282522868</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.34899846951776</v>
+        <v>7.536900089794002</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>10.42190828977235</v>
+        <v>33.73942536550574</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>10.44375410699794</v>
+        <v>42.81167014375038</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>10.44648510941125</v>
+        <v>28.69985110709111</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>10.51667567789806</v>
+        <v>39.85054907771166</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>10.54404029439826</v>
+        <v>47.02066305010116</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>10.31861916611157</v>
+        <v>8.915641073742059</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>10.47772958169162</v>
+        <v>27.19884336335259</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>10.52395082266635</v>
+        <v>39.07304195178672</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>10.33913406251888</v>
+        <v>15.4155513326764</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>10.43590819223289</v>
+        <v>27.680391535223</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>10.46357160931808</v>
+        <v>36.8843715326641</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>10.30198635937423</v>
+        <v>0.5503367949269977</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>10.40200267913901</v>
+        <v>21.98242303311686</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>10.43393066017534</v>
+        <v>31.00821466033969</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.37913014654634</v>
+        <v>7.467681690623443</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>10.46007606943286</v>
+        <v>36.57280912257482</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>10.48553891426548</v>
+        <v>46.61469722349545</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>10.50332448959373</v>
+        <v>41.07703904444381</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>10.58320354094067</v>
+        <v>49.85757314173735</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>10.61652948393946</v>
+        <v>57.73746109960662</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>10.37275008519627</v>
+        <v>7.50474357739106</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>10.54795892226061</v>
+        <v>33.63026479501112</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>10.60171297098702</v>
+        <v>44.90224410187073</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>10.31761464948813</v>
+        <v>7.995871695224628</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>10.37839052983088</v>
+        <v>20.41317150197063</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>10.39267498189105</v>
+        <v>26.29379126111391</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>10.29490992346424</v>
+        <v>-5.095232936761087</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>10.35701495988362</v>
+        <v>17.70622758806945</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>10.37370837626983</v>
+        <v>21.63040320744543</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>10.34206985257777</v>
+        <v>5.657588115317821</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>10.39234572426579</v>
+        <v>35.50587203986537</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>10.40556198146101</v>
+        <v>39.88047481674382</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>10.40247954725566</v>
+        <v>28.46214115267154</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>10.44963422327635</v>
+        <v>35.38037442819591</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.46553702799926</v>
+        <v>37.56832769652842</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>10.30821929064121</v>
+        <v>3.333406848870587</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>10.41866788066468</v>
+        <v>24.14664607614277</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>10.44673842374542</v>
+        <v>32.45827968639933</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>10.31558242256345</v>
+        <v>4.980746551712968</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>10.40043820639748</v>
+        <v>19.9542620338683</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>10.42234699240283</v>
+        <v>26.38245068757329</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>10.2763825608827</v>
+        <v>-12.0564146951624</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>10.36371417084475</v>
+        <v>11.12930420127591</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>10.38911195490288</v>
+        <v>17.48435852729044</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>10.3440332727453</v>
+        <v>-4.734611588007454</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>10.41470789400739</v>
+        <v>26.71598976256436</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>10.43491048088539</v>
+        <v>33.73377895884253</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>10.43550056882603</v>
+        <v>24.25694911387346</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>10.504288696717</v>
+        <v>38.06310610987956</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.52966512704185</v>
+        <v>40.86856091272744</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>10.31317698033686</v>
+        <v>-5.164844821099906</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>10.46702023107693</v>
+        <v>23.99064359391313</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>10.50983552309399</v>
+        <v>31.34484546542418</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>10.33099211593323</v>
+        <v>3.322248266893197</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>10.42432920828127</v>
+        <v>20.90014122998907</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>10.45003404713201</v>
+        <v>30.54745934301285</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>10.29570750475111</v>
+        <v>-14.90584983873723</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>10.39239607285645</v>
+        <v>11.19370280646346</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>10.42205674464559</v>
+        <v>20.75193079653047</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>10.3701535732138</v>
+        <v>-4.674993203626962</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>10.44841156266854</v>
+        <v>29.24077494098127</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>10.4720589482851</v>
+        <v>39.45484025313556</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>10.48625550727131</v>
+        <v>34.63876105072851</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>10.56417899034247</v>
+        <v>45.53114920541422</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>10.59524288980798</v>
+        <v>52.69095829527766</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>10.36132986376408</v>
+        <v>-8.351845572010284</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>10.53036782901871</v>
+        <v>27.50933509887665</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>10.5803557275028</v>
+        <v>37.58372818290848</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.55316024440806</v>
+        <v>12.55316024440712</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.1488982279989</v>
+        <v>17.14889822799789</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.10619437658836</v>
+        <v>24.10619437658757</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8602823160043398</v>
+        <v>0.860282316004251</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.69902174161169</v>
+        <v>15.69902174161138</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.78678940866083</v>
+        <v>20.78678940865945</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.615069124039556</v>
+        <v>6.615069124041113</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.17541741198224</v>
+        <v>28.17541741198337</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.00607717967176</v>
+        <v>34.00607717967362</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.68404926900969</v>
+        <v>22.68404926901054</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.5068357277816</v>
+        <v>25.50683572778125</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.72351681213191</v>
+        <v>30.72351681213379</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.50341400256192</v>
+        <v>10.50341400256175</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.02962971740152</v>
+        <v>17.02962971740157</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.04360645770883</v>
+        <v>28.043606457709</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.91700990872345</v>
+        <v>13.91700990872388</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.40482269156258</v>
+        <v>22.40482269156159</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.86600759514983</v>
+        <v>29.8660075951504</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.682148567613834</v>
+        <v>-2.682148567613411</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.92821481265683</v>
+        <v>13.92821481265796</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.25020308874121</v>
+        <v>21.25020308874414</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8179784815114166</v>
+        <v>0.8179784815094768</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.42528477237532</v>
+        <v>25.42528477237516</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.85751091756256</v>
+        <v>33.85751091756252</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.57330194106171</v>
+        <v>23.57330194105983</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.44160765233045</v>
+        <v>36.44160765233036</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>42.27774651213473</v>
+        <v>42.27774651213593</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.162345343491586</v>
+        <v>4.162345343490876</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.52042982462261</v>
+        <v>22.52042982462486</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.74401654810475</v>
+        <v>32.7440165481043</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.22309833325469</v>
+        <v>15.22309833325411</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.66352513374152</v>
+        <v>25.66352513374041</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.84787278319519</v>
+        <v>34.84787278319447</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.838533157278833</v>
+        <v>-1.838533157278378</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.79046888199559</v>
+        <v>16.79046888199392</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.76360240558122</v>
+        <v>25.76360240558235</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.591241937851684</v>
+        <v>4.591241937852764</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.06074354465102</v>
+        <v>31.06074354465057</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.22276906880646</v>
+        <v>41.22276906880557</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.5994922695219</v>
+        <v>38.59949226952407</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.31392385289855</v>
+        <v>48.31392385289742</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>55.71684009365886</v>
+        <v>55.71684009366082</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.19514796369686</v>
+        <v>4.195147963698381</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.8369571291976</v>
+        <v>28.83695712919763</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.82925718123738</v>
+        <v>39.82925718123865</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.00530207028576</v>
+        <v>10.00530207028631</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.25483407338039</v>
+        <v>23.25483407338046</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.42475167484525</v>
+        <v>29.4247516748445</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.621127213260407</v>
+        <v>3.621127213260251</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.16130524386535</v>
+        <v>27.16130524386501</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.48537904277136</v>
+        <v>31.48537904277081</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.05946237023467</v>
+        <v>13.05946237023527</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>43.8228231222225</v>
+        <v>43.82282312222322</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.16215893001443</v>
+        <v>48.16215893001597</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.01172053892714</v>
+        <v>34.01172053892817</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.78760121296041</v>
+        <v>40.78760121295804</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.67445103414884</v>
+        <v>43.6744510341468</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.686120705816137</v>
+        <v>8.686120705817451</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.56012772475788</v>
+        <v>29.56012772475786</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.16125714754095</v>
+        <v>38.16125714754113</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.83766629895997</v>
+        <v>10.83766629896028</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.73511689887494</v>
+        <v>27.73511689887468</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.70403118256198</v>
+        <v>34.70403118256322</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1.760724999933317</v>
+        <v>-1.760724999931505</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.63474019202142</v>
+        <v>23.63474019202161</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.8539353804021</v>
+        <v>30.85393538040137</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.811748818558384</v>
+        <v>5.811748818562854</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.31299084996655</v>
+        <v>39.31299084996978</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.63689778819162</v>
+        <v>46.63689778819388</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.13602699975178</v>
+        <v>34.13602699975205</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.48212058153148</v>
+        <v>47.48212058153106</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.20212554281544</v>
+        <v>52.20212554281407</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.911071917809855</v>
+        <v>5.911071917811447</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.08752073120101</v>
+        <v>36.08752073120323</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44.2457904325923</v>
+        <v>44.24579043259314</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.74790847553223</v>
+        <v>11.74790847553145</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.38345662353065</v>
+        <v>32.38345662353058</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.08586582281995</v>
+        <v>43.08586582282055</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-4.935666581973103</v>
+        <v>-4.935666581973799</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.86858457682781</v>
+        <v>24.86858457682705</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.76164826714044</v>
+        <v>35.76164826714049</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.050483011162747</v>
+        <v>8.050483011164921</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.19252918787496</v>
+        <v>45.19252918787586</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.18832160354361</v>
+        <v>56.18832160354468</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.63309841514921</v>
+        <v>47.63309841515011</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>58.59503882238566</v>
+        <v>58.59503882238575</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67.86220499878316</v>
+        <v>67.86220499878324</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.303376486603489</v>
+        <v>6.303376486604242</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>44.84981138724886</v>
+        <v>44.84981138724969</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.85753876781137</v>
+        <v>55.85753876781293</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.00530207028576</v>
+        <v>10.00530207028631</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.25483407338039</v>
+        <v>23.25483407338046</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.42475167484525</v>
+        <v>29.4247516748445</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.621127213260407</v>
+        <v>3.621127213260251</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.16130524386535</v>
+        <v>27.16130524386501</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.48537904277136</v>
+        <v>31.48537904277081</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.05946237023467</v>
+        <v>13.05946237023527</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.8228231222225</v>
+        <v>43.82282312222322</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>48.16215893001443</v>
+        <v>48.16215893001597</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.01172053892714</v>
+        <v>34.01172053892817</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.78760121296041</v>
+        <v>40.78760121295804</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.67445103414884</v>
+        <v>43.6744510341468</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.686120705816137</v>
+        <v>8.686120705817451</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.56012772475788</v>
+        <v>29.56012772475786</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.16125714754095</v>
+        <v>38.16125714754113</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10.83766629895997</v>
+        <v>10.83766629896028</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.73511689887494</v>
+        <v>27.73511689887468</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.70403118256198</v>
+        <v>34.70403118256322</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1.760724999933317</v>
+        <v>-1.760724999931505</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.63474019202142</v>
+        <v>23.63474019202161</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.8539353804021</v>
+        <v>30.85393538040137</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.811748818558384</v>
+        <v>5.811748818562854</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.31299084996655</v>
+        <v>39.31299084996978</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.63689778819162</v>
+        <v>46.63689778819388</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.13602699975178</v>
+        <v>34.13602699975205</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.48212058153148</v>
+        <v>47.48212058153106</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.20212554281544</v>
+        <v>52.20212554281407</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5.911071917809855</v>
+        <v>5.911071917811447</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.08752073120101</v>
+        <v>36.08752073120323</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.2457904325923</v>
+        <v>44.24579043259314</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>11.74790847553223</v>
+        <v>11.74790847553145</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.38345662353065</v>
+        <v>32.38345662353058</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.08586582281995</v>
+        <v>43.08586582282055</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-4.935666581973103</v>
+        <v>-4.935666581973799</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.86858457682781</v>
+        <v>24.86858457682705</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.76164826714044</v>
+        <v>35.76164826714049</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.050483011162747</v>
+        <v>8.050483011164921</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.19252918787496</v>
+        <v>45.19252918787586</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>56.18832160354361</v>
+        <v>56.18832160354468</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.63309841514921</v>
+        <v>47.63309841515011</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>58.59503882238566</v>
+        <v>58.59503882238575</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.86220499878316</v>
+        <v>67.86220499878324</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6.303376486603489</v>
+        <v>6.303376486604242</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.84981138724886</v>
+        <v>44.84981138724969</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.85753876781137</v>
+        <v>55.85753876781293</v>
       </c>
     </row>
     <row r="137">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.61545876790429</v>
+        <v>12.61545876790336</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.71133996999746</v>
+        <v>18.71133996999682</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.445982736142585</v>
+        <v>2.445982736144702</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.47900435548266</v>
+        <v>12.47900435548244</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.71654180277882</v>
+        <v>16.71654180277908</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.390073844638379</v>
+        <v>5.390073844635533</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.88916942249385</v>
+        <v>22.88916942249343</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.89036563430564</v>
+        <v>27.89036563430511</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.9746200833801</v>
+        <v>17.97462008338171</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.36355241603578</v>
+        <v>18.36355241603745</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.32252704142476</v>
+        <v>23.32252704142469</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11.37043142984019</v>
+        <v>11.37043142983956</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>11.57776192307433</v>
+        <v>11.57776192307399</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.20714281055454</v>
+        <v>21.20714281055367</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.75211730819334</v>
+        <v>11.75211730819398</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>17.08148942231929</v>
+        <v>17.0814894223199</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.24435163465704</v>
+        <v>24.24435163465942</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-3.226622557260545</v>
+        <v>-3.226622557259884</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.307666772338379</v>
+        <v>9.307666772336852</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.45965332718151</v>
+        <v>16.45965332718114</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2.362207506018266</v>
+        <v>-2.362207506020988</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18.83118926867518</v>
+        <v>18.83118926867303</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.03642612318314</v>
+        <v>27.03642612318274</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.8557900722256</v>
+        <v>16.85579007222484</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.05752822184889</v>
+        <v>28.05752822184921</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.59101319113122</v>
+        <v>34.59101319113002</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.791550361493285</v>
+        <v>2.791550361492937</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>15.79227015301633</v>
+        <v>15.79227015301539</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.49217837847627</v>
+        <v>25.49217837847595</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.66778236004043</v>
+        <v>13.66778236004019</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.59823378611131</v>
+        <v>21.59823378611087</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.7207722067113</v>
+        <v>30.72077220671081</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.010079591552562</v>
+        <v>-3.010079591553059</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>12.38119012398473</v>
+        <v>12.38119012398348</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.43378349294641</v>
+        <v>21.43378349294654</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.205986392282674</v>
+        <v>2.205986392282887</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.98748246317109</v>
+        <v>25.98748246317183</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.15799416611432</v>
+        <v>36.1579941661165</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.30435020304444</v>
+        <v>33.30435020304504</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.71336111060194</v>
+        <v>41.71336111060323</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.81792412842543</v>
+        <v>49.81792412842633</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2.631686299710103</v>
+        <v>2.63168629971043</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22.86782595271354</v>
+        <v>22.86782595271369</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.4586535008342</v>
+        <v>33.4586535008341</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.855594182537931</v>
+        <v>9.85559418253807</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.57143428878109</v>
+        <v>15.57143428878104</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.43903230124757</v>
+        <v>22.43903230124996</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.7309796495186687</v>
+        <v>0.7309796495176704</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.02811359718491</v>
+        <v>17.02811359718384</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.02563863735471</v>
+        <v>22.02563863735651</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.697155066941142</v>
+        <v>6.697155066939742</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.63996575856291</v>
+        <v>29.63996575855933</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.3257853928267</v>
+        <v>35.32578539282501</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.09430872748239</v>
+        <v>20.09430872748168</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.77395778043986</v>
+        <v>23.77395778044006</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.43947511225814</v>
+        <v>28.43947511225775</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.914363203987555</v>
+        <v>3.914363203988493</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.29450721674572</v>
+        <v>12.29450721674629</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.87475751282575</v>
+        <v>22.87475751282658</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.12782286106181</v>
+        <v>13.12782286106309</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.95407625741007</v>
+        <v>23.95407625741161</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.68976333538661</v>
+        <v>30.68976333538854</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.093065914146309</v>
+        <v>-1.09306591414503</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.41195045732299</v>
+        <v>18.41195045732356</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.95787612646239</v>
+        <v>24.95787612646225</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3.198402587043502</v>
+        <v>3.198402587044462</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.46555546278488</v>
+        <v>30.46555546278415</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.12914929248728</v>
+        <v>38.12914929248724</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.17236885612178</v>
+        <v>27.17236885612217</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.08483694190303</v>
+        <v>42.08483694190295</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.03984637958619</v>
+        <v>47.03984637958673</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5.054350511282514</v>
+        <v>5.054350511282826</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.17581827363448</v>
+        <v>27.17581827363473</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.07671521019949</v>
+        <v>36.07671521019975</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12.8358414213895</v>
+        <v>12.83584142139095</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.17034622714703</v>
+        <v>25.1703462271478</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.7858754451392</v>
+        <v>34.78587544514112</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-2.95671889760179</v>
+        <v>-2.956718897600994</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.04947125013876</v>
+        <v>18.04947125013879</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.59166133643523</v>
+        <v>27.5916613364344</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4.087175777858241</v>
+        <v>4.087175777858866</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>32.73729189719214</v>
+        <v>32.73729189719166</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.34068336165998</v>
+        <v>43.34068336165921</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.68330539456183</v>
+        <v>38.68330539456003</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>50.08233512306954</v>
+        <v>50.08233512307119</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>57.96581694700124</v>
+        <v>57.96581694700036</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1.573761937032237</v>
+        <v>1.5737619370339</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.45880663363873</v>
+        <v>29.45880663363837</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>40.66231739622401</v>
+        <v>40.6623173962242</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.532539586218178</v>
+        <v>8.532539586218917</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.79023663667418</v>
+        <v>17.7902366366754</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.5599826875406</v>
+        <v>24.55998268754166</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.527451838472735</v>
+        <v>2.527451838473367</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.86613259955597</v>
+        <v>22.86613259955766</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.62324731867494</v>
+        <v>27.62324731867577</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.7501576927273</v>
+        <v>11.75015769272689</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.04556136403424</v>
+        <v>39.04556136403435</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.98218591325687</v>
+        <v>43.98218591325656</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.53763159068529</v>
+        <v>24.53763159068485</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.48629255425291</v>
+        <v>28.48629255425362</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.63719627941181</v>
+        <v>31.63719627941203</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-0.1997949086893351</v>
+        <v>-0.1997949086884754</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.06720048548894</v>
+        <v>13.06720048548888</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.61109317018602</v>
+        <v>22.61109317018709</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.4099333768581</v>
+        <v>17.40993337685842</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.0944449786823</v>
+        <v>33.09444497868282</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.24195145711398</v>
+        <v>39.24195145711396</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.732126130448832</v>
+        <v>3.732126130449706</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.10571489038318</v>
+        <v>29.10571489038334</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.11568165932989</v>
+        <v>35.11568165933182</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.27296465301785</v>
+        <v>13.27296465301753</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.27473940862757</v>
+        <v>46.27473940862695</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.79881188630591</v>
+        <v>52.79881188630642</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>40.02468372222063</v>
+        <v>40.02468372222108</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>53.86574087534159</v>
+        <v>53.86574087534464</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>57.86084039477469</v>
+        <v>57.86084039477663</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.42872916544919</v>
+        <v>13.4287291654496</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>41.36302732336438</v>
+        <v>41.3630273233657</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>48.53818181272697</v>
+        <v>48.53818181272807</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.97610681599135</v>
+        <v>15.97610681599221</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.51167104419449</v>
+        <v>34.51167104419405</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.96140555541395</v>
+        <v>44.96140555541359</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-3.517035247040611</v>
+        <v>-3.517035247039851</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.23214107195516</v>
+        <v>25.23214107195415</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.63437260669331</v>
+        <v>35.63437260669384</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.74314359878004</v>
+        <v>10.74314359877947</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>46.54791541401159</v>
+        <v>46.54791541401209</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>57.37213143021723</v>
+        <v>57.37213143021764</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>48.63302311268722</v>
+        <v>48.6330231126857</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>60.04009629594434</v>
+        <v>60.04009629594427</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>68.54808474973602</v>
+        <v>68.54808474973626</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.371563509828881</v>
+        <v>9.371563509830658</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>45.28390537078258</v>
+        <v>45.28390537078473</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>56.09200343964739</v>
+        <v>56.09200343964749</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.47858143742448</v>
+        <v>3.478581437427265</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>8.919984021925121</v>
+        <v>8.919984021927245</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16.76174962569856</v>
+        <v>16.76174962570155</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-7.127414401667033</v>
+        <v>-7.127414401666742</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8.371963587872276</v>
+        <v>8.37196358787374</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.42004792781566</v>
+        <v>14.42004792781707</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-0.06297936753938504</v>
+        <v>-0.06297936753910793</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.69560882195643</v>
+        <v>22.69560882195632</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.92129065509736</v>
+        <v>28.92129065509733</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.96571560925166</v>
+        <v>17.96571560925035</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.26836007941875</v>
+        <v>19.26836007941977</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.03246537902588</v>
+        <v>25.03246537902545</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.458576172211486</v>
+        <v>3.458576172216076</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.38550692471538</v>
+        <v>10.38550692471662</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.38784829681336</v>
+        <v>22.38784829681306</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.503747887112223</v>
+        <v>8.503747887110418</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17.43228114880103</v>
+        <v>17.43228114880072</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.14866942137716</v>
+        <v>26.14866942137618</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-9.819835877851908</v>
+        <v>-9.819835877852228</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>7.282776237626954</v>
+        <v>7.282776237626805</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.19026875018395</v>
+        <v>16.1902687501819</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-3.37776081688071</v>
+        <v>-3.377760816881556</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.02992380014226</v>
+        <v>22.0299238001404</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.30919687858691</v>
+        <v>31.30919687858655</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.58407677423446</v>
+        <v>19.58407677423531</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.0780625032343</v>
+        <v>28.07806250323397</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.55177584070903</v>
+        <v>35.55177584071001</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.4770963116848099</v>
+        <v>0.4770963116847886</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.53902898404924</v>
+        <v>17.53902898404774</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.23329571210811</v>
+        <v>29.2332957121081</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>11.49338411080702</v>
+        <v>11.49338411080571</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.36957050440201</v>
+        <v>24.36957050440169</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.84140175044309</v>
+        <v>34.84140175044251</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-9.891499799023848</v>
+        <v>-9.891499799024281</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.87558582885261</v>
+        <v>11.87558582885269</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.19097345453047</v>
+        <v>22.19097345452978</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1.940907127219545</v>
+        <v>1.940907127218906</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.34694751238514</v>
+        <v>31.34694751238722</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>42.24820280738576</v>
+        <v>42.24820280738441</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.55076601620626</v>
+        <v>37.55076601620693</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.54535361349445</v>
+        <v>44.54535361349593</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.5339324760703</v>
+        <v>53.53393247607216</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>5.79380322355498</v>
+        <v>5.793803223558249</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.18322228205164</v>
+        <v>32.18322228205336</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.15521132420423</v>
+        <v>44.15521132420667</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4.59457810909437</v>
+        <v>4.594578109094587</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.481345285742474</v>
+        <v>9.481345285741689</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.12741500272296</v>
+        <v>16.12741500272185</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-6.90898678787167</v>
+        <v>-6.908986787873432</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>8.424134399623114</v>
+        <v>8.424134399622439</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.10168723167471</v>
+        <v>13.10168723167551</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.5362317153840026</v>
+        <v>-0.5362317153828053</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.96310456678608</v>
+        <v>21.96310456678451</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.29713548865215</v>
+        <v>27.29713548865195</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.6760413243618</v>
+        <v>12.67604132436345</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.2485921129793</v>
+        <v>15.24859211297967</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.51453024371077</v>
+        <v>19.51453024371175</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-3.05583363482365</v>
+        <v>-3.055833634824141</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>3.910264092466874</v>
+        <v>3.910264092465495</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.88138776422259</v>
+        <v>13.88138776422131</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.867376967753095</v>
+        <v>5.867376967751084</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.17674649890268</v>
+        <v>16.17674649890185</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.79676593606035</v>
+        <v>22.79676593605963</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-11.38039465913239</v>
+        <v>-11.38039465913415</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7.515709985239545</v>
+        <v>7.515709985238096</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.93502841724267</v>
+        <v>13.93502841724221</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-6.433160591200342</v>
+        <v>-6.433160591199653</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.70437005267866</v>
+        <v>20.70437005267757</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.18257003472932</v>
+        <v>28.18257003473023</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.90180084191649</v>
+        <v>17.90180084191586</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.85298429667273</v>
+        <v>31.85298429667341</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.67425871169252</v>
+        <v>36.6742587116948</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.176260070354872</v>
+        <v>-3.176260070359427</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.99918311148321</v>
+        <v>17.99918311148338</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.38271152457517</v>
+        <v>26.38271152457554</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.271931356534458</v>
+        <v>6.2719313565346</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.57373357149496</v>
+        <v>18.57373357149528</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.49555885567362</v>
+        <v>28.49555885567325</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-12.90205369333079</v>
+        <v>-12.90205369332956</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.138256684664732</v>
+        <v>8.138256684667468</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.98244924785551</v>
+        <v>17.98244924785692</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-4.602670501727681</v>
+        <v>-4.602670501725833</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>24.44905050344006</v>
+        <v>24.44905050344171</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.27640460507936</v>
+        <v>35.27640460508124</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.8483940414986</v>
+        <v>30.84839404149744</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.5829065955699</v>
+        <v>41.58290659557088</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.75097781898591</v>
+        <v>49.75097781898548</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-5.716792079584558</v>
+        <v>-5.716792079581816</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.06732105206454</v>
+        <v>22.06732105206449</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.19355004998918</v>
+        <v>33.19355004999036</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.8276602338812</v>
+        <v>11.82766023388028</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.46649364899944</v>
+        <v>26.46649364900035</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.73289132560939</v>
+        <v>35.73289132561036</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.889305730051393</v>
+        <v>7.889305730052192</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.14831665825779</v>
+        <v>35.14831665826093</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.40745365620277</v>
+        <v>42.40745365620298</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.1508031401826</v>
+        <v>19.15080314018229</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>52.28645927932312</v>
+        <v>52.28645927932227</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>59.49008113680598</v>
+        <v>59.49008113680559</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.32857960445382</v>
+        <v>41.32857960445315</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.69243583196005</v>
+        <v>48.69243583195949</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>53.65487865791521</v>
+        <v>53.65487865791231</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.56975957562706</v>
+        <v>14.5697595756268</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.42013834567135</v>
+        <v>36.42013834567196</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>49.95269846799072</v>
+        <v>49.95269846799186</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.955663013028306</v>
+        <v>6.955663013027396</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.32809381117102</v>
+        <v>25.32809381117099</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.61539600629058</v>
+        <v>33.61539600629191</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-7.844641799480887</v>
+        <v>-7.844641799481168</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.27759533755554</v>
+        <v>21.27759533755394</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.3818203261071</v>
+        <v>29.3818203261069</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.816419929537466</v>
+        <v>2.816419929537509</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.77222917675272</v>
+        <v>38.7722291767527</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>47.20406459067925</v>
+        <v>47.20406459067826</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.23741458943844</v>
+        <v>34.23741458943723</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.86033143719083</v>
+        <v>47.86033143718991</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>53.24325296104274</v>
+        <v>53.24325296104331</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>5.660226091627798</v>
+        <v>5.660226091628039</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.61233844804416</v>
+        <v>37.61233844804659</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.2073575443891</v>
+        <v>48.20735754438886</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>9.282406031240804</v>
+        <v>9.282406031240107</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.24370255770856</v>
+        <v>30.24370255770986</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.86810250833254</v>
+        <v>41.86810250833367</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-9.542106118086103</v>
+        <v>-9.542106118084092</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>22.61125024701704</v>
+        <v>22.61125024701754</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.00412878971042</v>
+        <v>34.00412878970992</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5.469559090757371</v>
+        <v>5.469559090757101</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.9037478496444</v>
+        <v>43.90374784964445</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>55.65411035904602</v>
+        <v>55.6541103590458</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.89210368959906</v>
+        <v>45.89210368959888</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>57.21639378315925</v>
+        <v>57.21639378316043</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>66.42516063846114</v>
+        <v>66.42516063846163</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.659481658882235</v>
+        <v>5.659481658881155</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.16740961891487</v>
+        <v>45.16740961891583</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>58.18646722197673</v>
+        <v>58.18646722197567</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2.429861792417362</v>
+        <v>2.429861792417969</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.463307742927401</v>
+        <v>7.463307742926932</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.25747917054316</v>
+        <v>12.25747917054278</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-10.54193665088497</v>
+        <v>-10.54193665088486</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.9780222822693139</v>
+        <v>0.9780222822677969</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>4.48937004287967</v>
+        <v>4.489370042880249</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-4.516286506536226</v>
+        <v>-4.516286506538699</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.91483781916081</v>
+        <v>14.91483781915895</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.54281241817797</v>
+        <v>18.54281241817641</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.09687593027989</v>
+        <v>10.0968759302778</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.57361333539015</v>
+        <v>11.57361333539077</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.94888087783266</v>
+        <v>15.94888087783198</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-5.441356956450663</v>
+        <v>-5.441356956451107</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.280038555835694</v>
+        <v>3.280038555835382</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.0302243660368</v>
+        <v>10.03022436603783</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>3.762868152724699</v>
+        <v>3.762868152723597</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.00475381864934</v>
+        <v>11.00475381864875</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>18.40552406032347</v>
+        <v>18.40552406032289</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-11.52003180646423</v>
+        <v>-11.52003180646371</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.4844325497732553</v>
+        <v>0.4844325497719302</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>8.644418242238494</v>
+        <v>8.644418242238984</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-7.980583160461568</v>
+        <v>-7.980583160460164</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.87414621935583</v>
+        <v>12.87414621935578</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.0044368108453</v>
+        <v>21.00443681084656</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.70061767437624</v>
+        <v>8.700617674374001</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.31727502294159</v>
+        <v>16.31727502294103</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.12859032596238</v>
+        <v>23.12859032596182</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-10.86566696977937</v>
+        <v>-10.86566696978206</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4.685981030386009</v>
+        <v>4.685981030386393</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>13.58638159953364</v>
+        <v>13.58638159953491</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.305454679000163</v>
+        <v>4.305454679000589</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>15.58478791116155</v>
+        <v>15.58478791116306</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.27863118579719</v>
+        <v>25.27863118579803</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-12.827505568702</v>
+        <v>-12.82750556870135</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3.946006691934271</v>
+        <v>3.94600669193339</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.12858205343898</v>
+        <v>14.12858205343935</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-4.635736970316416</v>
+        <v>-4.635736970315905</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.25727722652463</v>
+        <v>20.25727722652427</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.52781411770592</v>
+        <v>30.52781411770511</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.53843071370883</v>
+        <v>25.53843071370985</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.26572655618896</v>
+        <v>31.26572655618894</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.89984577186502</v>
+        <v>40.89984577186601</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-5.981256007913552</v>
+        <v>-5.981256007915953</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.55051072047831</v>
+        <v>17.55051072047814</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.88987498268317</v>
+        <v>27.88987498268256</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2.657674875127218</v>
+        <v>-2.657674875126337</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.115149720448744</v>
+        <v>5.115149720449014</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.903181106239334</v>
+        <v>8.90318110623901</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-10.72304524952383</v>
+        <v>-10.72304524952508</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.214780272470192</v>
+        <v>5.214780272469592</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>7.262368350939709</v>
+        <v>7.262368350938774</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-4.029277040906117</v>
+        <v>-4.02927704090648</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.72547471320584</v>
+        <v>19.72547471320557</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.94802473284891</v>
+        <v>21.9480247328487</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.06730431626677</v>
+        <v>10.06730431626546</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>12.77261240489614</v>
+        <v>12.77261240489693</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.97890273716602</v>
+        <v>13.9789027371648</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-10.83625788030121</v>
+        <v>-10.83625788030148</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>1.527806770748096</v>
+        <v>1.527806770746674</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.370912549718226</v>
+        <v>6.370912549717857</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>9.862977019188833</v>
+        <v>9.862977019187426</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.7796129306957</v>
+        <v>22.77961293069718</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.70366564159411</v>
+        <v>27.70366564159379</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1.301690183538775</v>
+        <v>-1.301690183539535</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>18.4107746081405</v>
+        <v>18.41077460814022</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.62226455267808</v>
+        <v>23.62226455267825</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.143289333487487</v>
+        <v>4.143289333486911</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.30646871612845</v>
+        <v>32.30646871612684</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.71489172715161</v>
+        <v>37.71489172715088</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.46504871773572</v>
+        <v>27.46504871773271</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.72163552822172</v>
+        <v>38.72163552822002</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.91248898286793</v>
+        <v>41.91248898286578</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>3.329106022339828</v>
+        <v>3.329106022339665</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.20830110057216</v>
+        <v>27.20830110057076</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.20477122279073</v>
+        <v>32.20477122278905</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>11.10208112523161</v>
+        <v>11.10208112523015</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.10157968577381</v>
+        <v>28.10157968577349</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.19632753045429</v>
+        <v>37.19632753045315</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-4.995418215920439</v>
+        <v>-4.995418215920759</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.56731269911015</v>
+        <v>19.56731269911079</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.9771890708903</v>
+        <v>28.97718907088996</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>6.127247063298277</v>
+        <v>6.127247063298198</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.34250684738635</v>
+        <v>38.34250684738636</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.86710872658158</v>
+        <v>47.86710872658165</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.71330249429271</v>
+        <v>41.7133024942929</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>50.8914752120203</v>
+        <v>50.89147521202273</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>58.8991964167172</v>
+        <v>58.89919641671818</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>4.095478796609817</v>
+        <v>4.095478796609107</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.59695627240142</v>
+        <v>36.59695627240244</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>45.08105728285181</v>
+        <v>45.08105728285357</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>6.960879480141577</v>
+        <v>6.960879480141673</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.95687690625389</v>
+        <v>10.95687690625209</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.75397633751323</v>
+        <v>15.75397633751267</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.477578298567212</v>
+        <v>1.477578298568083</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.67191275898664</v>
+        <v>12.67191275898696</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.86510613904511</v>
+        <v>15.8651061390456</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>4.485117820088184</v>
+        <v>4.48511782008812</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.70462813236409</v>
+        <v>23.70462813236445</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.94764206621915</v>
+        <v>26.94764206622023</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.00173749414747</v>
+        <v>19.00173749414653</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.22184507409126</v>
+        <v>19.22184507408995</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.42014611107475</v>
+        <v>22.42014611107543</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.633366997007427</v>
+        <v>7.63336699700693</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.15287318314708</v>
+        <v>13.15287318314765</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.9936816846956</v>
+        <v>19.99368168469586</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.5963647330500832</v>
+        <v>0.5963647330501223</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.892635621860538</v>
+        <v>6.89263562186138</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>13.92211709954503</v>
+        <v>13.92211709954684</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-12.11726596611811</v>
+        <v>-12.11726596611713</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-0.4340327483763611</v>
+        <v>-0.4340327483760698</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>7.146169864678341</v>
+        <v>7.146169864677211</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-11.40760016666286</v>
+        <v>-11.40760016666367</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>9.224380466894701</v>
+        <v>9.224380466896356</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.75368004755458</v>
+        <v>16.75368004755586</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>5.173965273694242</v>
+        <v>5.173965273693596</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.55171413251363</v>
+        <v>10.55171413251488</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.06400555143015</v>
+        <v>17.0640055514296</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-9.813964555030161</v>
+        <v>-9.81396455502918</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>2.498200795192836</v>
+        <v>2.498200795193028</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>11.0964820992798</v>
+        <v>11.09648209927812</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.744384713056916</v>
+        <v>6.744384713056696</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.10386420677371</v>
+        <v>18.10386420677433</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.3793791670592</v>
+        <v>27.37937916706016</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-10.3558916519158</v>
+        <v>-10.35589165191583</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>7.426987753410514</v>
+        <v>7.426987753411047</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.92517758790432</v>
+        <v>16.92517758790464</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-2.075012493783569</v>
+        <v>-2.075012493783611</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>23.7073694383221</v>
+        <v>23.70736943832249</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.32143106979056</v>
+        <v>33.32143106979017</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.56660244266057</v>
+        <v>27.56660244265938</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>31.67917257136568</v>
+        <v>31.67917257136555</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>40.62927477068678</v>
+        <v>40.62927477068578</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-1.488966830053124</v>
+        <v>-1.488966830051219</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.68951592361569</v>
+        <v>20.68951592361656</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.98620274341933</v>
+        <v>29.98620274342019</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3.28448964965568</v>
+        <v>-3.284489649655151</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-5.69814648171563</v>
+        <v>-5.698146481714363</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.468218929789562</v>
+        <v>-3.46821892978905</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-9.793214395172189</v>
+        <v>-9.793214395172672</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-7.417099869719034</v>
+        <v>-7.417099869717986</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-6.700038401476506</v>
+        <v>-6.700038401476371</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-10.09092476897717</v>
+        <v>-10.09092476897802</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>0.9852064565461047</v>
+        <v>0.985206456546396</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1.928617541296552</v>
+        <v>1.928617541296563</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-3.0087978360774</v>
+        <v>-3.008797836075719</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-7.677238275367373</v>
+        <v>-7.677238275365394</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-6.294485329223652</v>
+        <v>-6.294485329223876</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-8.615298368379172</v>
+        <v>-8.615298368380159</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-13.14606823533147</v>
+        <v>-13.14606823533122</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-10.34119125990775</v>
+        <v>-10.34119125990778</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.6120040722346944</v>
+        <v>-0.6120040722341296</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.5005230757421257</v>
+        <v>0.50052307574349</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.369357300204871</v>
+        <v>5.369357300205265</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-11.78744397989581</v>
+        <v>-11.78744397989497</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-7.306358124479119</v>
+        <v>-7.306358124479925</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1.866738672465162</v>
+        <v>-1.86673867246455</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-13.92561400704887</v>
+        <v>-13.9256140070496</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-0.04746321734236592</v>
+        <v>-0.04746321734232684</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.440882538546201</v>
+        <v>5.440882538545124</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-3.654809512527863</v>
+        <v>-3.654809512527664</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-1.487260324933751</v>
+        <v>-1.487260324934778</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.404996907818755</v>
+        <v>3.404996907818869</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-13.21320033286954</v>
+        <v>-13.21320033287266</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-9.222506967264181</v>
+        <v>-9.222506967266352</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-3.956998793832693</v>
+        <v>-3.956998793832459</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>6.196100978482405</v>
+        <v>6.196100978481829</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>12.84695208558098</v>
+        <v>12.84695208557954</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.24299538955</v>
+        <v>20.24299538954956</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-10.37649516831942</v>
+        <v>-10.37649516831875</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>0.8140294026912178</v>
+        <v>0.8140294026925536</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.514006595006016</v>
+        <v>8.514006595005831</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-4.479620239112955</v>
+        <v>-4.479620239115079</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>15.10970435156849</v>
+        <v>15.10970435156776</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.96287630862279</v>
+        <v>22.9628763086229</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.02328051486862</v>
+        <v>20.02328051486871</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.35464136881048</v>
+        <v>21.35464136881087</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.75039570114392</v>
+        <v>28.75039570114531</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-4.101502002553539</v>
+        <v>-4.101502002553979</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.15194201443064</v>
+        <v>10.15194201443008</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.53104157242304</v>
+        <v>16.53104157242335</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>8.285082575939683</v>
+        <v>8.285082575940724</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.59183458311101</v>
+        <v>11.59183458311232</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.44035730736233</v>
+        <v>18.44035730736553</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-6.42143354159876</v>
+        <v>-6.421433541599499</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.861208974319282</v>
+        <v>6.861208974319232</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.76299925046272</v>
+        <v>11.76299925046457</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-0.4369774770146764</v>
+        <v>-0.4369774770154686</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.12189253383141</v>
+        <v>20.12189253383233</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.74068277833198</v>
+        <v>25.74068277833089</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.19117154731454</v>
+        <v>16.19117154731283</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.59884058044197</v>
+        <v>17.59884058044075</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.73302646897807</v>
+        <v>22.73302646897766</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>5.800281538428087</v>
+        <v>5.800281538428272</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.143104879777</v>
+        <v>10.14310487977874</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.83071269547942</v>
+        <v>20.83071269548277</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>7.052978559657439</v>
+        <v>7.052978559658057</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.14336387144408</v>
+        <v>14.14336387144547</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.81995860402173</v>
+        <v>21.81995860402443</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-13.18717046620274</v>
+        <v>-13.18717046620271</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.729664020430937</v>
+        <v>1.729664020430369</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.294333094306289</v>
+        <v>9.294333094305081</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-9.363001288980321</v>
+        <v>-9.36300128898003</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.11805454517981</v>
+        <v>14.11805454518062</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.71920519986083</v>
+        <v>22.71920519985782</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.20416766258671</v>
+        <v>13.20416766258722</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.40727882559468</v>
+        <v>24.40727882558939</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.55171452276214</v>
+        <v>30.55171452276227</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-4.223706311947852</v>
+        <v>-4.223706311946608</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>11.76818834732581</v>
+        <v>11.76818834732683</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.05959573117062</v>
+        <v>22.0595957311707</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>9.513645047476963</v>
+        <v>9.513645047478896</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.18772361975618</v>
+        <v>19.18772361975688</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.63256909182793</v>
+        <v>28.63256909182853</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-11.15835339301605</v>
+        <v>-11.15835339301649</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.592226640846412</v>
+        <v>6.592226640844571</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.79616109289115</v>
+        <v>15.79616109289055</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-3.730445094011338</v>
+        <v>-3.730445094010428</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.30381126952936</v>
+        <v>22.30381126952913</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.64845491892956</v>
+        <v>32.64845491892922</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.81464154504206</v>
+        <v>30.81464154504254</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>39.28065246738776</v>
+        <v>39.28065246738948</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>46.96582981605277</v>
+        <v>46.96582981605334</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-2.080623373522195</v>
+        <v>-2.080623373520475</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.21487526878736</v>
+        <v>21.21487526878771</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.21831194210569</v>
+        <v>32.21831194210667</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.69607010360733</v>
+        <v>15.69607010360617</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.93208337218037</v>
+        <v>26.93208337218067</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.47056271160716</v>
+        <v>32.47056271160704</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.303410814308222</v>
+        <v>9.30341081430775</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.60155801522219</v>
+        <v>28.60155801522279</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.86437491185152</v>
+        <v>32.86437491185166</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.39497468385628</v>
+        <v>17.39497468385674</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>44.00288604120208</v>
+        <v>44.00288604120137</v>
       </c>
     </row>
     <row r="640">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.74428927735595</v>
+        <v>37.74428927735577</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>43.20039729584737</v>
+        <v>43.20039729584683</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>47.67263212302201</v>
+        <v>47.67263212302238</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.33066096592844</v>
+        <v>15.33066096592854</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.10151324399119</v>
+        <v>34.10151324399128</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.96399874124271</v>
+        <v>41.96399874124445</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.675312718603983</v>
+        <v>9.675312718603173</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.46860669791745</v>
+        <v>23.46860669791697</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.76477322549903</v>
+        <v>30.7647732254991</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-1.589147869717771</v>
+        <v>-1.58914786971765</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.53070457183428</v>
+        <v>18.53070457183344</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.55816136975444</v>
+        <v>26.55816136975483</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>3.376223688959569</v>
+        <v>3.376223688959384</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.68604068835688</v>
+        <v>31.68604068835656</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.59941447120897</v>
+        <v>39.59941447120917</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.15175709944438</v>
+        <v>27.15175709944151</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.75069500706531</v>
+        <v>38.75069500706699</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.13759355455172</v>
+        <v>45.13759355455084</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1.802577751673559</v>
+        <v>1.802577751673268</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.6526630597192</v>
+        <v>27.6526630597197</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.41810250030237</v>
+        <v>36.418102500301</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.146671176610624</v>
+        <v>8.146671176610646</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.75360646672111</v>
+        <v>25.75360646672041</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.24299781759093</v>
+        <v>36.24299781759114</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-6.864442063209673</v>
+        <v>-6.864442063209546</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.7567930820294</v>
+        <v>17.75679308202944</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.85454563180649</v>
+        <v>28.85454563180651</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>3.100410806643054</v>
+        <v>3.100410806643402</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.15311849219142</v>
+        <v>35.15311849219206</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.16340777985572</v>
+        <v>46.16340777985747</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.02938943586006</v>
+        <v>38.02938943586081</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.54395111741473</v>
+        <v>47.54395111741534</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>58.00713065916087</v>
+        <v>58.007130659161</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-0.01128405610216365</v>
+        <v>-0.01128405610121153</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.58742691988264</v>
+        <v>33.58742691988301</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>44.78030435380041</v>
+        <v>44.78030435380236</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.93659146708441</v>
+        <v>14.93659146708173</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.88781454074822</v>
+        <v>23.887814540746</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.95040349747147</v>
+        <v>31.95040349746958</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.469930061583582</v>
+        <v>5.469930061582946</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.18221339347188</v>
+        <v>26.18221339347252</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.24378888101484</v>
+        <v>32.24378888101362</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.53873181288271</v>
+        <v>13.53873181288461</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.64510746844984</v>
+        <v>40.64510746845142</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>47.29183097269397</v>
+        <v>47.29183097269523</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.84438851483938</v>
+        <v>31.84438851483831</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.12892725045119</v>
+        <v>37.12892725045</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.25053444723134</v>
+        <v>42.25053444723088</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>12.80745376707483</v>
+        <v>12.80745376707481</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.28756095708825</v>
+        <v>26.28756095708647</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.6609851550868</v>
+        <v>38.66098515508611</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.25473868150251</v>
+        <v>11.25473868150363</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>24.2997324083251</v>
+        <v>24.29973240832364</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.92485353672671</v>
+        <v>31.92485353672522</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-5.405769519575107</v>
+        <v>-5.405769519576446</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.24768233193294</v>
+        <v>17.24768233193055</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.58793992865064</v>
+        <v>24.58793992865055</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.5800304404182048</v>
+        <v>0.5800304404164498</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.88270131166044</v>
+        <v>30.88270131165905</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.27682357266829</v>
+        <v>39.27682357266681</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.93368704979902</v>
+        <v>27.93368704979521</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.91850122854537</v>
+        <v>42.91850122854309</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.02376172185418</v>
+        <v>48.02376172185223</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.248651894877951</v>
+        <v>3.248651894876061</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.80163072162218</v>
+        <v>28.8016307216208</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.95546894271182</v>
+        <v>38.95546894271227</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.08563332109068</v>
+        <v>12.08563332109015</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.75704688890578</v>
+        <v>26.75704688890497</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.01470713423054</v>
+        <v>37.01470713422967</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-5.71451757758316</v>
+        <v>-5.714517577580957</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>18.58487700391667</v>
+        <v>18.58487700391711</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.6072640743489</v>
+        <v>28.60726407434849</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.022371230321425</v>
+        <v>3.022371230320664</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.80559183937513</v>
+        <v>34.80559183937555</v>
       </c>
     </row>
     <row r="715">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.53408047321408</v>
+        <v>40.53408047321606</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.1300340688453</v>
+        <v>52.1300340688467</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.07646837436853</v>
+        <v>60.0764683743704</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1.088538571148596</v>
+        <v>1.088538571146535</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>32.71518356095958</v>
+        <v>32.7151835609617</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>44.76949065990673</v>
+        <v>44.76949065990909</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.95145150458962</v>
+        <v>19.95145150459076</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.21237024153376</v>
+        <v>24.21237024153312</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.95683210561019</v>
+        <v>30.95683210560901</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.26692964411184</v>
+        <v>16.26692964410944</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.74600912167653</v>
+        <v>30.74600912167536</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.7739697228544</v>
+        <v>35.77396972285324</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.39729832886357</v>
+        <v>19.3972983288624</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.34275672815131</v>
+        <v>40.34275672815201</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.12168007737719</v>
+        <v>46.12168007737755</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.18449677487227</v>
+        <v>32.18449677487268</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.66028915427662</v>
+        <v>35.66028915427725</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.21203210043256</v>
+        <v>41.2120321004356</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.28180371827971</v>
+        <v>21.28180371828156</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.98931811566473</v>
+        <v>26.98931811566617</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.15369766661365</v>
+        <v>38.15369766661551</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.87487777574074</v>
+        <v>20.87487777573845</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.05349820080615</v>
+        <v>29.05349820080664</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.27919881113942</v>
+        <v>36.27919881113928</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.80741612156901</v>
+        <v>11.80741612156696</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.0942564531527</v>
+        <v>28.09425645314953</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.30053917635854</v>
+        <v>35.3005391763587</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.09104692737881</v>
+        <v>12.09104692738096</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.11922419687076</v>
+        <v>36.11922419687208</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>44.45422351535224</v>
+        <v>44.45422351535272</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.76433344807869</v>
+        <v>31.76433344807801</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>45.35965442648804</v>
+        <v>45.35965442648712</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.70349202844776</v>
+        <v>51.70349202844692</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.30316133273411</v>
+        <v>13.30316133273649</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.88870600388028</v>
+        <v>30.88870600388185</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.32049771290439</v>
+        <v>41.32049771290542</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.78505452149026</v>
+        <v>19.78505452149032</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.69273472407514</v>
+        <v>29.69273472407466</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.37084779838833</v>
+        <v>38.37084779838724</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>9.142599507391175</v>
+        <v>9.142599507392681</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.12672802099934</v>
+        <v>27.12672802099678</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.72652222633195</v>
+        <v>35.72652222633002</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.62638450514918</v>
+        <v>12.62638450514883</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.25918423249853</v>
+        <v>38.25918423249809</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>48.08359067562477</v>
+        <v>48.08359067562488</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.44290358210363</v>
+        <v>43.44290358210383</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.69232189650434</v>
+        <v>53.69232189650399</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>61.21411397995014</v>
+        <v>61.21411397995107</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>9.72182100052202</v>
+        <v>9.721821000523299</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.14533517846755</v>
+        <v>33.14533517846866</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>43.9261262501844</v>
+        <v>43.92612625018317</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.01314446879733</v>
+        <v>11.01314446879443</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.70228218966003</v>
+        <v>23.70228218966091</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.0760696925676</v>
+        <v>29.0760696925674</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3.154302205201312</v>
+        <v>-3.154302205200875</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.31098245903111</v>
+        <v>19.31098245903122</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.85560061367164</v>
+        <v>22.85560061367163</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.134361190610242</v>
+        <v>8.1343611906074</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.95115758782259</v>
+        <v>37.95115758782119</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.82992584913477</v>
+        <v>41.82992584913406</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.75967833364592</v>
+        <v>30.7596783336441</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.43069431013021</v>
+        <v>37.43069431012842</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>40.31338314134592</v>
+        <v>40.31338314134199</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>5.257813890362775</v>
+        <v>5.2578138903608</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.53537106928842</v>
+        <v>26.53537106928709</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.95874824665756</v>
+        <v>33.95874824665498</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>6.258918861953155</v>
+        <v>6.258918861950767</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.00525611686066</v>
+        <v>22.00525611686007</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.28955345305287</v>
+        <v>28.28955345305221</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-11.87544695217335</v>
+        <v>-11.87544695217509</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.67369846482243</v>
+        <v>11.67369846482251</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>18.06805147573728</v>
+        <v>18.0680514757359</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3.851330780997871</v>
+        <v>-3.85133078099932</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.12618049945361</v>
+        <v>28.12618049945463</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.98954377834464</v>
+        <v>34.98954377834401</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.00881223812439</v>
+        <v>25.00881223812385</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.27259258059064</v>
+        <v>39.27259258058984</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.91943151787655</v>
+        <v>42.91943151787614</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-4.245080123586058</v>
+        <v>-4.245080123587379</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.93531949041208</v>
+        <v>25.93531949041265</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.85988305179619</v>
+        <v>32.85988305179495</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>4.418054380435733</v>
+        <v>4.418054380434675</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.20892259120716</v>
+        <v>23.20892259120539</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.20611145246908</v>
+        <v>33.20611145246738</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-14.8461166693952</v>
+        <v>-14.84611666939681</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>12.18129300246393</v>
+        <v>12.18129300246328</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.30992433279586</v>
+        <v>22.30992433279537</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-3.536807248160955</v>
+        <v>-3.53680724816389</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.36222342327929</v>
+        <v>31.36222342327796</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.90766198012908</v>
+        <v>41.90766198012867</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.54080951474257</v>
+        <v>36.54080951474142</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>48.02322505430049</v>
+        <v>48.02322505429925</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>56.41315156829565</v>
+        <v>56.41315156829474</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-6.287909070867337</v>
+        <v>-6.287909070867834</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.09662864265533</v>
+        <v>31.09662864265564</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.36609962729161</v>
+        <v>41.36609962729144</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>5.472327103750973</v>
+        <v>5.472327103751026</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>9.28649772963394</v>
+        <v>9.286497729636103</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>14.30095262528423</v>
+        <v>14.30095262528435</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-8.13212800841341</v>
+        <v>-8.132128008412508</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4.870886422255878</v>
+        <v>4.870886422257754</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>7.867229382121258</v>
+        <v>7.86722938212145</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-0.9618679698431842</v>
+        <v>-0.9618679698431523</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.67853481122933</v>
+        <v>18.67853481122807</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.42287363621571</v>
+        <v>22.422873636216</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>12.24734314371538</v>
+        <v>12.24734314371685</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.55647904868495</v>
+        <v>12.55647904868579</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.61227265700009</v>
+        <v>14.61227265700205</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1.971979152656883</v>
+        <v>-1.97197915265543</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.421687576082582</v>
+        <v>3.421687576083555</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.53259772570554</v>
+        <v>10.53259772570676</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.301111579856084</v>
+        <v>9.301111579855661</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.02859861380746</v>
+        <v>16.02859861380843</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.79191631391055</v>
+        <v>22.79191631391221</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-8.948653319018021</v>
+        <v>-8.948653319015641</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>4.893838987280474</v>
+        <v>4.893838987281526</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>11.57614148045038</v>
+        <v>11.5761414804516</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-3.092946506638726</v>
+        <v>-3.092946506638065</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>18.62452909180178</v>
+        <v>18.62452909180103</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.18331552739133</v>
+        <v>26.18331552739195</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.19186328761897</v>
+        <v>16.19186328761916</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.05034157004712</v>
+        <v>24.05034157004569</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.03864827998493</v>
+        <v>28.03864827998353</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-4.704276256868028</v>
+        <v>-4.704276256868767</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>10.33721787360484</v>
+        <v>10.33721787360489</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.87885976160383</v>
+        <v>18.87885976160421</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>9.380817418249919</v>
+        <v>9.380817418249038</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.83267726243516</v>
+        <v>19.83267726243484</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.97783249771678</v>
+        <v>27.97783249771656</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-9.541804037488319</v>
+        <v>-9.541804037486393</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.579596117084101</v>
+        <v>8.579596117084108</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.45279472766687</v>
+        <v>16.45279472766745</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-0.820199903031587</v>
+        <v>-0.8201999030310256</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.70130193705108</v>
+        <v>24.70130193705061</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>33.58753195310737</v>
+        <v>33.58753195310707</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.11690827967342</v>
+        <v>29.11690827967377</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.23398105962887</v>
+        <v>36.23398105962893</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>41.07478977338734</v>
+        <v>41.07478977338825</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-5.486019185361394</v>
+        <v>-5.486019185364904</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>18.51405235677971</v>
+        <v>18.51405235678225</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.54911439499322</v>
+        <v>27.54911439499241</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>8.194880465681941</v>
+        <v>8.194880465679727</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>11.57357498680043</v>
+        <v>11.57357498680032</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.60632057346387</v>
+        <v>18.60632057346385</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.145862181872725</v>
+        <v>2.145862181873588</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>15.4622723119399</v>
+        <v>15.46227231193865</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.84031985000191</v>
+        <v>20.84031985000253</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>4.85119637705662</v>
+        <v>4.851196377058332</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.64379788502639</v>
+        <v>24.64379788502636</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.7489562444368</v>
+        <v>30.74895624443561</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>18.23951971462407</v>
+        <v>18.23951971462385</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.09635018246363</v>
+        <v>21.09635018246351</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.22831246339994</v>
+        <v>27.228312463401</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.22831786440517</v>
+        <v>9.228317864406158</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.58927782129843</v>
+        <v>13.58927782129938</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.22538710895074</v>
+        <v>25.22538710895205</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.786709750682863</v>
+        <v>7.786709750680472</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>14.79216416863606</v>
+        <v>14.79216416863595</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.72597079178782</v>
+        <v>22.72597079178531</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-3.679258334910732</v>
+        <v>-3.679258334908803</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>11.1205022911896</v>
+        <v>11.12050229119026</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.14638426990184</v>
+        <v>19.1463842699008</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.856875100609437</v>
+        <v>-3.856875100606708</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>18.71575319365585</v>
+        <v>18.71575319365544</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.78895803212407</v>
+        <v>27.78895803212572</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>15.20940377903408</v>
+        <v>15.20940377903639</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.89477967756946</v>
+        <v>27.89477967757021</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>35.1986345257105</v>
+        <v>35.19863452571258</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1.669230180593332</v>
+        <v>-1.669230180594227</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>14.05673950540672</v>
+        <v>14.05673950540749</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.61693438593293</v>
+        <v>25.61693438593229</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.792417116577886</v>
+        <v>7.792417116577588</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.58002631680619</v>
+        <v>16.58002631680868</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.62159271290597</v>
+        <v>25.62159271290786</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-5.408968126407495</v>
+        <v>-5.408968126406969</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>11.14880480804802</v>
+        <v>11.14880480804661</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.17296204718286</v>
+        <v>20.17296204718018</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-2.322310455769611</v>
+        <v>-2.322310455767878</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>21.91359647056186</v>
+        <v>21.91359647056009</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.11627848765896</v>
+        <v>32.11627848765911</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.83929517462359</v>
+        <v>27.83929517462534</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.20395488986209</v>
+        <v>37.20395488986181</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.24708659338182</v>
+        <v>45.24708659338272</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-4.26720552808417</v>
+        <v>-4.267205528084127</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>17.28372545101427</v>
+        <v>17.28372545101417</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.7869500951095</v>
+        <v>28.78695009511089</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.93553710744257</v>
+        <v>18.93553710744234</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.38012073461238</v>
+        <v>25.38012073461249</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.083974795229</v>
+        <v>33.08397479522876</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.74820943405186</v>
+        <v>14.7482094340508</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.24846379997928</v>
+        <v>32.24846379997794</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>38.22041201360822</v>
+        <v>38.22041201360613</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.15595997736531</v>
+        <v>20.15595997736506</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>44.39920971378026</v>
+        <v>44.39920971377855</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>50.81044685658016</v>
+        <v>50.81044685657864</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.17831643511921</v>
+        <v>36.17831643512</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.78711968248081</v>
+        <v>39.78711968247807</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.93311566187516</v>
+        <v>45.93311566187607</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.46725784194621</v>
+        <v>22.46725784194737</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.94993854322438</v>
+        <v>30.94993854322495</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>43.73442605859761</v>
+        <v>43.73442605859773</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.28076249769375</v>
+        <v>17.28076249769138</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.57737670358219</v>
+        <v>26.57737670358221</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.75934831350525</v>
+        <v>34.759348313506</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>4.950671505679828</v>
+        <v>4.950671505678272</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.09723207890379</v>
+        <v>23.09723207890134</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.40079282522868</v>
+        <v>31.40079282522684</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>7.536900089794002</v>
+        <v>7.536900089792716</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.73942536550574</v>
+        <v>33.73942536550337</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.81167014375038</v>
+        <v>42.81167014374861</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.69985110709111</v>
+        <v>28.69985110709094</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>39.85054907771166</v>
+        <v>39.8505490777112</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>47.02066305010116</v>
+        <v>47.02066305010035</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>8.915641073742059</v>
+        <v>8.915641073740723</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>27.19884336335259</v>
+        <v>27.19884336335099</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>39.07304195178672</v>
+        <v>39.07304195178423</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>15.4155513326764</v>
+        <v>15.41555133267071</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>27.680391535223</v>
+        <v>27.68039153522164</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.8843715326641</v>
+        <v>36.88437153266482</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>0.5503367949269977</v>
+        <v>0.5503367949258111</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>21.98242303311686</v>
+        <v>21.98242303311756</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.00821466033969</v>
+        <v>31.00821466033927</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.467681690623443</v>
+        <v>7.467681690622022</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.57280912257482</v>
+        <v>36.57280912257419</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>46.61469722349545</v>
+        <v>46.61469722349451</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>41.07703904444381</v>
+        <v>41.07703904444092</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>49.85757314173735</v>
+        <v>49.85757314173635</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>57.73746109960662</v>
+        <v>57.73746109960431</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>7.50474357739106</v>
+        <v>7.504743577389227</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.63026479501112</v>
+        <v>33.63026479500958</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>44.90224410187073</v>
+        <v>44.90224410186929</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.995871695224628</v>
+        <v>7.995871695223758</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>20.41317150197063</v>
+        <v>20.41317150197052</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.29379126111391</v>
+        <v>26.29379126111465</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-5.095232936761087</v>
+        <v>-5.095232936761176</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>17.70622758806945</v>
+        <v>17.70622758806979</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.63040320744543</v>
+        <v>21.63040320744675</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>5.657588115317821</v>
+        <v>5.657588115319576</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.50587203986537</v>
+        <v>35.5058720398666</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>39.88047481674382</v>
+        <v>39.88047481674438</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.46214115267154</v>
+        <v>28.46214115267066</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.38037442819591</v>
+        <v>35.38037442819636</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>37.56832769652842</v>
+        <v>37.56832769652863</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>3.333406848870587</v>
+        <v>3.333406848870843</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.14664607614277</v>
+        <v>24.14664607614346</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.45827968639933</v>
+        <v>32.45827968639982</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>4.980746551712968</v>
+        <v>4.980746551715192</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>19.9542620338683</v>
+        <v>19.95426203386925</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.38245068757329</v>
+        <v>26.38245068757399</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-12.0564146951624</v>
+        <v>-12.05641469516087</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>11.12930420127591</v>
+        <v>11.12930420127623</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>17.48435852729044</v>
+        <v>17.48435852729209</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-4.734611588007454</v>
+        <v>-4.734611588006367</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.71598976256436</v>
+        <v>26.71598976256458</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.73377895884253</v>
+        <v>33.73377895884085</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>24.25694911387346</v>
+        <v>24.25694911387429</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>38.06310610987956</v>
+        <v>38.06310610988178</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.86856091272744</v>
+        <v>40.86856091272923</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-5.164844821099906</v>
+        <v>-5.164844821099799</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>23.99064359391313</v>
+        <v>23.99064359391422</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.34484546542418</v>
+        <v>31.34484546542465</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>3.322248266893197</v>
+        <v>3.322248266893687</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>20.90014122998907</v>
+        <v>20.90014122998987</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.54745934301285</v>
+        <v>30.54745934301495</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-14.90584983873723</v>
+        <v>-14.90584983873585</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>11.19370280646346</v>
+        <v>11.19370280646559</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.75193079653047</v>
+        <v>20.75193079653188</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-4.674993203626962</v>
+        <v>-4.674993203625868</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.24077494098127</v>
+        <v>29.24077494098105</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.45484025313556</v>
+        <v>39.45484025313622</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>34.63876105072851</v>
+        <v>34.63876105073034</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>45.53114920541422</v>
+        <v>45.53114920541613</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>52.69095829527766</v>
+        <v>52.69095829527898</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-8.351845572010284</v>
+        <v>-8.35184557200818</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>27.50933509887665</v>
+        <v>27.50933509887847</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>37.58372818290848</v>
+        <v>37.58372818291007</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.506</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.615</v>
+        <v>16.46</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.496</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.147</v>
+        <v>17.492</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.841</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.722</v>
+        <v>9.164</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.55316024440712</v>
+        <v>7.610506967792222</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.14889822799789</v>
+        <v>12.61189545076198</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.10619437658757</v>
+        <v>19.39314593110357</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.860282316004251</v>
+        <v>-2.273984576481489</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.69902174161138</v>
+        <v>11.99365461993986</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.78678940865945</v>
+        <v>15.72658213018826</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.615069124041113</v>
+        <v>1.865312655496741</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.17541741198337</v>
+        <v>22.84896554160224</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.00607717967362</v>
+        <v>26.35404419696321</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.68404926901054</v>
+        <v>19.58843438804783</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.50683572778125</v>
+        <v>23.13534326826493</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.72351681213379</v>
+        <v>25.50027790086057</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.50341400256175</v>
+        <v>8.517488491127109</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.02962971740157</v>
+        <v>14.17975977595573</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.043606457709</v>
+        <v>23.67841641170144</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.91700990872388</v>
+        <v>12.75388476046081</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.40482269156159</v>
+        <v>23.94666281286618</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.8660075951504</v>
+        <v>32.37875172221291</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.682148567613411</v>
+        <v>-1.517215305741129</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.92821481265796</v>
+        <v>11.88865872912902</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.25020308874414</v>
+        <v>20.16635701632951</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8179784815094768</v>
+        <v>0.7103842767299504</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.42528477237516</v>
+        <v>24.47889916099161</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.85751091756252</v>
+        <v>34.54690823264521</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.57330194105983</v>
+        <v>26.221241408859</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.44160765233036</v>
+        <v>38.93219739104407</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>42.27774651213593</v>
+        <v>45.62667127203351</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.162345343490876</v>
+        <v>5.547374705467167</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.52042982462486</v>
+        <v>26.91612927152675</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.7440165481043</v>
+        <v>35.45549277123838</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.22309833325411</v>
+        <v>14.95577248126155</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.66352513374041</v>
+        <v>27.65820409257662</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.84787278319447</v>
+        <v>36.24496708681299</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.838533157278378</v>
+        <v>-1.234249255801334</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.79046888199392</v>
+        <v>17.17045608495485</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.76360240558235</v>
+        <v>24.32420058754304</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.591241937852764</v>
+        <v>4.066404243013466</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.06074354465057</v>
+        <v>33.09567385020515</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.22276906880557</v>
+        <v>43.32022085473889</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.59949226952407</v>
+        <v>41.07318315114507</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>48.31392385289742</v>
+        <v>51.88714075464237</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>55.71684009366082</v>
+        <v>60.39953761631618</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.195147963698381</v>
+        <v>12.38556620316017</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.83695712919763</v>
+        <v>37.59348155771777</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.82925718123865</v>
+        <v>49.17735783266368</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.00530207028631</v>
+        <v>9.273941054176142</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>23.25483407338046</v>
+        <v>27.78202631825382</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.4247516748445</v>
+        <v>34.51566586845549</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.621127213260251</v>
+        <v>2.776359199759693</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.16130524386501</v>
+        <v>31.3568794207805</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.48537904277081</v>
+        <v>35.11402335627864</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.05946237023527</v>
+        <v>11.33973868767162</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>43.82282312222322</v>
+        <v>47.7671210377323</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.16215893001597</v>
+        <v>52.11742332327634</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.01172053892817</v>
+        <v>40.19171975732272</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.78760121295804</v>
+        <v>47.22266945977951</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43.6744510341468</v>
+        <v>49.34119452680228</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.686120705817451</v>
+        <v>12.11423352739543</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.56012772475786</v>
+        <v>33.93413044770203</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.16125714754113</v>
+        <v>42.64417914065844</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.83766629896028</v>
+        <v>9.060776804805892</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.73511689887468</v>
+        <v>29.09277629851903</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.70403118256322</v>
+        <v>34.69901262140115</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1.760724999931505</v>
+        <v>-3.403233965958098</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.63474019202161</v>
+        <v>21.4443736771406</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.85393538040137</v>
+        <v>28.44136228218941</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.811748818562854</v>
+        <v>3.444986014634353</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.31299084996978</v>
+        <v>38.64916116287906</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.63689778819388</v>
+        <v>46.90863268268829</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>34.13602699975205</v>
+        <v>38.98154469343588</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>47.48212058153106</v>
+        <v>51.61799668745068</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.20212554281407</v>
+        <v>56.77210082377491</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.911071917811447</v>
+        <v>7.318842452969465</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.08752073120323</v>
+        <v>39.33882326530203</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44.24579043259314</v>
+        <v>47.00513864329092</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.74790847553145</v>
+        <v>11.26760510632138</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.38345662353058</v>
+        <v>32.17613161805315</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>43.08586582282055</v>
+        <v>41.34292460017352</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-4.935666581973799</v>
+        <v>-4.046708138620044</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.86858457682705</v>
+        <v>25.10854967977722</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.76164826714049</v>
+        <v>33.1526229687367</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.050483011164921</v>
+        <v>6.896328064298615</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.19252918787586</v>
+        <v>46.34554613494795</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.18832160354468</v>
+        <v>57.08929907891559</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47.63309841515011</v>
+        <v>49.3974879560166</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>58.59503882238575</v>
+        <v>63.26941932930019</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67.86220499878324</v>
+        <v>70.52894428471859</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.303376486604242</v>
+        <v>11.28047171337773</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>44.84981138724969</v>
+        <v>49.14722820296672</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.85753876781293</v>
+        <v>58.69395191029524</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.00530207028631</v>
+        <v>10.5040863784521</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.25483407338046</v>
+        <v>24.81029631257012</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.4247516748445</v>
+        <v>31.13087974291211</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.621127213260251</v>
+        <v>2.028910634959406</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.16130524386501</v>
+        <v>26.25137660553302</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.48537904277081</v>
+        <v>29.18302501852972</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.05946237023527</v>
+        <v>10.36912972419641</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.82282312222322</v>
+        <v>42.59500282635206</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>48.16215893001597</v>
+        <v>46.31094452146256</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.01172053892817</v>
+        <v>36.55041378332246</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.78760121295804</v>
+        <v>42.53623000684193</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.6744510341468</v>
+        <v>43.80056965892658</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.686120705817451</v>
+        <v>12.10939974444245</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.56012772475786</v>
+        <v>29.37228739928081</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.16125714754113</v>
+        <v>37.13084233574849</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>10.83766629896028</v>
+        <v>15.37619211970869</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.73511689887468</v>
+        <v>32.56523132395405</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.70403118256322</v>
+        <v>37.47164688838716</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1.760724999931505</v>
+        <v>1.408856989320679</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.63474019202161</v>
+        <v>23.87787369999121</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.85393538040137</v>
+        <v>29.96678618169586</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.811748818562854</v>
+        <v>8.834842545745081</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>39.31299084996978</v>
+        <v>41.61230880542183</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.63689778819388</v>
+        <v>49.13326995222192</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.13602699975205</v>
+        <v>41.9877061100397</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.48212058153106</v>
+        <v>53.0034550083581</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.20212554281407</v>
+        <v>57.37406181785627</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5.911071917811447</v>
+        <v>12.21160655045773</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.08752073120323</v>
+        <v>40.64794757140146</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.24579043259314</v>
+        <v>47.71512081493444</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>11.74790847553145</v>
+        <v>15.61145491402433</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.38345662353058</v>
+        <v>33.81055682656687</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.08586582282055</v>
+        <v>42.57000060148997</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-4.935666581973799</v>
+        <v>-1.675299748135703</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.86858457682705</v>
+        <v>25.77182451090267</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.76164826714049</v>
+        <v>32.71954074926005</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.050483011164921</v>
+        <v>9.649583763709439</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>45.19252918787586</v>
+        <v>47.10832972866147</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>56.18832160354468</v>
+        <v>57.10076091407655</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.63309841515011</v>
+        <v>50.43513279178926</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>58.59503882238575</v>
+        <v>63.01622779296068</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.86220499878324</v>
+        <v>69.32107275030266</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6.303376486604242</v>
+        <v>14.02549591754758</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.84981138724969</v>
+        <v>48.58192523652259</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.85753876781293</v>
+        <v>57.59841617401362</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.79884467299271</v>
+        <v>9.101003043573398</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.61545876790336</v>
+        <v>12.45105453015961</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.71133996999682</v>
+        <v>18.53864363918391</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.445982736144702</v>
+        <v>0.8516926926456456</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.47900435548244</v>
+        <v>12.24882509991621</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.71654180277908</v>
+        <v>15.61658264503004</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.390073844635533</v>
+        <v>3.628914124331793</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.88916942249343</v>
+        <v>21.81558247701879</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.89036563430511</v>
+        <v>24.84397982455802</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.97462008338171</v>
+        <v>19.58424421154698</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>18.36355241603745</v>
+        <v>22.33443939035271</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>23.32252704142469</v>
+        <v>25.3005816668092</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11.37043142983956</v>
+        <v>14.17859782144605</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>11.57776192307399</v>
+        <v>17.14065761824303</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.20714281055367</v>
+        <v>25.51435354229132</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.75211730819398</v>
+        <v>12.43903940809212</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>17.0814894223199</v>
+        <v>21.1612901390195</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.24435163465942</v>
+        <v>29.38328693515383</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-3.226622557259884</v>
+        <v>0.2499175957245754</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.307666772336852</v>
+        <v>10.30120240379895</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.45965332718114</v>
+        <v>18.4226605035681</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2.362207506020988</v>
+        <v>0.822495753322908</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18.83118926867303</v>
+        <v>21.16123420076207</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.03642612318274</v>
+        <v>30.95308743923428</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.85579007222484</v>
+        <v>21.92860988230354</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.05752822184921</v>
+        <v>34.4987858143828</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.59101319113002</v>
+        <v>41.90080261699651</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.791550361492937</v>
+        <v>6.017597635877244</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>15.79227015301539</v>
+        <v>24.21159165610154</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.49217837847595</v>
+        <v>31.73370499665653</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.66778236004019</v>
+        <v>15.71557328771507</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.59823378611087</v>
+        <v>25.9293390526905</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.72077220671081</v>
+        <v>34.68557754558574</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.010079591553059</v>
+        <v>-0.0004723855658568255</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>12.38119012398348</v>
+        <v>15.28262758529541</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.43378349294654</v>
+        <v>22.79372370960769</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.205986392282887</v>
+        <v>4.581035426381991</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.98748246317183</v>
+        <v>30.31618616976179</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.1579941661165</v>
+        <v>40.79146588898247</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.30435020304504</v>
+        <v>36.72341486547563</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.71336111060323</v>
+        <v>46.6676290864228</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.81792412842633</v>
+        <v>56.5257005787487</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2.63168629971043</v>
+        <v>12.54364478626803</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22.86782595271369</v>
+        <v>34.31104789443298</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>33.4586535008341</v>
+        <v>45.76482020129167</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.85559418253807</v>
+        <v>11.19188568043354</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.57143428878104</v>
+        <v>19.14557859794765</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.43903230124996</v>
+        <v>26.27031700796896</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.7309796495176704</v>
+        <v>4.2050350222205</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.02811359718384</v>
+        <v>22.05672852440463</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.02563863735651</v>
+        <v>26.3153098873828</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.697155066939742</v>
+        <v>9.1428256400027</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.63996575855933</v>
+        <v>34.0334852227806</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.32578539282501</v>
+        <v>37.93588923133467</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.09430872748168</v>
+        <v>26.57660862418452</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>23.77395778044006</v>
+        <v>30.16219469054169</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.43947511225775</v>
+        <v>32.19206414806154</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.914363203988493</v>
+        <v>11.9354178952184</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.29450721674629</v>
+        <v>19.25287543402833</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.87475751282658</v>
+        <v>28.24385073965857</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.12782286106309</v>
+        <v>19.54291372388827</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>23.95407625741161</v>
+        <v>32.64417965940273</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.68976333538854</v>
+        <v>39.21109393476888</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.09306591414503</v>
+        <v>6.906347597662212</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.41195045732356</v>
+        <v>23.75488164028226</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.95787612646225</v>
+        <v>30.21928168733637</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3.198402587044462</v>
+        <v>11.77903305837205</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.46555546278415</v>
+        <v>38.86829246545555</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>38.12914929248724</v>
+        <v>46.89577424331229</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.17236885612217</v>
+        <v>39.5502075355483</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>42.08483694190295</v>
+        <v>53.37732059389823</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.03984637958673</v>
+        <v>58.64245809482978</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5.054350511282826</v>
+        <v>17.59417530696651</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.17581827363473</v>
+        <v>41.23427651477263</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.07671521019975</v>
+        <v>47.42843832765325</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12.83584142139095</v>
+        <v>18.32286719816508</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.1703462271478</v>
+        <v>31.93405305871977</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.78587544514112</v>
+        <v>40.35635654375199</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-2.956718897600994</v>
+        <v>3.106196216883735</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>18.04947125013879</v>
+        <v>23.43162920376631</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.5916613364344</v>
+        <v>30.49211610171075</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4.087175777858866</v>
+        <v>9.58491694332106</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>32.73729189719166</v>
+        <v>40.43832970502878</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>43.34068336165921</v>
+        <v>50.52416155668192</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>38.68330539456003</v>
+        <v>47.81992669815344</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>50.08233512307119</v>
+        <v>59.14429029204808</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>57.96581694700036</v>
+        <v>67.88398670611312</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1.5737619370339</v>
+        <v>17.75620393038303</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.45880663363837</v>
+        <v>44.48090831928812</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>40.6623173962242</v>
+        <v>55.55250622562993</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.532539586218917</v>
+        <v>7.383055308505696</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>17.7902366366754</v>
+        <v>21.45162772950691</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.55998268754166</v>
+        <v>28.7249199363046</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.527451838473367</v>
+        <v>4.006482586492549</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.86613259955766</v>
+        <v>28.71462679152133</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.62324731867577</v>
+        <v>33.02705145828607</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.75015769272689</v>
+        <v>10.19298921596693</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.04556136403435</v>
+        <v>41.2132571588569</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.98218591325656</v>
+        <v>45.72958050873598</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.53763159068485</v>
+        <v>28.81903856218442</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.48629255425362</v>
+        <v>32.82203219161005</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.63719627941203</v>
+        <v>34.70215053785763</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-0.1997949086884754</v>
+        <v>7.028686463968667</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.06720048548888</v>
+        <v>19.01327327821713</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.61109317018709</v>
+        <v>26.30203117675185</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.40993337685842</v>
+        <v>17.67029966279016</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.09444497868282</v>
+        <v>38.33645991965074</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.24195145711396</v>
+        <v>41.36153951621714</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.732126130449706</v>
+        <v>3.942409310164859</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.10571489038334</v>
+        <v>32.00627841068939</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.11568165933182</v>
+        <v>35.85229364392383</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.27296465301753</v>
+        <v>14.42048796691313</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.27473940862695</v>
+        <v>51.00700068349502</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>52.79881188630642</v>
+        <v>55.71004868936483</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>40.02468372222108</v>
+        <v>47.2085387864634</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>53.86574087534464</v>
+        <v>59.91494348039676</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>57.86084039477663</v>
+        <v>63.40017003111564</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.4287291654496</v>
+        <v>19.75682534851427</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>41.3630273233657</v>
+        <v>52.1163498591399</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>48.53818181272807</v>
+        <v>55.6734964618234</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15.97610681599221</v>
+        <v>19.65291730017389</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.51167104419405</v>
+        <v>39.02272045764354</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>44.96140555541359</v>
+        <v>45.7317272073448</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-3.517035247039851</v>
+        <v>0.8974353015405647</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.23214107195415</v>
+        <v>29.62589528341873</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.63437260669384</v>
+        <v>35.16441109789355</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.74314359877947</v>
+        <v>13.31744572996447</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>46.54791541401209</v>
+        <v>50.9337277842253</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>57.37213143021764</v>
+        <v>58.69400845420472</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>48.6330231126857</v>
+        <v>53.51530765249125</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>60.04009629594427</v>
+        <v>66.19816174252499</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>68.54808474973626</v>
+        <v>70.89411608638643</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.371563509830658</v>
+        <v>19.5915073751592</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>45.28390537078473</v>
+        <v>54.85480619207294</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>56.09200343964749</v>
+        <v>61.50440562224179</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.478581437427265</v>
+        <v>4.709451016261308</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>8.919984021927245</v>
+        <v>7.8980517793213</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16.76174962570155</v>
+        <v>12.55381875441836</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-7.127414401666742</v>
+        <v>-1.873881922835313</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8.37196358787374</v>
+        <v>9.653701860967269</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.42004792781707</v>
+        <v>11.15599590500985</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-0.06297936753910793</v>
+        <v>1.192580483743978</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.69560882195632</v>
+        <v>17.97562622605179</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.92129065509733</v>
+        <v>20.14456165365581</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>17.96571560925035</v>
+        <v>16.83216780878972</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>19.26836007941977</v>
+        <v>20.68538567071113</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.03246537902545</v>
+        <v>22.0997622414885</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.458576172216076</v>
+        <v>7.171974419367407</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.38550692471662</v>
+        <v>10.33746155243487</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.38784829681306</v>
+        <v>17.635960375453</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>8.503747887110418</v>
+        <v>10.25507281466245</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17.43228114880072</v>
+        <v>21.66157380902395</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.14866942137618</v>
+        <v>29.03723389167495</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-9.819835877852228</v>
+        <v>-1.446685893115308</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>7.282776237626805</v>
+        <v>14.17891076005638</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.1902687501819</v>
+        <v>22.19963177256082</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-3.377760816881556</v>
+        <v>2.993745804929855</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.0299238001404</v>
+        <v>26.67416211060437</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.30919687858655</v>
+        <v>35.97077329837582</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.58407677423531</v>
+        <v>27.71247084652979</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.07806250323397</v>
+        <v>37.48510365559249</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.55177584071001</v>
+        <v>42.99534287099604</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.4770963116847886</v>
+        <v>5.879276214767735</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.53902898404774</v>
+        <v>27.14493050770356</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.2332957121081</v>
+        <v>35.69889740039604</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>11.49338411080571</v>
+        <v>12.70360898555118</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.36957050440169</v>
+        <v>24.85325713625934</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.84140175044251</v>
+        <v>33.51813265815299</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-9.891499799024281</v>
+        <v>-1.695269811147615</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.87558582885269</v>
+        <v>18.39119247836142</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.19097345452978</v>
+        <v>25.42264198469484</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1.940907127218906</v>
+        <v>6.953107701417146</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>31.34694751238722</v>
+        <v>35.19211387606602</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>42.24820280738441</v>
+        <v>44.7759907653299</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.55076601620693</v>
+        <v>41.54599627377939</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.54535361349593</v>
+        <v>52.84478335560108</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.53393247607216</v>
+        <v>57.35209225077408</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>5.793803223558249</v>
+        <v>15.65978028516925</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.18322228205336</v>
+        <v>40.94812097125872</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.15521132420667</v>
+        <v>50.20105170573647</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4.594578109094587</v>
+        <v>1.709903707211222</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.481345285741689</v>
+        <v>7.346478699419174</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.12741500272185</v>
+        <v>13.8219110938074</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-6.908986787873432</v>
+        <v>-4.913978072519964</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>8.424134399622439</v>
+        <v>9.270861866466978</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.10168723167551</v>
+        <v>12.72162647776891</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-0.5362317153828053</v>
+        <v>-3.271766472270318</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.96310456678451</v>
+        <v>18.40559212312067</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.29713548865195</v>
+        <v>21.66542379987742</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.67604132436345</v>
+        <v>12.7160065542149</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.24859211297967</v>
+        <v>15.83305416962745</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.51453024371175</v>
+        <v>18.22055786835886</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-3.055833634824141</v>
+        <v>1.504360761547947</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>3.910264092465495</v>
+        <v>7.104306490254842</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.88138776422131</v>
+        <v>14.7482204762757</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.867376967751084</v>
+        <v>2.582011385184089</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.17674649890185</v>
+        <v>11.98266292414275</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.79676593605963</v>
+        <v>19.18786162256012</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-11.38039465913415</v>
+        <v>-8.214407553793485</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7.515709985238096</v>
+        <v>3.285965511767593</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.93502841724221</v>
+        <v>10.26880085545415</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-6.433160591199653</v>
+        <v>-7.434525302435866</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.70437005267757</v>
+        <v>14.78397799592388</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.18257003473023</v>
+        <v>23.47448270673188</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.90180084191586</v>
+        <v>16.7932951806268</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.85298429667341</v>
+        <v>30.0056361103643</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.6742587116948</v>
+        <v>36.31767267453563</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-3.176260070359427</v>
+        <v>-2.175819424681283</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.99918311148338</v>
+        <v>17.86107576390778</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.38271152457554</v>
+        <v>24.07675130187724</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.2719313565346</v>
+        <v>3.50664541631857</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.57373357149528</v>
+        <v>13.87909289598169</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.49555885567325</v>
+        <v>23.86246751257076</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-12.90205369332956</v>
+        <v>-9.690032582489845</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.138256684667468</v>
+        <v>6.04677733913735</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.98244924785692</v>
+        <v>14.71797687075976</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-4.602670501725833</v>
+        <v>-6.142084492683729</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>24.44905050344171</v>
+        <v>20.52286107497683</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.27640460508124</v>
+        <v>32.33950717842661</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.84839404149744</v>
+        <v>28.22682211124768</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.58290659557088</v>
+        <v>39.59928884624864</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.75097781898548</v>
+        <v>49.78955435334395</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-5.716792079581816</v>
+        <v>0.2706816980188549</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.06732105206449</v>
+        <v>23.96580781520424</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.19355004999036</v>
+        <v>35.88623847761318</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.82766023388028</v>
+        <v>11.08406188566061</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.46649364900035</v>
+        <v>27.75149252890979</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.73289132561036</v>
+        <v>36.48621988296362</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.889305730052192</v>
+        <v>6.278427418483934</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>35.14831665826093</v>
+        <v>37.30751323634869</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.40745365620298</v>
+        <v>42.05589829365981</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.15080314018229</v>
+        <v>15.82535312609635</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>52.28645927932227</v>
+        <v>52.60519720456781</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>59.49008113680559</v>
+        <v>58.30485998865716</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.32857960445315</v>
+        <v>44.65423804544939</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.69243583195949</v>
+        <v>51.12040725057021</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>53.65487865791231</v>
+        <v>52.91244823481981</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.5697595756268</v>
+        <v>20.42625899580259</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.42013834567196</v>
+        <v>38.35510963826334</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>49.95269846799186</v>
+        <v>50.78420881133385</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.955663013027396</v>
+        <v>10.29293341005687</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.32809381117099</v>
+        <v>29.06348538467839</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.61539600629191</v>
+        <v>33.85010457574298</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-7.844641799481168</v>
+        <v>-3.901762220394129</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.27759533755394</v>
+        <v>22.8047725580549</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.3818203261069</v>
+        <v>27.78293382212504</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.816419929537509</v>
+        <v>4.063800867593862</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.7722291767527</v>
+        <v>39.45909239379608</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>47.20406459067826</v>
+        <v>45.86421125899183</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.23741458943723</v>
+        <v>38.39019648659636</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.86033143718991</v>
+        <v>48.82494575693271</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>53.24325296104331</v>
+        <v>52.74793433480257</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>5.660226091628039</v>
+        <v>10.28907853275648</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>37.61233844804659</v>
+        <v>40.32769670589911</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.20735754438886</v>
+        <v>46.76982523105784</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>9.282406031240107</v>
+        <v>11.54162880195896</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.24370255770986</v>
+        <v>30.34238089064107</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.86810250833367</v>
+        <v>39.14474046690873</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-9.542106118084092</v>
+        <v>-3.015367297694876</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>22.61125024701754</v>
+        <v>26.48811330118543</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.00412878970992</v>
+        <v>33.54588334973072</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>5.469559090757101</v>
+        <v>7.472945325112505</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>43.90374784964445</v>
+        <v>45.93897630856266</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>55.6541103590458</v>
+        <v>55.78649185459223</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.89210368959888</v>
+        <v>48.0788076282239</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>57.21639378316043</v>
+        <v>60.54511092017529</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>66.42516063846163</v>
+        <v>65.35915333272641</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.659481658881155</v>
+        <v>14.05931895781361</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.16740961891583</v>
+        <v>49.01873280319533</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>58.18646722197567</v>
+        <v>59.04776596392738</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2.429861792417969</v>
+        <v>4.543476951212032</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.463307742926932</v>
+        <v>9.887331123767186</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.25747917054278</v>
+        <v>13.36019076849808</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-10.54193665088486</v>
+        <v>-3.158663108998628</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.9780222822677969</v>
+        <v>6.474471583546025</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>4.489370042880249</v>
+        <v>7.778212893036063</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-4.516286506538699</v>
+        <v>-0.6145930317758506</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>14.91483781915895</v>
+        <v>15.17809260846484</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.54281241817641</v>
+        <v>17.07377026193026</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.0968759302778</v>
+        <v>13.55688458265337</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.57361333539077</v>
+        <v>17.22437543539435</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.94888087783198</v>
+        <v>19.44571894176343</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-5.441356956451107</v>
+        <v>-0.2714498160634129</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.280038555835382</v>
+        <v>7.750411474812308</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.03022436603783</v>
+        <v>11.86034560459359</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>3.762868152723597</v>
+        <v>4.804897029549295</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.00475381864875</v>
+        <v>14.13166543229636</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>18.40552406032289</v>
+        <v>22.18538861637425</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-11.52003180646371</v>
+        <v>-4.154890138892764</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>0.4844325497719302</v>
+        <v>6.304388262594836</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>8.644418242238984</v>
+        <v>15.13149107317868</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-7.980583160460164</v>
+        <v>-2.92809346932383</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.87414621935578</v>
+        <v>15.75365566127284</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.00443681084656</v>
+        <v>25.87844449599591</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.700617674374001</v>
+        <v>17.63795785959903</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.31727502294103</v>
+        <v>26.21261696350059</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.12859032596182</v>
+        <v>32.68307187037119</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-10.86566696978206</v>
+        <v>-3.370944123670512</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4.685981030386393</v>
+        <v>14.47883485556747</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>13.58638159953491</v>
+        <v>23.8435065615753</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.305454679000589</v>
+        <v>7.880437463254761</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>15.58478791116306</v>
+        <v>17.98044064221854</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.27863118579803</v>
+        <v>27.05884049704363</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-12.82750556870135</v>
+        <v>-2.911639148165886</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3.94600669193339</v>
+        <v>11.03746964527943</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.12858205343935</v>
+        <v>18.69104366063262</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-4.635736970315905</v>
+        <v>2.263607400371924</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.25727722652427</v>
+        <v>24.55785556493613</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.52781411770511</v>
+        <v>34.62614822096405</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.53843071370985</v>
+        <v>30.44020210857213</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.26572655618894</v>
+        <v>39.71496967548728</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.89984577186601</v>
+        <v>48.41356061336099</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-5.981256007915953</v>
+        <v>6.305518940678498</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.55051072047814</v>
+        <v>27.64168466196643</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.88987498268256</v>
+        <v>37.55363219454069</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2.657674875126337</v>
+        <v>-0.916560959525377</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.115149720449014</v>
+        <v>7.688215393254898</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.90318110623901</v>
+        <v>12.61745820791191</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-10.72304524952508</v>
+        <v>-7.144540549586448</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.214780272469592</v>
+        <v>7.310433350396325</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>7.262368350938774</v>
+        <v>9.62154762667954</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-4.02927704090648</v>
+        <v>-3.811104356211356</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.72547471320557</v>
+        <v>18.68742589503115</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.9480247328487</v>
+        <v>21.36356514546965</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.06730431626546</v>
+        <v>12.65855395669825</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>12.77261240489693</v>
+        <v>15.2279889605203</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.9789027371648</v>
+        <v>16.46699880789377</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-10.83625788030148</v>
+        <v>-5.255940435596706</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>1.527806770746674</v>
+        <v>3.951848740187121</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.370912549717857</v>
+        <v>7.917302509648744</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>9.862977019187426</v>
+        <v>14.46088120561181</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.77961293069718</v>
+        <v>29.51376100749805</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.70366564159379</v>
+        <v>32.84726655876826</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1.301690183539535</v>
+        <v>2.251334442594626</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>18.41077460814022</v>
+        <v>21.26274783224463</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.62226455267825</v>
+        <v>26.08519267396364</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>4.143289333486911</v>
+        <v>8.935548143371742</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.30646871612684</v>
+        <v>37.58568104535257</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.71489172715088</v>
+        <v>43.43729096910945</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.46504871773271</v>
+        <v>36.21524201378585</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.72163552822002</v>
+        <v>46.92016723411618</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.91248898286578</v>
+        <v>49.82595813004007</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>3.329106022339665</v>
+        <v>11.4808362894979</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.20830110057076</v>
+        <v>36.57260529385406</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>32.20477122278905</v>
+        <v>41.11047924380445</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>11.10208112523015</v>
+        <v>17.52146088747051</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.10157968577349</v>
+        <v>33.46111326708969</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.19632753045315</v>
+        <v>40.69717682800209</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-4.995418215920759</v>
+        <v>-0.6983860658000403</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.56731269911079</v>
+        <v>22.98074945111822</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.97718907088996</v>
+        <v>28.66099910078514</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>6.127247063298198</v>
+        <v>10.20021179040574</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.34250684738636</v>
+        <v>43.08051798199503</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.86710872658165</v>
+        <v>51.32891492163812</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.7133024942929</v>
+        <v>46.58302280617336</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>50.89147521202273</v>
+        <v>57.74263212090817</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>58.89919641671818</v>
+        <v>63.01660593859935</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>4.095478796609107</v>
+        <v>13.8950905007054</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.59695627240244</v>
+        <v>44.70265911397279</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>45.08105728285357</v>
+        <v>50.98266382130383</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>6.960879480141673</v>
+        <v>8.690439281691582</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.95687690625209</v>
+        <v>13.47750887881499</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.75397633751267</v>
+        <v>16.97509835649879</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.477578298568083</v>
+        <v>1.037676911730369</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.67191275898696</v>
+        <v>11.4920643036223</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>15.8651061390456</v>
+        <v>12.72833869376166</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>4.48511782008812</v>
+        <v>4.917321330745086</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.70462813236445</v>
+        <v>21.89318142223548</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.94764206622023</v>
+        <v>23.55747118764003</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.00173749414653</v>
+        <v>17.71524779542452</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.22184507408995</v>
+        <v>21.19239437865574</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.42014611107543</v>
+        <v>22.96147889247295</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.63336699700693</v>
+        <v>8.504723153656677</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.15287318314765</v>
+        <v>12.64278023986882</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.99368168469586</v>
+        <v>17.32850480975836</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.5963647330501223</v>
+        <v>4.365820148475358</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.89263562186138</v>
+        <v>10.77010431941899</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>13.92211709954684</v>
+        <v>16.77647215514533</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-12.11726596611713</v>
+        <v>-5.491368390393806</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-0.4340327483760698</v>
+        <v>1.826065144335423</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>7.146169864677211</v>
+        <v>9.701237199725833</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-11.40760016666367</v>
+        <v>-4.382096028306115</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>9.224380466896356</v>
+        <v>11.85264345699334</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.75368004755586</v>
+        <v>20.89020310896742</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>5.173965273693596</v>
+        <v>10.95291802115708</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.55171413251488</v>
+        <v>18.75036904307764</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.0640055514296</v>
+        <v>24.65196573952528</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-9.81396455502918</v>
+        <v>-3.286542098010447</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>2.498200795193028</v>
+        <v>9.146820678665769</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>11.09648209927812</v>
+        <v>16.42365449559933</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.744384713056696</v>
+        <v>13.41671114672059</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.10386420677433</v>
+        <v>22.25487981226958</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.37937916706016</v>
+        <v>29.606124406699</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-10.35589165191583</v>
+        <v>-3.563965342546837</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>7.426987753411047</v>
+        <v>10.58679087961671</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.92517758790464</v>
+        <v>17.48840229249978</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-2.075012493783611</v>
+        <v>5.026919312940578</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>23.70736943832249</v>
+        <v>27.87561542128088</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.32143106979017</v>
+        <v>36.99896112567152</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.56660244265938</v>
+        <v>29.51426671631227</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>31.67917257136555</v>
+        <v>37.66260461786629</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>40.62927477068578</v>
+        <v>44.68390989436999</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-1.488966830051219</v>
+        <v>8.313254813037736</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.68951592361656</v>
+        <v>26.74627554977816</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.98620274342019</v>
+        <v>34.61594199331866</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3.284489649655151</v>
+        <v>1.800231413773389</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-5.698146481714363</v>
+        <v>2.309406904278589</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.46821892978905</v>
+        <v>4.169577178224838</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-9.793214395172672</v>
+        <v>-2.73844059960501</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-7.417099869717986</v>
+        <v>0.1792235398286088</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-6.700038401476371</v>
+        <v>0.3746373350615499</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-10.09092476897802</v>
+        <v>-2.840437780008163</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>0.985206456546396</v>
+        <v>6.445287889518163</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1.928617541296563</v>
+        <v>6.85023517185398</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-3.008797836075719</v>
+        <v>1.883325789231026</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-7.677238275365394</v>
+        <v>2.505050748348712</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-6.294485329223876</v>
+        <v>4.86749719058129</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-8.615298368380159</v>
+        <v>-1.209111937091357</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-13.14606823533122</v>
+        <v>-2.188842730765668</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-10.34119125990778</v>
+        <v>-0.2438286759131465</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.6120040722341296</v>
+        <v>0.6528983644257131</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>0.50052307574349</v>
+        <v>3.09529741177078</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.369357300205265</v>
+        <v>6.367446301838662</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-11.78744397989497</v>
+        <v>-5.313309258164455</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-7.306358124479925</v>
+        <v>-3.895863432950165</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1.86673867246455</v>
+        <v>1.03769080484404</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-13.9256140070496</v>
+        <v>-7.549742292847164</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-0.04746321734232684</v>
+        <v>2.004502211095513</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.440882538545124</v>
+        <v>7.953049949471453</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-3.654809512527664</v>
+        <v>-0.517652386120254</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-1.487260324934778</v>
+        <v>5.396644278270166</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.404996907818869</v>
+        <v>9.433286969625332</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-13.21320033287266</v>
+        <v>-7.453691187147943</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-9.222506967266352</v>
+        <v>-1.335995107641107</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-3.956998793832459</v>
+        <v>2.626629316899727</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>6.196100978481829</v>
+        <v>12.54750281689374</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>12.84695208557954</v>
+        <v>17.51879870304481</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.24299538954956</v>
+        <v>22.5920727738354</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-10.37649516831875</v>
+        <v>-2.965529070064843</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>0.8140294026925536</v>
+        <v>5.470618830864652</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.514006595005831</v>
+        <v>10.00944974522383</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-4.479620239115079</v>
+        <v>3.089110046871095</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>15.10970435156776</v>
+        <v>19.25382685343373</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.9628763086229</v>
+        <v>25.72630087433037</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.02328051486871</v>
+        <v>20.57111095565505</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.35464136881087</v>
+        <v>26.14188951316666</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.75039570114531</v>
+        <v>32.01369587200126</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-4.101502002553979</v>
+        <v>5.313107442166835</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.15194201443008</v>
+        <v>17.31918812646059</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.53104157242335</v>
+        <v>22.43827081687072</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>8.285082575940724</v>
+        <v>15.45223369325182</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.59183458311232</v>
+        <v>21.26292902627182</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.44035730736553</v>
+        <v>28.03934204844929</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-6.421433541599499</v>
+        <v>3.953419233452625</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.861208974319232</v>
+        <v>18.89259273477016</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.76299925046457</v>
+        <v>22.25346439016542</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-0.4369774770154686</v>
+        <v>10.8710361269415</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.12189253383233</v>
+        <v>32.86107505817209</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.74068277833089</v>
+        <v>36.1061255808316</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.19117154731283</v>
+        <v>30.08781270953865</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.59884058044075</v>
+        <v>34.08596559810331</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.73302646897766</v>
+        <v>36.34525315512833</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>5.800281538428272</v>
+        <v>19.94819285813776</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.14310487977874</v>
+        <v>26.26508909323369</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.83071269548277</v>
+        <v>35.19424176710733</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>7.052978559658057</v>
+        <v>11.47264517099276</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.14336387144547</v>
+        <v>20.53383648363384</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.81995860402443</v>
+        <v>27.75155227872927</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-13.18717046620271</v>
+        <v>-5.288094869314854</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>1.729664020430369</v>
+        <v>5.190277588767145</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.294333094305081</v>
+        <v>11.9091302760794</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-9.36300128898003</v>
+        <v>-2.63310095524325</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>14.11805454518062</v>
+        <v>18.57242108520948</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.71920519985782</v>
+        <v>27.15283501158153</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.20416766258722</v>
+        <v>19.71919770438441</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.40727882558939</v>
+        <v>30.94142020875267</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.55171452276227</v>
+        <v>36.52603313904194</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-4.223706311946608</v>
+        <v>2.851767359864755</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>11.76818834732683</v>
+        <v>21.58638366581643</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.0595957311707</v>
+        <v>27.77239176819979</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>9.513645047478896</v>
+        <v>16.08303509122479</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>19.18772361975688</v>
+        <v>26.98849766502253</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.63256909182853</v>
+        <v>34.91626174712751</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-11.15835339301649</v>
+        <v>-3.306449638043159</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.592226640844571</v>
+        <v>12.88162355365978</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.79616109289055</v>
+        <v>18.69270801392469</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-3.730445094010428</v>
+        <v>3.496056128064868</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.30381126952913</v>
+        <v>30.56325163601458</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>32.64845491892922</v>
+        <v>39.62380358838148</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>30.81464154504254</v>
+        <v>38.07017817825174</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>39.28065246738948</v>
+        <v>47.70655517006969</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>46.96582981605334</v>
+        <v>55.20740478927469</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-2.080623373520475</v>
+        <v>11.93861834753546</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.21487526878771</v>
+        <v>34.7659162962965</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.21831194210667</v>
+        <v>44.50418580744532</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.69607010360617</v>
+        <v>14.57666633669321</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.93208337218067</v>
+        <v>28.26685488001162</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.47056271160704</v>
+        <v>33.53720672008106</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.30341081430775</v>
+        <v>6.061242956904302</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.60155801522279</v>
+        <v>27.02771367327229</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.86437491185166</v>
+        <v>30.03226109411235</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.39497468385674</v>
+        <v>14.78974801386119</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>44.00288604120137</v>
+        <v>42.67248235903563</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>48.21711837424184</v>
+        <v>46.22412501534384</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.74428927735577</v>
+        <v>39.77532509030171</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>43.20039729584683</v>
+        <v>46.13478364828633</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>47.67263212302238</v>
+        <v>48.07845498520345</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.33066096592854</v>
+        <v>15.64987333466138</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.10151324399128</v>
+        <v>33.83914957856992</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>41.96399874124445</v>
+        <v>40.648783709282</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.675312718603173</v>
+        <v>10.6173923419179</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.46860669791697</v>
+        <v>25.11509134896457</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.7647732254991</v>
+        <v>30.76327341155049</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-1.58914786971765</v>
+        <v>0.331318944671473</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.53070457183344</v>
+        <v>17.6494891616331</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.55816136975483</v>
+        <v>24.24652592599355</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>3.376223688959384</v>
+        <v>4.852729051004822</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.68604068835656</v>
+        <v>31.23847640972697</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.59941447120917</v>
+        <v>39.03374914901783</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.15175709944151</v>
+        <v>33.08322795774978</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.75069500706699</v>
+        <v>42.96243824725526</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.13759355455084</v>
+        <v>46.98900187470188</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1.802577751673268</v>
+        <v>6.156304421718758</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.6526630597197</v>
+        <v>30.15278472894375</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.418102500301</v>
+        <v>38.72717919158161</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>8.146671176610646</v>
+        <v>11.32989419210381</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.75360646672041</v>
+        <v>26.81013061382302</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.24299781759114</v>
+        <v>35.45973659206651</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-6.864442063209546</v>
+        <v>-1.448119526615478</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>17.75679308202944</v>
+        <v>19.95608291982442</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.85454563180651</v>
+        <v>27.70294404724485</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>3.100410806643402</v>
+        <v>6.221375242883347</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.15311849219206</v>
+        <v>36.42972247532884</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.16340777985747</v>
+        <v>46.55918482630076</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.02938943586081</v>
+        <v>41.36139434655334</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.54395111741534</v>
+        <v>52.10913350194789</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>58.007130659161</v>
+        <v>60.68603517421066</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-0.01128405610121153</v>
+        <v>9.909948053950016</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.58742691988301</v>
+        <v>38.59102692966809</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>44.78030435380236</v>
+        <v>48.80432524751345</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>14.93659146708173</v>
+        <v>11.03605241497135</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.887814540746</v>
+        <v>22.59792827713215</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.95040349746958</v>
+        <v>31.18259998041869</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.469930061582946</v>
+        <v>3.85281939255017</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.18221339347252</v>
+        <v>27.79876495677777</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.24378888101362</v>
+        <v>32.75908166442945</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.53873181288461</v>
+        <v>10.6710891730928</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.64510746845142</v>
+        <v>41.73132718245326</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>47.29183097269523</v>
+        <v>46.65506206095701</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.84438851483831</v>
+        <v>34.38918004065658</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.12892725045</v>
+        <v>39.1058787241158</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.25053444723088</v>
+        <v>41.23205470120531</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>12.80745376707481</v>
+        <v>15.28926362946653</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.28756095708647</v>
+        <v>28.08897642269642</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.66098515508611</v>
+        <v>39.83194561089611</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.25473868150363</v>
+        <v>11.89298365200174</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>24.29973240832364</v>
+        <v>26.95502221795431</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.92485353672522</v>
+        <v>33.73538089275977</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-5.405769519576446</v>
+        <v>-2.703136815647511</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>17.24768233193055</v>
+        <v>16.71969247820976</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.58793992865055</v>
+        <v>23.13907727042245</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.5800304404164498</v>
+        <v>1.380792962113407</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.88270131165905</v>
+        <v>31.63950933693176</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.27682357266681</v>
+        <v>39.93321210021924</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.93368704979521</v>
+        <v>32.50582715941175</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>42.91850122854309</v>
+        <v>45.57128033720393</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.02376172185223</v>
+        <v>50.74060985392252</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.248651894876061</v>
+        <v>7.309602865621644</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.8016307216208</v>
+        <v>33.79060640402693</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.95546894271227</v>
+        <v>40.85520108067588</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.08563332109015</v>
+        <v>12.26582958896486</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.75704688890497</v>
+        <v>28.44569488646955</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.01470713422967</v>
+        <v>37.06656489855378</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-5.714517577580957</v>
+        <v>-3.140865198154838</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>18.58487700391711</v>
+        <v>20.55012302034778</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.60726407434849</v>
+        <v>27.61284285739517</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.022371230320664</v>
+        <v>3.072904244603819</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>34.80559183937555</v>
+        <v>37.92838394313294</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.8801097488826</v>
+        <v>48.27611365548898</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.53408047321606</v>
+        <v>44.75828079110119</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.1300340688467</v>
+        <v>56.58785473282896</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.0764683743704</v>
+        <v>64.73185212652791</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1.088538571146535</v>
+        <v>10.80452366432835</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>32.7151835609617</v>
+        <v>41.62780921372873</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>44.76949065990909</v>
+        <v>53.29593623810713</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>19.95145150459076</v>
+        <v>16.16299973140558</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.21237024153312</v>
+        <v>22.12254416037069</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.95683210560901</v>
+        <v>29.57512409058038</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.26692964410944</v>
+        <v>10.18887556382737</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.74600912167536</v>
+        <v>26.76038071673585</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.77396972285324</v>
+        <v>31.48698272932488</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.3972983288624</v>
+        <v>14.50376367358004</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.34275672815201</v>
+        <v>37.14593978871817</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>46.12168007737755</v>
+        <v>41.54021630297188</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.18449677487268</v>
+        <v>31.75505812176093</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.66028915427725</v>
+        <v>35.22678426204286</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.2120321004356</v>
+        <v>37.38781627199505</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.28180371828156</v>
+        <v>19.26923523786042</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.98931811566617</v>
+        <v>25.1964121219521</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.15369766661551</v>
+        <v>36.25083964473701</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.87487777573845</v>
+        <v>17.44714031686019</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.05349820080664</v>
+        <v>27.53384459778801</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.27919881113928</v>
+        <v>35.49304686959585</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.80741612156696</v>
+        <v>9.477930069146353</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.09425645314953</v>
+        <v>22.69728514177461</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.3005391763587</v>
+        <v>30.65759020253837</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.09104692738096</v>
+        <v>9.055554470135819</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.11922419687208</v>
+        <v>32.00864997867233</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>44.45422351535272</v>
+        <v>41.49385283787005</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.76433344807801</v>
+        <v>33.4509160906746</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>45.35965442648712</v>
+        <v>44.99478730482111</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.70349202844692</v>
+        <v>50.59840397826022</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.30316133273649</v>
+        <v>13.94979443006159</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.88870600388185</v>
+        <v>32.80903635011011</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.32049771290542</v>
+        <v>41.2967301264287</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.78505452149032</v>
+        <v>17.16908932771263</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.69273472407466</v>
+        <v>28.64569568440661</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.37084779838724</v>
+        <v>36.83101444719141</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>9.142599507392681</v>
+        <v>7.323607727715508</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.12672802099678</v>
+        <v>25.0834614633442</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.72652222633002</v>
+        <v>32.1932478050077</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.62638450514883</v>
+        <v>9.617404647754906</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.25918423249809</v>
+        <v>37.3862293216344</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>48.08359067562488</v>
+        <v>47.32881249462541</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>43.44290358210383</v>
+        <v>45.04031772820039</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.69232189650399</v>
+        <v>54.07442929185629</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>61.21411397995107</v>
+        <v>62.21442524281431</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>9.721821000523299</v>
+        <v>16.91874594459143</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.14533517846866</v>
+        <v>39.4334496218042</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>43.92612625018317</v>
+        <v>51.6317036503729</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>11.01314446879443</v>
+        <v>8.503335896755157</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.70228218966091</v>
+        <v>24.13679658437962</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.0760696925674</v>
+        <v>30.48817702390327</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-3.154302205200875</v>
+        <v>-0.8269881524202383</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.31098245903122</v>
+        <v>24.00687272853143</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.85560061367163</v>
+        <v>26.67690357431007</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.1343611906074</v>
+        <v>7.911694341084459</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>37.95115758782119</v>
+        <v>40.93535496112962</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.82992584913406</v>
+        <v>44.39109909029447</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.7596783336441</v>
+        <v>37.36829905300806</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>37.43069431012842</v>
+        <v>43.01689905958071</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>40.31338314134199</v>
+        <v>44.59258458747412</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>5.2578138903608</v>
+        <v>8.179072087025666</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.53537106928709</v>
+        <v>29.41238896438451</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.95874824665498</v>
+        <v>36.7184553632365</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>6.258918861950767</v>
+        <v>8.459746772443696</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.00525611686007</v>
+        <v>25.04148538884419</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.28955345305221</v>
+        <v>29.65683470580144</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-11.87544695217509</v>
+        <v>-4.457459527428171</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.67369846482251</v>
+        <v>16.17129067303383</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>18.0680514757359</v>
+        <v>20.41682604415139</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-3.85133078099932</v>
+        <v>-0.8369137129576956</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.12618049945463</v>
+        <v>30.19758398044551</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.98954377834401</v>
+        <v>36.38610360137183</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.00881223812385</v>
+        <v>32.00732715373641</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.27259258058984</v>
+        <v>41.6782398270552</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.91943151787614</v>
+        <v>45.13526235884672</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-4.245080123587379</v>
+        <v>0.7974931199993307</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.93531949041265</v>
+        <v>29.61269158691158</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.85988305179495</v>
+        <v>35.95075005006532</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>4.418054380434675</v>
+        <v>8.322085312902399</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>23.20892259120539</v>
+        <v>25.4982201872382</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.20611145246738</v>
+        <v>33.54080548580278</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-14.84611666939681</v>
+        <v>-5.493591067177018</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>12.18129300246328</v>
+        <v>18.78023517796179</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.30992433279537</v>
+        <v>23.97160795890939</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-3.53680724816389</v>
+        <v>0.7496036513932296</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.36222342327796</v>
+        <v>35.3218584969655</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.90766198012867</v>
+        <v>44.11343461211866</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.54080951474142</v>
+        <v>42.20429459006793</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>48.02322505429925</v>
+        <v>53.56223301992227</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>56.41315156829474</v>
+        <v>59.84328979705123</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-6.287909070867834</v>
+        <v>3.73725771473541</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>31.09662864265564</v>
+        <v>37.03003670399325</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.36609962729144</v>
+        <v>46.58968354614269</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>5.472327103751026</v>
+        <v>7.212604413440022</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>9.286497729636103</v>
+        <v>11.3594627479554</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>14.30095262528435</v>
+        <v>16.4302235989734</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-8.132128008412508</v>
+        <v>-0.8384620898799788</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4.870886422257754</v>
+        <v>10.47536663175664</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>7.86722938212145</v>
+        <v>13.00156670553908</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-0.9618679698431523</v>
+        <v>3.491896023531375</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.67853481122807</v>
+        <v>20.14453229217397</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.422873636216</v>
+        <v>22.97805781506122</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>12.24734314371685</v>
+        <v>15.8479775781711</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.55647904868579</v>
+        <v>18.40397514059762</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.61227265700205</v>
+        <v>21.05452808756501</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-1.97197915265543</v>
+        <v>5.801673162061221</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.421687576083555</v>
+        <v>9.696002818792405</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.53259772570676</v>
+        <v>16.44183413205587</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.301111579855661</v>
+        <v>8.092460436383332</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.02859861380843</v>
+        <v>18.91266369300094</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.79191631391221</v>
+        <v>25.70552707444117</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-8.948653319015641</v>
+        <v>-3.23743213086296</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>4.893838987281526</v>
+        <v>10.01027757391188</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>11.5761414804516</v>
+        <v>16.92813842059228</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-3.092946506638065</v>
+        <v>-0.5538309507323689</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>18.62452909180103</v>
+        <v>20.91688141776127</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.18331552739195</v>
+        <v>29.60108721823386</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.19186328761916</v>
+        <v>20.85843601325399</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.05034157004569</v>
+        <v>31.74812909173432</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.03864827998353</v>
+        <v>37.06926070998631</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-4.704276256868767</v>
+        <v>0.1415548188076841</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>10.33721787360489</v>
+        <v>20.65158801799998</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.87885976160421</v>
+        <v>28.05516125567554</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>9.380817418249038</v>
+        <v>11.60591569350443</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.83267726243484</v>
+        <v>23.23277259523026</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.97783249771656</v>
+        <v>31.03320829809588</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-9.541804037486393</v>
+        <v>-1.937356058367769</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.579596117084108</v>
+        <v>14.99100547141046</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.45279472766745</v>
+        <v>21.4546020290378</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-0.8201999030310256</v>
+        <v>2.998990659426433</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.70130193705061</v>
+        <v>28.54343307927727</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>33.58753195310707</v>
+        <v>37.97678235349777</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.11690827967377</v>
+        <v>33.77800511691954</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.23398105962893</v>
+        <v>44.09733119014829</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>41.07478977338825</v>
+        <v>49.03943832558974</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-5.486019185364904</v>
+        <v>8.470331052092728</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>18.51405235678225</v>
+        <v>31.35408130514867</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.54911439499241</v>
+        <v>41.11240715208565</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>8.194880465679727</v>
+        <v>11.04216506270633</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>11.57357498680032</v>
+        <v>15.73654067943975</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.60632057346385</v>
+        <v>22.88856701035604</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>2.145862181873588</v>
+        <v>3.377247715888117</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>15.46227231193865</v>
+        <v>17.73147039830537</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.84031985000253</v>
+        <v>22.22955361999393</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>4.851196377058332</v>
+        <v>7.116536411520515</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.64379788502636</v>
+        <v>27.48200640544649</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>30.74895624443561</v>
+        <v>31.69450042550577</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>18.23951971462385</v>
+        <v>24.38781379662147</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.09635018246351</v>
+        <v>27.91962111850609</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.228312463401</v>
+        <v>30.42307602785598</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>9.228317864406158</v>
+        <v>13.07821250892916</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.58927782129938</v>
+        <v>18.16308437297649</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.22538710895205</v>
+        <v>28.81815194629679</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7.786709750680472</v>
+        <v>10.12166356906238</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>14.79216416863595</v>
+        <v>19.369017948107</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.72597079178531</v>
+        <v>28.63596796783855</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-3.679258334908803</v>
+        <v>0.8016749648991066</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>11.12050229119026</v>
+        <v>12.3538235157117</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.1463842699008</v>
+        <v>21.80453238077254</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.856875100606708</v>
+        <v>-0.09978141183038147</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>18.71575319365544</v>
+        <v>21.09217309897641</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.78895803212572</v>
+        <v>32.03834694890178</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>15.20940377903639</v>
+        <v>23.46426234306797</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.89477967757021</v>
+        <v>34.99724685666344</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>35.19863452571258</v>
+        <v>41.74258351272393</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1.669230180594227</v>
+        <v>4.629273573915889</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>14.05673950540749</v>
+        <v>22.56169901816953</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.61693438593229</v>
+        <v>32.35550828226518</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.792417116577588</v>
+        <v>10.91322138057219</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.58002631680868</v>
+        <v>21.62478592243507</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.62159271290786</v>
+        <v>30.57570981443499</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-5.408968126406969</v>
+        <v>-0.6930781237725405</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>11.14880480804661</v>
+        <v>15.6410341975783</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.17296204718018</v>
+        <v>23.56717053864628</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-2.322310455767878</v>
+        <v>1.352830603994796</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>21.91359647056009</v>
+        <v>27.56734377131648</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.11627848765911</v>
+        <v>38.28662865087073</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.83929517462534</v>
+        <v>36.05638387768292</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.20395488986181</v>
+        <v>44.87575032320709</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.24708659338272</v>
+        <v>53.47907026979109</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-4.267205528084127</v>
+        <v>8.971634361332837</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>17.28372545101417</v>
+        <v>30.33985666089704</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.78695009511089</v>
+        <v>43.28689111055179</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.93553710744234</v>
+        <v>17.04917071828893</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.38012073461249</v>
+        <v>26.12600414084577</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.08397479522876</v>
+        <v>33.49285398714233</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.7482094340508</v>
+        <v>8.157305393942538</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>32.24846379997794</v>
+        <v>31.64367865535458</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>38.22041201360613</v>
+        <v>35.66110248941595</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.15595997736506</v>
+        <v>17.69820816768294</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>44.39920971377855</v>
+        <v>45.85002234478436</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>50.81044685657864</v>
+        <v>50.17864969780275</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.17831643512</v>
+        <v>38.6759536615745</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.78711968247807</v>
+        <v>43.81069131365464</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.93311566187607</v>
+        <v>45.53528260282204</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.46725784194737</v>
+        <v>24.13915906707276</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.94993854322495</v>
+        <v>34.31637606260638</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>43.73442605859773</v>
+        <v>46.62639021620782</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.28076249769138</v>
+        <v>18.44897259620679</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.57737670358221</v>
+        <v>29.87971674089763</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.759348313506</v>
+        <v>34.96888111356551</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>4.950671505678272</v>
+        <v>3.400238223852206</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.09723207890134</v>
+        <v>21.74011180380367</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.40079282522684</v>
+        <v>26.96877464848536</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>7.536900089792716</v>
+        <v>9.146682416925975</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.73942536550337</v>
+        <v>35.59108323829125</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.81167014374861</v>
+        <v>42.09747887524905</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.69985110709094</v>
+        <v>37.38302389731017</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>39.8505490777112</v>
+        <v>45.09616794423629</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>47.02066305010035</v>
+        <v>48.11862622096312</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>8.915641073740723</v>
+        <v>15.61343014634391</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>27.19884336335099</v>
+        <v>36.17264947697485</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>39.07304195178423</v>
+        <v>43.6709362134071</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>15.41555133267071</v>
+        <v>18.12346237153342</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>27.68039153522164</v>
+        <v>30.81635506484504</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.88437153266482</v>
+        <v>37.38642077839663</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>0.5503367949258111</v>
+        <v>1.699621829786555</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>21.98242303311756</v>
+        <v>24.33097801861677</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.00821466033927</v>
+        <v>29.43408044262304</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.467681690622022</v>
+        <v>10.95492031113118</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.57280912257419</v>
+        <v>42.03850225888901</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>46.61469722349451</v>
+        <v>49.58709211932174</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>41.07703904444092</v>
+        <v>47.63484553719078</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>49.85757314173635</v>
+        <v>56.67292226375902</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>57.73746109960431</v>
+        <v>60.5073317661567</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>7.504743577389227</v>
+        <v>18.09349287070235</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.63026479500958</v>
+        <v>43.7975415052143</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>44.90224410186929</v>
+        <v>53.14665738711136</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.995871695223758</v>
+        <v>6.635767013334872</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>20.41317150197052</v>
+        <v>21.88155107183757</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.29379126111465</v>
+        <v>27.9311857069123</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-5.095232936761176</v>
+        <v>-1.656658090738567</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>17.70622758806979</v>
+        <v>23.48725714038874</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.63040320744675</v>
+        <v>25.79465457437258</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>5.657588115319576</v>
+        <v>6.516845000810481</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.5058720398666</v>
+        <v>39.30128175870626</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>39.88047481674438</v>
+        <v>42.55329683011553</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.46214115267066</v>
+        <v>35.35586195759289</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.38037442819636</v>
+        <v>41.40619963310981</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>37.56832769652863</v>
+        <v>41.15974478601373</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>3.333406848870843</v>
+        <v>6.363083604938417</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.14664607614346</v>
+        <v>26.70269723275917</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.45827968639982</v>
+        <v>34.28856748888326</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>4.980746551715192</v>
+        <v>8.63132656842078</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>19.95426203386925</v>
+        <v>25.38171226619895</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.38245068757399</v>
+        <v>30.3805963661976</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-12.05641469516087</v>
+        <v>-4.373643948691914</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>11.12930420127623</v>
+        <v>16.84587478832051</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>17.48435852729209</v>
+        <v>21.86055425353694</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-4.734611588006367</v>
+        <v>0.3158611895485564</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.71598976256458</v>
+        <v>31.58028240299154</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>33.73377895884085</v>
+        <v>38.66231253018731</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>24.25694911387429</v>
+        <v>33.1208424672944</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>38.06310610988178</v>
+        <v>42.90662797261383</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.86856091272923</v>
+        <v>45.86414270932119</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-5.164844821099799</v>
+        <v>1.125629276731704</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>23.99064359391422</v>
+        <v>30.15739886022466</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.34484546542465</v>
+        <v>37.78615511728599</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>3.322248266893687</v>
+        <v>8.753716528720854</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>20.90014122998987</v>
+        <v>25.51150580126272</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.54745934301495</v>
+        <v>33.69420881566969</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-14.90584983873585</v>
+        <v>-4.874103616321648</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>11.19370280646559</v>
+        <v>19.24728483574798</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.75193079653188</v>
+        <v>24.76808131995485</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-4.674993203625868</v>
+        <v>1.048937581424273</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.24077494098105</v>
+        <v>35.2165513962855</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.45484025313622</v>
+        <v>44.45929959867851</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>34.63876105073034</v>
+        <v>41.84701941108166</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>45.53114920541613</v>
+        <v>52.29900804043051</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>52.69095829527898</v>
+        <v>58.59538145069303</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-8.35184557200818</v>
+        <v>3.311173572157731</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>27.50933509887847</v>
+        <v>35.73485088966403</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>37.58372818291007</v>
+        <v>46.67624278181603</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.46</v>
+        <v>16.557</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.62</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.492</v>
+        <v>16.204</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.884</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.164</v>
+        <v>3.43</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.610506967792222</v>
+        <v>8.282662345830811</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.61189545076198</v>
+        <v>11.57156613536375</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.39314593110357</v>
+        <v>14.65778306643641</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.273984576481489</v>
+        <v>2.892074423872167</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.99365461993986</v>
+        <v>8.962650338271974</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.72658213018826</v>
+        <v>10.18952319727984</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.865312655496741</v>
+        <v>6.949196244612615</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.84896554160224</v>
+        <v>19.01683965237446</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.35404419696321</v>
+        <v>22.05911095896031</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.58843438804783</v>
+        <v>14.7138291235747</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.13534326826493</v>
+        <v>18.17849668356553</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.50027790086057</v>
+        <v>22.72572358362351</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.517488491127109</v>
+        <v>6.74032690563519</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.17975977595573</v>
+        <v>9.593014816313397</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.67841641170144</v>
+        <v>15.54612107355472</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.75388476046081</v>
+        <v>8.985746388856461</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.94666281286618</v>
+        <v>26.52756276712167</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.37875172221291</v>
+        <v>37.54788057693118</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.517215305741129</v>
+        <v>1.164347117754232</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.88865872912902</v>
+        <v>8.668944357469259</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.16635701632951</v>
+        <v>19.96982301898538</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7103842767299504</v>
+        <v>4.109922396655271</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.47889916099161</v>
+        <v>24.76958263086312</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.54690823264521</v>
+        <v>40.07692018881022</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.221241408859</v>
+        <v>24.75847567132893</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.93219739104407</v>
+        <v>43.13839286213456</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45.62667127203351</v>
+        <v>56.23648171926466</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.547374705467167</v>
+        <v>2.402775222786989</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.91612927152675</v>
+        <v>25.67084734482117</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35.45549277123838</v>
+        <v>40.68207736789151</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.95577248126155</v>
+        <v>11.18964666881578</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.65820409257662</v>
+        <v>28.74935598908853</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.24496708681299</v>
+        <v>37.88665377866204</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.234249255801334</v>
+        <v>1.554085676786571</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>17.17045608495485</v>
+        <v>13.21137573966338</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.32420058754304</v>
+        <v>23.17082291872756</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.066404243013466</v>
+        <v>4.096720795242092</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.09567385020515</v>
+        <v>31.05611039435082</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.32022085473889</v>
+        <v>44.52394704872458</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.07318315114507</v>
+        <v>38.40787797261073</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.88714075464237</v>
+        <v>51.58884838508946</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60.39953761631618</v>
+        <v>61.31854741706363</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>12.38556620316017</v>
+        <v>8.097898580577411</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.59348155771777</v>
+        <v>35.22788003139502</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>49.17735783266368</v>
+        <v>46.76855596323318</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.273941054176142</v>
+        <v>2.207762870893081</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.78202631825382</v>
+        <v>27.67777149182068</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.51566586845549</v>
+        <v>38.19145870017532</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.776359199759693</v>
+        <v>1.62300950478722</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.3568794207805</v>
+        <v>31.37024703588062</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.11402335627864</v>
+        <v>37.31480955174487</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.33973868767162</v>
+        <v>3.71649966385279</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>47.7671210377323</v>
+        <v>55.04523607869559</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.11742332327634</v>
+        <v>62.5363874151913</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.19171975732272</v>
+        <v>48.66653847626273</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47.22266945977951</v>
+        <v>50.04966995087773</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.34119452680228</v>
+        <v>51.15826836754746</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.11423352739543</v>
+        <v>2.321514339583722</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.93413044770203</v>
+        <v>29.9718723072036</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.64417914065844</v>
+        <v>42.55646203664139</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.060776804805892</v>
+        <v>4.696717051992419</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.09277629851903</v>
+        <v>34.27262480401416</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.69901262140115</v>
+        <v>39.19197447869748</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-3.403233965958098</v>
+        <v>2.361402318389537</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.4443736771406</v>
+        <v>15.81890437000422</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.44136228218941</v>
+        <v>24.72953677970105</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.444986014634353</v>
+        <v>1.284376313817109</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.64916116287906</v>
+        <v>37.032439848193</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.90863268268829</v>
+        <v>44.58408219215505</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.98154469343588</v>
+        <v>35.4740646032347</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>51.61799668745068</v>
+        <v>53.10898607693085</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>56.77210082377491</v>
+        <v>61.6623796808376</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.318842452969465</v>
+        <v>0.5231676871688506</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>39.33882326530203</v>
+        <v>38.34971613678894</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.00513864329092</v>
+        <v>44.92611061915134</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.26760510632138</v>
+        <v>3.662234142990574</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.17613161805315</v>
+        <v>33.18422602415519</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.34292460017352</v>
+        <v>41.81335497125723</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-4.046708138620044</v>
+        <v>1.060303905829873</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.10854967977722</v>
+        <v>22.8706808207458</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.1526229687367</v>
+        <v>31.64875689706901</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.896328064298615</v>
+        <v>1.933831981497235</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.34554613494795</v>
+        <v>44.95011891761523</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57.08929907891559</v>
+        <v>66.41837378447505</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49.3974879560166</v>
+        <v>45.21475908974806</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>63.26941932930019</v>
+        <v>67.73344526995641</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>70.52894428471859</v>
+        <v>74.05624823081152</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>11.28047171337773</v>
+        <v>-1.072079380446194</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.14722820296672</v>
+        <v>48.10914824572825</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>58.69395191029524</v>
+        <v>57.15116587394797</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.5040863784521</v>
+        <v>14.58557562579055</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.81029631257012</v>
+        <v>25.43999631475873</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.13087974291211</v>
+        <v>34.13067719905746</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.028910634959406</v>
+        <v>2.385753908270882</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.25137660553302</v>
+        <v>25.82212444047364</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.18302501852972</v>
+        <v>28.65133839936181</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.36912972419641</v>
+        <v>6.954540979248812</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.59500282635206</v>
+        <v>51.99605030815597</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>46.31094452146256</v>
+        <v>53.52630906811233</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.55041378332246</v>
+        <v>37.57556995834663</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.53623000684193</v>
+        <v>43.56683073749446</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.80056965892658</v>
+        <v>43.12552437691853</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.10939974444245</v>
+        <v>11.10709117738216</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.37228739928081</v>
+        <v>22.52020373702242</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.13084233574849</v>
+        <v>29.39122850570122</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.37619211970869</v>
+        <v>19.84209969813695</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.56523132395405</v>
+        <v>37.52752947395076</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.47164688838716</v>
+        <v>40.40356715595631</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.408856989320679</v>
+        <v>3.025625032210407</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.87787369999121</v>
+        <v>22.05440501110276</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.96678618169586</v>
+        <v>27.13464009858938</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>8.834842545745081</v>
+        <v>4.798335924836497</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.61230880542183</v>
+        <v>44.29501292599834</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.13326995222192</v>
+        <v>48.1864431520544</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.9877061100397</v>
+        <v>41.73090453795505</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.0034550083581</v>
+        <v>55.89960917338916</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.37406181785627</v>
+        <v>61.49874247493228</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>12.21160655045773</v>
+        <v>15.74493892677476</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>40.64794757140146</v>
+        <v>39.56780303372665</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.71512081493444</v>
+        <v>47.92882321781593</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>15.61145491402433</v>
+        <v>16.54610875132999</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.81055682656687</v>
+        <v>36.49531438512224</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.57000060148997</v>
+        <v>42.46593675499469</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1.675299748135703</v>
+        <v>2.71271437557153</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.77182451090267</v>
+        <v>24.2104503905522</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.71954074926005</v>
+        <v>31.19111830829345</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.649583763709439</v>
+        <v>5.357620330992141</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.10832972866147</v>
+        <v>49.52353060211531</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>57.10076091407655</v>
+        <v>65.87445062974844</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.43513279178926</v>
+        <v>49.80788593241535</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>63.01622779296068</v>
+        <v>64.73794547066015</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>69.32107275030266</v>
+        <v>73.05357268217436</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>14.02549591754758</v>
+        <v>12.26165804133268</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.58192523652259</v>
+        <v>47.68804937920946</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.59841617401362</v>
+        <v>56.68527073075916</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.101003043573398</v>
+        <v>9.536371414091057</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.45105453015961</v>
+        <v>12.77944030761295</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.53864363918391</v>
+        <v>15.32943818551244</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.8516926926456456</v>
+        <v>3.288412274891616</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.24882509991621</v>
+        <v>7.537844155341457</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>15.61658264503004</v>
+        <v>8.749383422059806</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.628914124331793</v>
+        <v>7.421903009014212</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.81558247701879</v>
+        <v>18.78435799749023</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.84397982455802</v>
+        <v>20.50629282484485</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.58424421154698</v>
+        <v>17.12590559870281</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.33443939035271</v>
+        <v>19.54857120857929</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.3005816668092</v>
+        <v>24.81350115353504</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>14.17859782144605</v>
+        <v>52.73886093640911</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>17.14065761824303</v>
+        <v>51.94378802613486</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.51435354229132</v>
+        <v>54.40578349009344</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.43903940809212</v>
+        <v>8.840366711822423</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>21.1612901390195</v>
+        <v>25.28350351167261</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.38328693515383</v>
+        <v>36.89820804588982</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.2499175957245754</v>
+        <v>0.5737575162966415</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>10.30120240379895</v>
+        <v>6.455873201664652</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.4226605035681</v>
+        <v>15.3724590496021</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.822495753322908</v>
+        <v>2.60733492859546</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.16123420076207</v>
+        <v>18.38102008757655</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.95308743923428</v>
+        <v>33.32654029779855</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.92860988230354</v>
+        <v>18.77371281055625</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.4987858143828</v>
+        <v>35.94614494940927</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.90080261699651</v>
+        <v>50.77899925047129</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.017597635877244</v>
+        <v>2.824442468703641</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.21159165610154</v>
+        <v>24.24240243667835</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.73370499665653</v>
+        <v>32.04511860129851</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>15.71557328771507</v>
+        <v>16.23098125814033</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.9293390526905</v>
+        <v>27.08596406037377</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.68557754558574</v>
+        <v>35.33804549355963</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.0004723855658568255</v>
+        <v>2.078503375771245</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>15.28262758529541</v>
+        <v>11.05350528023489</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.79372370960769</v>
+        <v>19.57311107844853</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.581035426381991</v>
+        <v>4.831596885926938</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>30.31618616976179</v>
+        <v>27.64994194223956</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>40.79146588898247</v>
+        <v>42.77044544060399</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.72341486547563</v>
+        <v>29.10018800084122</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.6676290864228</v>
+        <v>38.50026755380701</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.5257005787487</v>
+        <v>53.9041011761034</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>12.54364478626803</v>
+        <v>12.99658441721425</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>34.31104789443298</v>
+        <v>36.15769705853518</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.76482020129167</v>
+        <v>44.27330581168069</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.19188568043354</v>
+        <v>3.124299019665973</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.14557859794765</v>
+        <v>16.67464322926291</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.27031700796896</v>
+        <v>24.40961485312043</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.2050350222205</v>
+        <v>1.843084841244007</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.05672852440463</v>
+        <v>26.83314721840996</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.3153098873828</v>
+        <v>33.1439724063105</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.1428256400027</v>
+        <v>10.49537363179893</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.0334852227806</v>
+        <v>52.17435705493348</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.93588923133467</v>
+        <v>55.48810152950757</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.57660862418452</v>
+        <v>28.40953428455411</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.16219469054169</v>
+        <v>35.69057999444264</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.19206414806154</v>
+        <v>36.08731444379374</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.9354178952184</v>
+        <v>12.62454971582991</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.25287543402833</v>
+        <v>13.46322043592585</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.24385073965857</v>
+        <v>18.54403875069735</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.54291372388827</v>
+        <v>21.29786458606538</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.64417965940273</v>
+        <v>36.41707350370663</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.21109393476888</v>
+        <v>39.23441990704467</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.906347597662212</v>
+        <v>3.907985327195881</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.75488164028226</v>
+        <v>23.96579100030667</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.21928168733637</v>
+        <v>31.87402613080202</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.77903305837205</v>
+        <v>9.7894723526042</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.86829246545555</v>
+        <v>45.43905708930588</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.89577424331229</v>
+        <v>49.50001038182117</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>39.5502075355483</v>
+        <v>43.7894734712321</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>53.37732059389823</v>
+        <v>58.05460992182696</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>58.64245809482978</v>
+        <v>64.25628118895463</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.59417530696651</v>
+        <v>23.87901018536992</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>41.23427651477263</v>
+        <v>46.08623717243358</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>47.42843832765325</v>
+        <v>50.66403595432278</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.32286719816508</v>
+        <v>21.500261868533</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.93405305871977</v>
+        <v>37.34565486645768</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.35635654375199</v>
+        <v>41.75973241090233</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3.106196216883735</v>
+        <v>3.664071733050342</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.43162920376631</v>
+        <v>19.84597850529758</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.49211610171075</v>
+        <v>27.66259354456118</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>9.58491694332106</v>
+        <v>8.159736569196014</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.43832970502878</v>
+        <v>43.60140958919179</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.52416155668192</v>
+        <v>57.31670880559009</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.81992669815344</v>
+        <v>47.83362891720522</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>59.14429029204808</v>
+        <v>62.43585055554193</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.88398670611312</v>
+        <v>67.73564641901005</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>17.75620393038303</v>
+        <v>22.21517600332121</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44.48090831928812</v>
+        <v>47.57950995773091</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.55250622562993</v>
+        <v>58.6499946341526</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>7.383055308505696</v>
+        <v>0.4383223874070872</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.45162772950691</v>
+        <v>13.08225834905011</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.7249199363046</v>
+        <v>27.69926990321974</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4.006482586492549</v>
+        <v>1.735095805018666</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.71462679152133</v>
+        <v>33.01861515934262</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.02705145828607</v>
+        <v>34.05484008567245</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.19298921596693</v>
+        <v>8.167382443569517</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>41.2132571588569</v>
+        <v>59.61327747130537</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.72958050873598</v>
+        <v>62.01947542514155</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.81903856218442</v>
+        <v>37.14897097237645</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.82203219161005</v>
+        <v>42.7235397948524</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.70215053785763</v>
+        <v>44.64941508024822</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.028686463968667</v>
+        <v>8.074227096741305</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.01327327821713</v>
+        <v>9.713787615085474</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.30203117675185</v>
+        <v>12.90080425065987</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.67029966279016</v>
+        <v>13.21032901741043</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.33645991965074</v>
+        <v>40.34718468529698</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.36153951621714</v>
+        <v>41.516327190513</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3.942409310164859</v>
+        <v>1.948546879491929</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.00627841068939</v>
+        <v>30.73447354905847</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.85229364392383</v>
+        <v>38.71151533559762</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>14.42048796691313</v>
+        <v>3.68804113074944</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>51.00700068349502</v>
+        <v>55.43569379630075</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>55.71004868936483</v>
+        <v>58.35126113122094</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.2085387864634</v>
+        <v>41.99636297441364</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>59.91494348039676</v>
+        <v>59.28683174169492</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.40017003111564</v>
+        <v>66.23791245984461</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>19.75682534851427</v>
+        <v>10.5724160054796</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>52.1163498591399</v>
+        <v>52.02750162818908</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>55.6734964618234</v>
+        <v>57.56390883915414</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.65291730017389</v>
+        <v>16.70855046073833</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.02272045764354</v>
+        <v>40.67868013159789</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.7317272073448</v>
+        <v>43.88853956567151</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.8974353015405647</v>
+        <v>1.813618181436883</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.62589528341873</v>
+        <v>26.27880912718874</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.16441109789355</v>
+        <v>30.84212280669795</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.31744572996447</v>
+        <v>5.997351269541692</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>50.9337277842253</v>
+        <v>52.04226380275583</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>58.69400845420472</v>
+        <v>65.35035517877012</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>53.51530765249125</v>
+        <v>53.19251891632032</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>66.19816174252499</v>
+        <v>69.43208199322162</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>70.89411608638643</v>
+        <v>74.5842841729131</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>19.5915073751592</v>
+        <v>9.312322945480963</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>54.85480619207294</v>
+        <v>53.75945078716383</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>61.50440562224179</v>
+        <v>61.24995795214089</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.709451016261308</v>
+        <v>7.915037547873958</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>7.8980517793213</v>
+        <v>7.099761535321608</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.55381875441836</v>
+        <v>9.901810745714787</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1.873881922835313</v>
+        <v>2.28968064608349</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>9.653701860967269</v>
+        <v>7.321703503994424</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.15599590500985</v>
+        <v>6.885146683507966</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1.192580483743978</v>
+        <v>6.375760863995239</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.97562622605179</v>
+        <v>14.62885525830619</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.14456165365581</v>
+        <v>17.62963516053619</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.83216780878972</v>
+        <v>18.94955171484558</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>20.68538567071113</v>
+        <v>22.09544159994214</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.0997622414885</v>
+        <v>25.23979372774582</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.171974419367407</v>
+        <v>5.185238737724873</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.33746155243487</v>
+        <v>4.310879880139204</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.635960375453</v>
+        <v>9.075116245680194</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>10.25507281466245</v>
+        <v>9.777998517472438</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.66157380902395</v>
+        <v>26.4146351548708</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.03723389167495</v>
+        <v>33.09035919283737</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.446685893115308</v>
+        <v>1.689179179322601</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.17891076005638</v>
+        <v>11.2900756328906</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.19963177256082</v>
+        <v>22.18821195311088</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2.993745804929855</v>
+        <v>7.024363354476808</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.67416211060437</v>
+        <v>27.31757157645011</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.97077329837582</v>
+        <v>40.16105237469093</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.71247084652979</v>
+        <v>26.80132933122611</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>37.48510365559249</v>
+        <v>40.64867101620681</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>42.99534287099604</v>
+        <v>48.44860194958778</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>5.879276214767735</v>
+        <v>6.668311021089366</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.14493050770356</v>
+        <v>29.95618197940751</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.69889740039604</v>
+        <v>41.01990614196957</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>12.70360898555118</v>
+        <v>7.114822016688294</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.85325713625934</v>
+        <v>22.66756191535383</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.51813265815299</v>
+        <v>34.30344928926473</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-1.695269811147615</v>
+        <v>0.9594234773025683</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.39119247836142</v>
+        <v>14.79448015254412</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.42264198469484</v>
+        <v>23.62230491762082</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>6.953107701417146</v>
+        <v>4.587305498301632</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.19211387606602</v>
+        <v>32.39139329231298</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.7759907653299</v>
+        <v>45.49880377373586</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>41.54599627377939</v>
+        <v>43.08886367580575</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>52.84478335560108</v>
+        <v>59.01545016520922</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>57.35209225077408</v>
+        <v>62.10331481919471</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>15.65978028516925</v>
+        <v>8.0215279206295</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.94812097125872</v>
+        <v>37.91430080898625</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>50.20105170573647</v>
+        <v>49.95136719749206</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1.709903707211222</v>
+        <v>1.965329821593105</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>7.346478699419174</v>
+        <v>7.621541671959653</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.8219110938074</v>
+        <v>11.40669790990645</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-4.913978072519964</v>
+        <v>2.552296418108501</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.270861866466978</v>
+        <v>7.69860088300044</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.72162647776891</v>
+        <v>11.2973834862591</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-3.271766472270318</v>
+        <v>2.554655063515987</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.40559212312067</v>
+        <v>13.86098790551419</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.66542379987742</v>
+        <v>15.77453833337003</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.7160065542149</v>
+        <v>12.4322149923051</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.83305416962745</v>
+        <v>14.24711032022874</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.22055786835886</v>
+        <v>15.11166993638948</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1.504360761547947</v>
+        <v>8.6192083207072</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>7.104306490254842</v>
+        <v>9.498024142895209</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.7482204762757</v>
+        <v>12.31260536414124</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.582011385184089</v>
+        <v>1.723710134294873</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.98266292414275</v>
+        <v>6.25677688635065</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>19.18786162256012</v>
+        <v>17.43269584933546</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-8.214407553793485</v>
+        <v>3.207517698060457</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>3.285965511767593</v>
+        <v>1.104728950420814</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.26880085545415</v>
+        <v>9.077186638505038</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-7.434525302435866</v>
+        <v>3.293140626324856</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>14.78397799592388</v>
+        <v>5.932673022203019</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.47448270673188</v>
+        <v>20.46454158651683</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.7932951806268</v>
+        <v>6.238195478534184</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.0056361103643</v>
+        <v>24.36325458688375</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.31767267453563</v>
+        <v>38.65208208764525</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-2.175819424681283</v>
+        <v>-0.9403216539197778</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.86107576390778</v>
+        <v>7.130035197815314</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.07675130187724</v>
+        <v>9.535145862900269</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>3.50664541631857</v>
+        <v>0.09265862325965557</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.87909289598169</v>
+        <v>6.914487110651354</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.86246751257076</v>
+        <v>22.0934491037691</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-9.690032582489845</v>
+        <v>2.813875911835186</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>6.04677733913735</v>
+        <v>1.888287650323687</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.71797687075976</v>
+        <v>14.55861190376477</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-6.142084492683729</v>
+        <v>3.048955574424443</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>20.52286107497683</v>
+        <v>11.17067378281905</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.33950717842661</v>
+        <v>40.51738943104414</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.22682211124768</v>
+        <v>12.4251099349407</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.59928884624864</v>
+        <v>41.12189120478497</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.78955435334395</v>
+        <v>53.76806813487428</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.2706816980188549</v>
+        <v>-1.414335986766307</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.96580781520424</v>
+        <v>12.68541433733215</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.88623847761318</v>
+        <v>18.91812276344944</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.08406188566061</v>
+        <v>10.62330980118158</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.75149252890979</v>
+        <v>14.43340266099413</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.48621988296362</v>
+        <v>35.98232827841262</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.278427418483934</v>
+        <v>2.887084131715092</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.30751323634869</v>
+        <v>39.86939700473752</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>42.05589829365981</v>
+        <v>41.66441589431417</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.82535312609635</v>
+        <v>6.876204137884635</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>52.60519720456781</v>
+        <v>57.98913359135192</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>58.30485998865716</v>
+        <v>63.37199656083864</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>44.65423804544939</v>
+        <v>40.92212143415044</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>51.12040725057021</v>
+        <v>43.90893555204592</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>52.91244823481981</v>
+        <v>45.96991033058961</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.42625899580259</v>
+        <v>29.05645307248366</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.35510963826334</v>
+        <v>28.36189022217087</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>50.78420881133385</v>
+        <v>61.7894185095742</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.29293341005687</v>
+        <v>8.197368615263297</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.06348538467839</v>
+        <v>29.57296395618686</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>33.85010457574298</v>
+        <v>32.13377887047232</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.901762220394129</v>
+        <v>2.544015002806567</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.8047725580549</v>
+        <v>23.36419928964419</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.78293382212504</v>
+        <v>26.77901441634457</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.063800867593862</v>
+        <v>4.791436821340991</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.45909239379608</v>
+        <v>40.07346957595282</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.86421125899183</v>
+        <v>43.5966207178295</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.39019648659636</v>
+        <v>33.78062166311593</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>48.82494575693271</v>
+        <v>46.13832496969655</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>52.74793433480257</v>
+        <v>51.39512631513038</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>10.28907853275648</v>
+        <v>13.97059429442141</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.32769670589911</v>
+        <v>36.70431719856244</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>46.76982523105784</v>
+        <v>43.42807596878777</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>11.54162880195896</v>
+        <v>10.60514756345684</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.34238089064107</v>
+        <v>26.72927068761663</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.14474046690873</v>
+        <v>39.81709494363959</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-3.015367297694876</v>
+        <v>2.436188268254234</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.48811330118543</v>
+        <v>27.7484300325757</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.54588334973072</v>
+        <v>33.25073983253233</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>7.472945325112505</v>
+        <v>6.593846926833788</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.93897630856266</v>
+        <v>47.5241856009267</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>55.78649185459223</v>
+        <v>64.55036731516707</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.0788076282239</v>
+        <v>47.30500055620236</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>60.54511092017529</v>
+        <v>62.16787434000535</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>65.35915333272641</v>
+        <v>67.66602248404322</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>14.05931895781361</v>
+        <v>12.18428862233741</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.01873280319533</v>
+        <v>48.23242404414599</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>59.04776596392738</v>
+        <v>60.9318624739557</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.543476951212032</v>
+        <v>7.868798569616184</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.887331123767186</v>
+        <v>8.855133281616837</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.36019076849808</v>
+        <v>10.82373914357468</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-3.158663108998628</v>
+        <v>4.533812849405709</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.474471583546025</v>
+        <v>5.712817600724517</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.778212893036063</v>
+        <v>7.924147257505767</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-0.6145930317758506</v>
+        <v>7.595740409336294</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.17809260846484</v>
+        <v>12.16237562723899</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.07377026193026</v>
+        <v>14.98277026615106</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.55688458265337</v>
+        <v>11.55608723360487</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>17.22437543539435</v>
+        <v>14.88638031621339</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.44571894176343</v>
+        <v>17.09736992646025</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-0.2714498160634129</v>
+        <v>6.268058082585231</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>7.750411474812308</v>
+        <v>5.40948929875541</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.86034560459359</v>
+        <v>8.327713174795761</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.804897029549295</v>
+        <v>5.515246188177272</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>14.13166543229636</v>
+        <v>13.72986942378452</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.18538861637425</v>
+        <v>25.68376715221412</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-4.154890138892764</v>
+        <v>1.230762366246818</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.304388262594836</v>
+        <v>-1.183236547516721</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.13149107317868</v>
+        <v>15.6726713823195</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.92809346932383</v>
+        <v>3.332151535622348</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>15.75365566127284</v>
+        <v>6.509080903064191</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.87844449599591</v>
+        <v>25.53558404514825</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>17.63795785959903</v>
+        <v>8.325151434961752</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.21261696350059</v>
+        <v>18.90845057104774</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.68307187037119</v>
+        <v>32.93966986263877</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.370944123670512</v>
+        <v>0.5894694104664104</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>14.47883485556747</v>
+        <v>7.696725918655508</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.8435065615753</v>
+        <v>18.40963826855248</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.880437463254761</v>
+        <v>7.618072424681383</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>17.98044064221854</v>
+        <v>16.7993220534932</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.05884049704363</v>
+        <v>29.04163141930874</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-2.911639148165886</v>
+        <v>2.848008779855366</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.03746964527943</v>
+        <v>4.122661432318381</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.69104366063262</v>
+        <v>18.88740825672835</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.263607400371924</v>
+        <v>6.52398117872524</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.55785556493613</v>
+        <v>16.53559598144284</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.62614822096405</v>
+        <v>33.46218938867398</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.44020210857213</v>
+        <v>19.1667700920173</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.71496967548728</v>
+        <v>27.72854186664653</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>48.41356061336099</v>
+        <v>44.60011329321802</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>6.305518940678498</v>
+        <v>7.185279030807457</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.64168466196643</v>
+        <v>19.17204440027628</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.55363219454069</v>
+        <v>31.22908302804102</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.916560959525377</v>
+        <v>1.542324839500928</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.688215393254898</v>
+        <v>1.230859855662143</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.61745820791191</v>
+        <v>5.796654818144507</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-7.144540549586448</v>
+        <v>3.405883738780819</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.310433350396325</v>
+        <v>2.058381806314678</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>9.62154762667954</v>
+        <v>2.925406022109346</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-3.811104356211356</v>
+        <v>5.584276720716119</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.68742589503115</v>
+        <v>9.364424287398206</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.36356514546965</v>
+        <v>10.85421013778376</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.65855395669825</v>
+        <v>8.708250925307221</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.2279889605203</v>
+        <v>8.723925749065081</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.46699880789377</v>
+        <v>13.93630050875405</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.255940435596706</v>
+        <v>2.207848793265633</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>3.951848740187121</v>
+        <v>0.5255359384587877</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>7.917302509648744</v>
+        <v>0.7056106646747189</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.46088120561181</v>
+        <v>16.05591421088146</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.51376100749805</v>
+        <v>30.04836948545892</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.84726655876826</v>
+        <v>33.73226749913275</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2.251334442594626</v>
+        <v>1.950511748618684</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.26274783224463</v>
+        <v>18.36707709875999</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.08519267396364</v>
+        <v>25.93123616986278</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.935548143371742</v>
+        <v>7.604391316913597</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>37.58568104535257</v>
+        <v>42.22662368402699</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.43729096910945</v>
+        <v>47.8557545055658</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.21524201378585</v>
+        <v>35.46374714406318</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.92016723411618</v>
+        <v>48.23657746195251</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>49.82595813004007</v>
+        <v>47.57298480280338</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>11.4808362894979</v>
+        <v>14.33023870551012</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.57260529385406</v>
+        <v>37.28009881478042</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.11047924380445</v>
+        <v>44.44398512028243</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.52146088747051</v>
+        <v>16.7401677725948</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.46111326708969</v>
+        <v>31.94582287708903</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.69717682800209</v>
+        <v>43.7787960626994</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-0.6983860658000403</v>
+        <v>1.397235564321079</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.98074945111822</v>
+        <v>20.69646757564809</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.66099910078514</v>
+        <v>26.53180773003844</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.20021179040574</v>
+        <v>6.548840911397239</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.08051798199503</v>
+        <v>42.31294976911946</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>51.32891492163812</v>
+        <v>58.33154072812454</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.58302280617336</v>
+        <v>46.79512065078364</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.74263212090817</v>
+        <v>60.25780545232745</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>63.01660593859935</v>
+        <v>65.5433484310868</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.8950905007054</v>
+        <v>9.324341829855298</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>44.70265911397279</v>
+        <v>43.42012674363886</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>50.98266382130383</v>
+        <v>51.05753352660929</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>8.690439281691582</v>
+        <v>11.6660842476778</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.47750887881499</v>
+        <v>12.7736604593118</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.97509835649879</v>
+        <v>13.66316495647685</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1.037676911730369</v>
+        <v>5.86159686179758</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.4920643036223</v>
+        <v>11.65382407873681</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.72833869376166</v>
+        <v>12.98440475325142</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>4.917321330745086</v>
+        <v>12.74248743169872</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.89318142223548</v>
+        <v>22.611812670052</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.55747118764003</v>
+        <v>22.49377900386967</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.71524779542452</v>
+        <v>19.46661597514757</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.19239437865574</v>
+        <v>21.64142538273289</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.96147889247295</v>
+        <v>24.17337162774361</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>8.504723153656677</v>
+        <v>12.65339659723742</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>12.64278023986882</v>
+        <v>8.314073028416249</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.32850480975836</v>
+        <v>12.29210879683588</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.365820148475358</v>
+        <v>4.021736235039931</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.77010431941899</v>
+        <v>10.73877933334377</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.77647215514533</v>
+        <v>20.16682603598812</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-5.491368390393806</v>
+        <v>3.153448629460396</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1.826065144335423</v>
+        <v>1.425803776848813</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>9.701237199725833</v>
+        <v>10.81141893032906</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-4.382096028306115</v>
+        <v>1.665209212395812</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>11.85264345699334</v>
+        <v>4.488303450681826</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.89020310896742</v>
+        <v>16.95996252254182</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>10.95291802115708</v>
+        <v>8.112553204639102</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.75036904307764</v>
+        <v>13.49486991409838</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.65196573952528</v>
+        <v>25.27767573661352</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-3.286542098010447</v>
+        <v>1.010541775236884</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.146820678665769</v>
+        <v>5.563001820705786</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>16.42365449559933</v>
+        <v>11.66147907453905</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.41671114672059</v>
+        <v>14.02744253566838</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.25487981226958</v>
+        <v>26.5781469943455</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.606124406699</v>
+        <v>28.91423098536136</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.563965342546837</v>
+        <v>1.334899615471198</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.58679087961671</v>
+        <v>12.46584222106364</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.48840229249978</v>
+        <v>17.32486180030519</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.026919312940578</v>
+        <v>4.994080400404286</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.87561542128088</v>
+        <v>26.97323910050909</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.99896112567152</v>
+        <v>39.71007389589024</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.51426671631227</v>
+        <v>27.13808146766155</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.66260461786629</v>
+        <v>32.51604824530038</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.68390989436999</v>
+        <v>43.19191429839252</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.313254813037736</v>
+        <v>5.034556875304983</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.74627554977816</v>
+        <v>25.30627749990826</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.61594199331866</v>
+        <v>30.48399571359378</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.800231413773389</v>
+        <v>3.186458541392181</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.309406904278589</v>
+        <v>4.844700449512768</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.169577178224838</v>
+        <v>4.850810565701231</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.73844059960501</v>
+        <v>3.517961594584875</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.1792235398286088</v>
+        <v>4.520575071091603</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.3746373350615499</v>
+        <v>4.036421976862382</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2.840437780008163</v>
+        <v>8.046683207500248</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.445287889518163</v>
+        <v>9.001606267328583</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.85023517185398</v>
+        <v>7.176779284041025</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.883325789231026</v>
+        <v>5.766233008299281</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.505050748348712</v>
+        <v>4.085967639950681</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.86749719058129</v>
+        <v>8.493697588390503</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1.209111937091357</v>
+        <v>3.657928696254864</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-2.188842730765668</v>
+        <v>4.744612727465675</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-0.2438286759131465</v>
+        <v>4.90290523562539</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.6528983644257131</v>
+        <v>2.045996513364042</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.09529741177078</v>
+        <v>4.679316903585438</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>6.367446301838662</v>
+        <v>5.01955757141587</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-5.313309258164455</v>
+        <v>3.772652564015161</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-3.895863432950165</v>
+        <v>1.235335755747187</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.03769080484404</v>
+        <v>2.838007913688681</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-7.549742292847164</v>
+        <v>3.843396838461395</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>2.004502211095513</v>
+        <v>3.219987234454567</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.953049949471453</v>
+        <v>4.459037946518883</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-0.517652386120254</v>
+        <v>1.259394583859411</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>5.396644278270166</v>
+        <v>2.109473555333537</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.433286969625332</v>
+        <v>4.101998133232179</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-7.453691187147943</v>
+        <v>2.477271492232617</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-1.335995107641107</v>
+        <v>1.407658588339874</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.626629316899727</v>
+        <v>1.793133859312562</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.54750281689374</v>
+        <v>16.7056105862889</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>17.51879870304481</v>
+        <v>22.48529509569077</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.5920727738354</v>
+        <v>20.59321922809735</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-2.965529070064843</v>
+        <v>3.368898776943304</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>5.470618830864652</v>
+        <v>10.02847348643794</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.00944974522383</v>
+        <v>11.61476816883337</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.089110046871095</v>
+        <v>8.973108753626377</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.25382685343373</v>
+        <v>21.95177406330669</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.72630087433037</v>
+        <v>25.63574293077399</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.57111095565505</v>
+        <v>19.10265823530314</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.14188951316666</v>
+        <v>21.9333736739306</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.01369587200126</v>
+        <v>26.2896866961518</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>5.313107442166835</v>
+        <v>11.04781158414996</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>17.31918812646059</v>
+        <v>18.70964732582516</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.43827081687072</v>
+        <v>22.18618932602412</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.45223369325182</v>
+        <v>15.62748766906389</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.26292902627182</v>
+        <v>26.36197334909344</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.03934204844929</v>
+        <v>35.77636759327479</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.953419233452625</v>
+        <v>2.783268233021818</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.89259273477016</v>
+        <v>15.19020910246846</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.25346439016542</v>
+        <v>18.85615083533862</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.8710361269415</v>
+        <v>11.18765319307396</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.86107505817209</v>
+        <v>36.03627433035611</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.1061255808316</v>
+        <v>42.50885025807686</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.08781270953865</v>
+        <v>30.57443769127411</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.08596559810331</v>
+        <v>35.99122781999776</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.34525315512833</v>
+        <v>39.58803577299776</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.94819285813776</v>
+        <v>21.82661545069957</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.26508909323369</v>
+        <v>33.07187604110753</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.19424176710733</v>
+        <v>41.09870029042973</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.47264517099276</v>
+        <v>13.75155531292509</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.53383648363384</v>
+        <v>23.88620925058107</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.75155227872927</v>
+        <v>30.04241961667352</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-5.288094869314854</v>
+        <v>3.839872773229203</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.190277588767145</v>
+        <v>5.113756222902094</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>11.9091302760794</v>
+        <v>9.89266894747807</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-2.63310095524325</v>
+        <v>8.293550041305318</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>18.57242108520948</v>
+        <v>17.60300982929544</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.15283501158153</v>
+        <v>24.80477365616181</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.71919770438441</v>
+        <v>15.56992321459253</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>30.94142020875267</v>
+        <v>21.90227660068995</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.52603313904194</v>
+        <v>26.9159839825668</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.851767359864755</v>
+        <v>11.44472490520643</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.58638366581643</v>
+        <v>21.90273979780647</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.77239176819979</v>
+        <v>25.51531155771429</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.08303509122479</v>
+        <v>18.48015473157164</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.98849766502253</v>
+        <v>29.28518926917002</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.91626174712751</v>
+        <v>40.52943484822336</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-3.306449638043159</v>
+        <v>2.801928849370565</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.88162355365978</v>
+        <v>11.8227509827605</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>18.69270801392469</v>
+        <v>16.55672753894003</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>3.496056128064868</v>
+        <v>9.100068349472037</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.56325163601458</v>
+        <v>30.43610147799451</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>39.62380358838148</v>
+        <v>42.72621322781965</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>38.07017817825174</v>
+        <v>36.83839293054246</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>47.70655517006969</v>
+        <v>45.29181342576429</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>55.20740478927469</v>
+        <v>48.92063619075937</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>11.93861834753546</v>
+        <v>16.49680142482246</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>34.7659162962965</v>
+        <v>32.78279848687272</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>44.50418580744532</v>
+        <v>38.57370715907819</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.57666633669321</v>
+        <v>14.63128317635515</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.26685488001162</v>
+        <v>27.76833407795537</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.53720672008106</v>
+        <v>37.02646775730476</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>6.061242956904302</v>
+        <v>3.776175895226043</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.02771367327229</v>
+        <v>28.43526036152442</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.03226109411235</v>
+        <v>34.00877967703231</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.78974801386119</v>
+        <v>11.52129404826059</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.67248235903563</v>
+        <v>50.15438876013047</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>46.22412501534384</v>
+        <v>59.83876987491043</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>39.77532509030171</v>
+        <v>46.30741426591857</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>46.13478364828633</v>
+        <v>51.33521029793044</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>48.07845498520345</v>
+        <v>55.85549850699122</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.64987333466138</v>
+        <v>13.56528353876732</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>33.83914957856992</v>
+        <v>29.23321644494606</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>40.648783709282</v>
+        <v>43.14641212329782</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.6173923419179</v>
+        <v>10.04446694148639</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.11509134896457</v>
+        <v>29.50606132340487</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.76327341155049</v>
+        <v>34.20429882547489</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.331318944671473</v>
+        <v>3.087243628167116</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.6494891616331</v>
+        <v>15.60073725266252</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.24652592599355</v>
+        <v>25.71189785977598</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.852729051004822</v>
+        <v>4.683932873354937</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.23847640972697</v>
+        <v>33.59904492658991</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>39.03374914901783</v>
+        <v>38.79269606910013</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.08322795774978</v>
+        <v>32.50833236004755</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.96243824725526</v>
+        <v>42.77544017250374</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.98900187470188</v>
+        <v>49.24223837646139</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>6.156304421718758</v>
+        <v>7.048527801081079</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>30.15278472894375</v>
+        <v>28.63466305528258</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.72717919158161</v>
+        <v>38.08371207659322</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>11.32989419210381</v>
+        <v>6.332427041519974</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.81013061382302</v>
+        <v>25.33129535092804</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.45973659206651</v>
+        <v>36.32292143419511</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1.448119526615478</v>
+        <v>1.722857077638388</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.95608291982442</v>
+        <v>14.99246450573011</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.70294404724485</v>
+        <v>30.451499651299</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>6.221375242883347</v>
+        <v>4.211763828508676</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.42972247532884</v>
+        <v>30.96808898027904</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.55918482630076</v>
+        <v>56.42523721846791</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.36139434655334</v>
+        <v>37.14480808300225</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.10913350194789</v>
+        <v>53.64115794013629</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>60.68603517421066</v>
+        <v>67.77769468294825</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>9.909948053950016</v>
+        <v>4.131671381700684</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.59102692966809</v>
+        <v>36.01394413801755</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>48.80432524751345</v>
+        <v>51.92951361816489</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>11.03605241497135</v>
+        <v>10.28806101909803</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.59792827713215</v>
+        <v>18.98639996351838</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.18259998041869</v>
+        <v>34.78410608185689</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>3.85281939255017</v>
+        <v>3.826336689520812</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.79876495677777</v>
+        <v>38.5293659126899</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.75908166442945</v>
+        <v>44.1531555707201</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.6710891730928</v>
+        <v>11.28941760129723</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.73132718245326</v>
+        <v>54.57962605395542</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>46.65506206095701</v>
+        <v>63.49488831206251</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.38918004065658</v>
+        <v>35.53269051082874</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>39.1058787241158</v>
+        <v>38.61927901822662</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.23205470120531</v>
+        <v>39.4761640052764</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>15.28926362946653</v>
+        <v>12.71970068437743</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.08897642269642</v>
+        <v>24.2003928216181</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>39.83194561089611</v>
+        <v>49.84526339784193</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>11.89298365200174</v>
+        <v>12.95716328906714</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.95502221795431</v>
+        <v>30.4975214852942</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>33.73538089275977</v>
+        <v>34.70072658056193</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2.703136815647511</v>
+        <v>3.714291914124345</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>16.71969247820976</v>
+        <v>20.07327088371197</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.13907727042245</v>
+        <v>25.32579635366529</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1.380792962113407</v>
+        <v>5.25593053952403</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.63950933693176</v>
+        <v>33.83943585038118</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.93321210021924</v>
+        <v>40.66841427231395</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.50582715941175</v>
+        <v>31.35426454413477</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.57128033720393</v>
+        <v>40.3735870803496</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>50.74060985392252</v>
+        <v>47.57958421973261</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.309602865621644</v>
+        <v>6.832049651429948</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.79060640402693</v>
+        <v>29.17113612534079</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.85520108067588</v>
+        <v>36.47682500855048</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.26582958896486</v>
+        <v>8.525064058374271</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.44569488646955</v>
+        <v>26.5250026901177</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.06656489855378</v>
+        <v>36.80475502543767</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-3.140865198154838</v>
+        <v>3.226287289177559</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.55012302034778</v>
+        <v>22.96239743161758</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.61284285739517</v>
+        <v>30.63770945140685</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.072904244603819</v>
+        <v>5.389538182371041</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.92838394313294</v>
+        <v>39.45145050215666</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.27611365548898</v>
+        <v>55.5856918116986</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.75828079110119</v>
+        <v>44.37792660902657</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.58785473282896</v>
+        <v>58.37607603001815</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.73185212652791</v>
+        <v>66.6731779689795</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.80452366432835</v>
+        <v>7.310779889438354</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>41.62780921372873</v>
+        <v>39.38355566810028</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>53.29593623810713</v>
+        <v>53.63045583870742</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.16299973140558</v>
+        <v>16.95117877115103</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.12254416037069</v>
+        <v>22.71884651542769</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.57512409058038</v>
+        <v>34.13176504833731</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.18887556382737</v>
+        <v>10.95456060145241</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.76038071673585</v>
+        <v>42.09174443728239</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.48698272932488</v>
+        <v>47.19376404217894</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.50376367358004</v>
+        <v>14.33539320495812</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.14593978871817</v>
+        <v>50.79796490974192</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.54021630297188</v>
+        <v>57.3370787339403</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.75505812176093</v>
+        <v>34.49891783192349</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.22678426204286</v>
+        <v>35.74228648280382</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.38781627199505</v>
+        <v>38.9193337160747</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.26923523786042</v>
+        <v>25.02554566467039</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.1964121219521</v>
+        <v>23.83682278755436</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.25083964473701</v>
+        <v>42.35138743254628</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.44714031686019</v>
+        <v>19.68452596071571</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.53384459778801</v>
+        <v>31.27150860453449</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.49304686959585</v>
+        <v>38.85932367398265</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>9.477930069146353</v>
+        <v>31.83129438849219</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.69728514177461</v>
+        <v>42.02002651986489</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>30.65759020253837</v>
+        <v>45.90241713035364</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.055554470135819</v>
+        <v>11.00093850264769</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.00864997867233</v>
+        <v>35.77611514855262</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>41.49385283787005</v>
+        <v>41.43697663719907</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.4509160906746</v>
+        <v>35.07595996092189</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.99478730482111</v>
+        <v>43.25467223151382</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>50.59840397826022</v>
+        <v>49.6984787472385</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.94979443006159</v>
+        <v>18.38673982520828</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.80903635011011</v>
+        <v>31.81588671168682</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.2967301264287</v>
+        <v>38.15062455172629</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>17.16908932771263</v>
+        <v>18.92377662655762</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.64569568440661</v>
+        <v>28.60885570580977</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.83101444719141</v>
+        <v>37.95661224234026</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>7.323607727715508</v>
+        <v>34.00735470341768</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.0834614633442</v>
+        <v>46.97187270752234</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.1932478050077</v>
+        <v>47.65049079068318</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>9.617404647754906</v>
+        <v>11.88054382576194</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.3862293216344</v>
+        <v>43.34940572151538</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>47.32881249462541</v>
+        <v>53.03371716400909</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>45.04031772820039</v>
+        <v>46.65551730281494</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>54.07442929185629</v>
+        <v>56.34902589556386</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>62.21442524281431</v>
+        <v>63.55833469516757</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.91874594459143</v>
+        <v>17.97970886086433</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.4334496218042</v>
+        <v>39.69710844170226</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.6317036503729</v>
+        <v>54.0420876675466</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>8.503335896755157</v>
+        <v>3.571706087588538</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.13679658437962</v>
+        <v>18.9987924846333</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.48817702390327</v>
+        <v>31.94813268549363</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.8269881524202383</v>
+        <v>1.808691430455728</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.00687272853143</v>
+        <v>19.18755371779425</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.67690357431007</v>
+        <v>20.2746165191495</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>7.911694341084459</v>
+        <v>5.27809857046649</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>40.93535496112962</v>
+        <v>41.29195144441773</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.39109909029447</v>
+        <v>49.75876772027124</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.36829905300806</v>
+        <v>42.48038215686783</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.01689905958071</v>
+        <v>42.80285220171699</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.59258458747412</v>
+        <v>45.09793548672198</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>8.179072087025666</v>
+        <v>0.8248440978458049</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.41238896438451</v>
+        <v>21.93190217824749</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.7184553632365</v>
+        <v>29.42406724846925</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>8.459746772443696</v>
+        <v>7.965738727243638</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.04148538884419</v>
+        <v>27.40174890014882</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.65683470580144</v>
+        <v>29.08564591151404</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-4.457459527428171</v>
+        <v>2.906295381431566</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.17129067303383</v>
+        <v>16.36522911683092</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>20.41682604415139</v>
+        <v>22.08029337795109</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.8369137129576956</v>
+        <v>3.851468640963567</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.19758398044551</v>
+        <v>29.145809835141</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.38610360137183</v>
+        <v>35.93791372577598</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.00732715373641</v>
+        <v>29.08468413388098</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>41.6782398270552</v>
+        <v>38.42747249960071</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.13526235884672</v>
+        <v>44.70153911635913</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>0.7974931199993307</v>
+        <v>3.477785405832233</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.61269158691158</v>
+        <v>27.90794137279112</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>35.95075005006532</v>
+        <v>34.62366847427888</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.322085312902399</v>
+        <v>5.815096361712122</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.4982201872382</v>
+        <v>24.57582933031782</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>33.54080548580278</v>
+        <v>35.38412411931336</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-5.493591067177018</v>
+        <v>2.408264254272851</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.78023517796179</v>
+        <v>15.08878385837269</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>23.97160795890939</v>
+        <v>24.26679257879988</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>0.7496036513932296</v>
+        <v>4.439679909592712</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.3218584969655</v>
+        <v>30.11507158927991</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.11343461211866</v>
+        <v>48.80771252302365</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.20429459006793</v>
+        <v>40.05947709647388</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>53.56223301992227</v>
+        <v>58.7437172578765</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>59.84328979705123</v>
+        <v>63.35551859590065</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3.73725771473541</v>
+        <v>2.423846568537599</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.03003670399325</v>
+        <v>35.93532975992034</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.58968354614269</v>
+        <v>47.81710734339602</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>7.212604413440022</v>
+        <v>11.34357652664782</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.3594627479554</v>
+        <v>12.85754579378587</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.4302235989734</v>
+        <v>15.4669660402486</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-0.8384620898799788</v>
+        <v>4.735911733542448</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.47536663175664</v>
+        <v>9.480562544310265</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>13.00156670553908</v>
+        <v>10.33565908138481</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>3.491896023531375</v>
+        <v>11.27607016195713</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.14453229217397</v>
+        <v>18.57742808749994</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.97805781506122</v>
+        <v>21.57529355360122</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.8479775781711</v>
+        <v>16.96572494143013</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.40397514059762</v>
+        <v>19.6133646917224</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.05452808756501</v>
+        <v>22.61535950763182</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.801673162061221</v>
+        <v>10.041053987241</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>9.696002818792405</v>
+        <v>9.677551333616538</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.44183413205587</v>
+        <v>14.37606864673099</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>8.092460436383332</v>
+        <v>7.42848138995911</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.91266369300094</v>
+        <v>18.70491165016729</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.70552707444117</v>
+        <v>26.2343504924947</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-3.23743213086296</v>
+        <v>1.264405697689686</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>10.01027757391188</v>
+        <v>3.29565802682</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.92813842059228</v>
+        <v>14.75703921778226</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-0.5538309507323689</v>
+        <v>3.004874852320821</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>20.91688141776127</v>
+        <v>12.25055495864065</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.60108721823386</v>
+        <v>29.10115269882478</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>20.85843601325399</v>
+        <v>16.99982998387075</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>31.74812909173432</v>
+        <v>26.46079171545928</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>37.06926070998631</v>
+        <v>36.49630973778626</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.1415548188076841</v>
+        <v>1.12595908874993</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.65158801799998</v>
+        <v>15.95969142184904</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.05516125567554</v>
+        <v>26.75570274939625</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>11.60591569350443</v>
+        <v>11.60812665892957</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.23277259523026</v>
+        <v>24.43760160746142</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.03320829809588</v>
+        <v>30.73132641068822</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1.937356058367769</v>
+        <v>0.5376381392080098</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.99100547141046</v>
+        <v>10.93072889576121</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.4546020290378</v>
+        <v>19.04591058708147</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2.998990659426433</v>
+        <v>3.118692447781761</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.54343307927727</v>
+        <v>21.61450612511682</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>37.97678235349777</v>
+        <v>37.97437060000158</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>33.77800511691954</v>
+        <v>28.60365244688882</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.09733119014829</v>
+        <v>38.115304552418</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.03943832558974</v>
+        <v>42.80975529888907</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>8.470331052092728</v>
+        <v>2.186767764313007</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.35408130514867</v>
+        <v>22.37803342784964</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.11240715208565</v>
+        <v>37.91365802530204</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>11.04216506270633</v>
+        <v>11.69501944936505</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>15.73654067943975</v>
+        <v>14.99496117220789</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.88856701035604</v>
+        <v>18.08606128372922</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3.377247715888117</v>
+        <v>4.683519612493569</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.73147039830537</v>
+        <v>18.17631360147663</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.22955361999393</v>
+        <v>19.2288676822193</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>7.116536411520515</v>
+        <v>11.77927727752603</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>27.48200640544649</v>
+        <v>29.99210991583075</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.69450042550577</v>
+        <v>31.84895882519523</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.38781379662147</v>
+        <v>23.0805973615345</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.91962111850609</v>
+        <v>24.72671656112716</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.42307602785598</v>
+        <v>30.42572967388585</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.07821250892916</v>
+        <v>10.63432499786591</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>18.16308437297649</v>
+        <v>13.63223344038221</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.81815194629679</v>
+        <v>22.31030121506435</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.12166356906238</v>
+        <v>6.309660980291802</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.369017948107</v>
+        <v>18.21327320180314</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.63596796783855</v>
+        <v>33.14637950744379</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.8016749648991066</v>
+        <v>5.172108251751041</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>12.3538235157117</v>
+        <v>10.50871031123508</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.80453238077254</v>
+        <v>24.81880595623065</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-0.09978141183038147</v>
+        <v>5.259585098879107</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.09217309897641</v>
+        <v>19.87602754679047</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>32.03834694890178</v>
+        <v>34.07142037428714</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.46426234306797</v>
+        <v>18.56200970378706</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.99724685666344</v>
+        <v>32.98028466362933</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.74258351272393</v>
+        <v>46.09576883162681</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>4.629273573915889</v>
+        <v>2.260312960521073</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.56169901816953</v>
+        <v>17.79524327312296</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>32.35550828226518</v>
+        <v>27.30811532222355</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.91322138057219</v>
+        <v>6.903639990598101</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.62478592243507</v>
+        <v>18.06329369007003</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.57570981443499</v>
+        <v>29.950580565734</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.6930781237725405</v>
+        <v>4.583869137266323</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.6410341975783</v>
+        <v>15.09723297115114</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.56717053864628</v>
+        <v>21.01489758269775</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1.352830603994796</v>
+        <v>2.092272944927871</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>27.56734377131648</v>
+        <v>25.92009932936517</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.28662865087073</v>
+        <v>37.65187242379597</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.05638387768292</v>
+        <v>32.665463903195</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.87575032320709</v>
+        <v>39.57876264792052</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.47907026979109</v>
+        <v>49.72775305759019</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>8.971634361332837</v>
+        <v>-0.1206019089979087</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.33985666089704</v>
+        <v>18.25272894205949</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>43.28689111055179</v>
+        <v>38.29031010708587</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.04917071828893</v>
+        <v>15.43679275677295</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.12600414084577</v>
+        <v>19.80970398338904</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.49285398714233</v>
+        <v>33.00310734595864</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.157305393942538</v>
+        <v>3.917984189438322</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.64367865535458</v>
+        <v>40.24580279009491</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.66110248941595</v>
+        <v>43.44164392399747</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>17.69820816768294</v>
+        <v>12.92544012360753</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>45.85002234478436</v>
+        <v>60.38726783260338</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>50.17864969780275</v>
+        <v>63.67797424124099</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>38.6759536615745</v>
+        <v>39.55045612768222</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.81069131365464</v>
+        <v>43.10375292206486</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.53528260282204</v>
+        <v>45.99035231845466</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.13915906707276</v>
+        <v>25.95042462143504</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.31637606260638</v>
+        <v>24.77518806211573</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>46.62639021620782</v>
+        <v>60.97245516580485</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>18.44897259620679</v>
+        <v>20.77895390903651</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.87971674089763</v>
+        <v>31.59484416165054</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.96888111356551</v>
+        <v>34.38513930722793</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>3.400238223852206</v>
+        <v>4.221805383507437</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>21.74011180380367</v>
+        <v>23.02179019406413</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.96877464848536</v>
+        <v>29.03931496182168</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.146682416925975</v>
+        <v>9.627039500191634</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.59108323829125</v>
+        <v>40.18830214416279</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.09747887524905</v>
+        <v>46.55597621616241</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.38302389731017</v>
+        <v>37.51851113038806</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>45.09616794423629</v>
+        <v>48.63675648805868</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>48.11862622096312</v>
+        <v>50.08797796079152</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>15.61343014634391</v>
+        <v>16.20745766899075</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.17264947697485</v>
+        <v>37.73505929863519</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>43.6709362134071</v>
+        <v>44.69691588774351</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.12346237153342</v>
+        <v>21.54909298413788</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.81635506484504</v>
+        <v>32.01936221205361</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>37.38642077839663</v>
+        <v>39.02565785892467</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1.699621829786555</v>
+        <v>4.120722412524362</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.33097801861677</v>
+        <v>23.72619044061726</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.43408044262304</v>
+        <v>30.00023726029597</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.95492031113118</v>
+        <v>8.764271789151461</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.03850225888901</v>
+        <v>43.79570437967838</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>49.58709211932174</v>
+        <v>58.99611484878238</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.63484553719078</v>
+        <v>46.20697617354887</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.67292226375902</v>
+        <v>58.03222693404823</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>60.5073317661567</v>
+        <v>65.88114775085043</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>18.09349287070235</v>
+        <v>9.325259889269685</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>43.7975415052143</v>
+        <v>40.65713494356229</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.14665738711136</v>
+        <v>52.72198445974246</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>6.635767013334872</v>
+        <v>3.284788881627129</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>21.88155107183757</v>
+        <v>16.67289523431732</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.9311857069123</v>
+        <v>27.97193930325443</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-1.656658090738567</v>
+        <v>2.357623200221987</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>23.48725714038874</v>
+        <v>19.19677436359531</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.79465457437258</v>
+        <v>20.01230711002366</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>6.516845000810481</v>
+        <v>4.699205957451689</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>39.30128175870626</v>
+        <v>35.48095557506316</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>42.55329683011553</v>
+        <v>42.89708283905462</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.35586195759289</v>
+        <v>40.27356964489849</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.40619963310981</v>
+        <v>45.33615681478658</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.15974478601373</v>
+        <v>42.95896028348763</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>6.363083604938417</v>
+        <v>0.7423582496803647</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>26.70269723275917</v>
+        <v>20.98987059265198</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.28856748888326</v>
+        <v>26.48466112697534</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.63132656842078</v>
+        <v>8.521900941132145</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.38171226619895</v>
+        <v>29.30248899621768</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.3805963661976</v>
+        <v>29.58541899146753</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-4.373643948691914</v>
+        <v>3.102525407597465</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.84587478832051</v>
+        <v>17.59612096019423</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>21.86055425353694</v>
+        <v>25.14116840948211</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>0.3158611895485564</v>
+        <v>6.249908756459536</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>31.58028240299154</v>
+        <v>33.96509511543963</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>38.66231253018731</v>
+        <v>43.39210755515342</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.1208424672944</v>
+        <v>33.07057517781629</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.90662797261383</v>
+        <v>42.17012250227749</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>45.86414270932119</v>
+        <v>47.72222303159128</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1.125629276731704</v>
+        <v>4.16298417182351</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>30.15739886022466</v>
+        <v>31.58212843627221</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.78615511728599</v>
+        <v>39.99608483100934</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>8.753716528720854</v>
+        <v>7.725283644534404</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.51150580126272</v>
+        <v>27.76032129650866</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.69420881566969</v>
+        <v>37.63182755075574</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-4.874103616321648</v>
+        <v>1.549856952406081</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>19.24728483574798</v>
+        <v>14.57016189120939</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.76808131995485</v>
+        <v>20.93891338098921</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1.048937581424273</v>
+        <v>3.964136396846023</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.2165513962855</v>
+        <v>29.31010996662618</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>44.45929959867851</v>
+        <v>46.32370263870337</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.84701941108166</v>
+        <v>40.45502975007042</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.29900804043051</v>
+        <v>53.29060181001304</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>58.59538145069303</v>
+        <v>61.04972679361194</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>3.311173572157731</v>
+        <v>1.992670587353228</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.73485088966403</v>
+        <v>30.65433803113751</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.67624278181603</v>
+        <v>47.05387996824454</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.557</v>
+        <v>16.571</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.674</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.204</v>
+        <v>17.057</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.984</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.43</v>
+        <v>6.635</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.282662345830811</v>
+        <v>4.816468484432166</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.57156613536375</v>
+        <v>5.963043977436994</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.65778306643641</v>
+        <v>14.16954632851355</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.892074423872167</v>
+        <v>-3.638815304237864</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.962650338271974</v>
+        <v>8.852854291406899</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10.18952319727984</v>
+        <v>11.13791537899963</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.949196244612615</v>
+        <v>1.379195628494546</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.01683965237446</v>
+        <v>21.8400672050494</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.05911095896031</v>
+        <v>26.86173218244776</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.7138291235747</v>
+        <v>13.252845920087</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.17849668356553</v>
+        <v>17.47957276716873</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.72572358362351</v>
+        <v>21.58369798732843</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.74032690563519</v>
+        <v>2.84637666888362</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9.593014816313397</v>
+        <v>5.078217884468859</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.54612107355472</v>
+        <v>15.36984215212595</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.985746388856461</v>
+        <v>9.975998756208689</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.52756276712167</v>
+        <v>22.00979872664363</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.54788057693118</v>
+        <v>32.87508612647425</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.164347117754232</v>
+        <v>-1.744882782744694</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.668944357469259</v>
+        <v>8.484577716574249</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.96982301898538</v>
+        <v>19.83740412328937</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.109922396655271</v>
+        <v>0.3213775094505689</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.76958263086312</v>
+        <v>24.27031520242791</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.07692018881022</v>
+        <v>38.17806070660177</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.75847567132893</v>
+        <v>22.6265598940966</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43.13839286213456</v>
+        <v>37.67665121722664</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.23648171926466</v>
+        <v>51.38698277252732</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.402775222786989</v>
+        <v>2.214186064377142</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.67084734482117</v>
+        <v>23.16337732623408</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40.68207736789151</v>
+        <v>35.39853556434392</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>11.18964666881578</v>
+        <v>12.59216705471072</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.74935598908853</v>
+        <v>25.11600591909875</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.88665377866204</v>
+        <v>35.71013579795339</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.554085676786571</v>
+        <v>-2.751152225123915</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>13.21137573966338</v>
+        <v>12.88779748543129</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.17082291872756</v>
+        <v>22.42355639623402</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.096720795242092</v>
+        <v>1.296862417043339</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.05611039435082</v>
+        <v>31.33596176645788</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44.52394704872458</v>
+        <v>46.12572662889227</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.40787797261073</v>
+        <v>36.21718848857796</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.58884838508946</v>
+        <v>49.92341215630558</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>61.31854741706363</v>
+        <v>61.72633777279194</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>8.097898580577411</v>
+        <v>6.50619077198157</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.22788003139502</v>
+        <v>32.9358502630627</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46.76855596323318</v>
+        <v>46.81901753794336</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.207762870893081</v>
+        <v>2.666557099874577</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.67777149182068</v>
+        <v>25.82169089963242</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.19145870017532</v>
+        <v>35.80080719892428</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.62300950478722</v>
+        <v>-0.7338804713414522</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.37024703588062</v>
+        <v>32.46593501651938</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.31480955174487</v>
+        <v>38.99169778530034</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.71649966385279</v>
+        <v>6.950982968364992</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55.04523607869559</v>
+        <v>54.89495730913222</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.5363874151913</v>
+        <v>62.2939776552407</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.66653847626273</v>
+        <v>41.21327432994944</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.04966995087773</v>
+        <v>48.25046462455835</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.15826836754746</v>
+        <v>49.85112689045432</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.321514339583722</v>
+        <v>1.928560069992473</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.9718723072036</v>
+        <v>30.70981538701175</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.55646203664139</v>
+        <v>43.8776197587021</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4.696717051992419</v>
+        <v>4.612437112439574</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.27262480401416</v>
+        <v>26.19286885436419</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.19197447869748</v>
+        <v>34.16825312092807</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.361402318389537</v>
+        <v>-5.163251336451003</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.81890437000422</v>
+        <v>18.8028768273741</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.72953677970105</v>
+        <v>28.7119892405957</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.284376313817109</v>
+        <v>-1.524057486678542</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.032439848193</v>
+        <v>39.07205368529946</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.58408219215505</v>
+        <v>49.35972339879945</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.4740646032347</v>
+        <v>37.40682890723035</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>53.10898607693085</v>
+        <v>49.893856955839</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>61.6623796808376</v>
+        <v>59.54761171448576</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.5231676871688506</v>
+        <v>0.3326134805053673</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.34971613678894</v>
+        <v>37.56670269111974</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>44.92611061915134</v>
+        <v>47.94050827270237</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.662234142990574</v>
+        <v>5.896196056766</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.18422602415519</v>
+        <v>29.75477812780311</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.81335497125723</v>
+        <v>41.33085054233526</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.060303905829873</v>
+        <v>-6.659740185402233</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22.8706808207458</v>
+        <v>23.39629398948628</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.64875689706901</v>
+        <v>34.68942860977607</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.933831981497235</v>
+        <v>2.057692766400583</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.95011891761523</v>
+        <v>48.41826433493819</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>66.41837378447505</v>
+        <v>65.28346644058412</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.21475908974806</v>
+        <v>49.2870307926286</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>67.73344526995641</v>
+        <v>64.58152069490785</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>74.05624823081152</v>
+        <v>75.57757194346128</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1.072079380446194</v>
+        <v>-0.01380454281045651</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.10914824572825</v>
+        <v>46.69573554076812</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>57.15116587394797</v>
+        <v>59.32366177721518</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.58557562579055</v>
+        <v>11.68867681748912</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.43999631475873</v>
+        <v>24.03264403864265</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.13067719905746</v>
+        <v>32.42267115390364</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.385753908270882</v>
+        <v>2.949111441605428</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.82212444047364</v>
+        <v>24.97870204950172</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.65133839936181</v>
+        <v>29.07384944940316</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.954540979248812</v>
+        <v>9.043839419420209</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>51.99605030815597</v>
+        <v>46.36455191771732</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>53.52630906811233</v>
+        <v>51.64177049513515</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.57556995834663</v>
+        <v>36.11045502578743</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.56683073749446</v>
+        <v>43.97173240884487</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43.12552437691853</v>
+        <v>43.47156257426028</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.10709117738216</v>
+        <v>8.299065724931664</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.52020373702242</v>
+        <v>24.96512743727945</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.39122850570122</v>
+        <v>34.620678913037</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.84209969813695</v>
+        <v>16.03326010180168</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.52752947395076</v>
+        <v>31.79309255101069</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.40356715595631</v>
+        <v>38.42872437892</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.025625032210407</v>
+        <v>1.642945121303617</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.05440501110276</v>
+        <v>21.55561930754684</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.13464009858938</v>
+        <v>29.29263325546291</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.798335924836497</v>
+        <v>5.958465723834363</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.29501292599834</v>
+        <v>42.02499387330614</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.1864431520544</v>
+        <v>50.7761138535819</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.73090453795505</v>
+        <v>41.93972201198953</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>55.89960917338916</v>
+        <v>53.95881878135323</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.49874247493228</v>
+        <v>60.19242375134136</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.74493892677476</v>
+        <v>12.3702577517378</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.56780303372665</v>
+        <v>39.11711833999158</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.92882321781593</v>
+        <v>48.4572472152466</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.54610875132999</v>
+        <v>14.72074603220672</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.49531438512224</v>
+        <v>32.76238336220903</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.46593675499469</v>
+        <v>44.24550042291088</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.71271437557153</v>
+        <v>-2.421949896453215</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.2104503905522</v>
+        <v>23.93572886815184</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>31.19111830829345</v>
+        <v>33.74861546146968</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.357620330992141</v>
+        <v>5.683630162015369</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.52353060211531</v>
+        <v>47.95149771436485</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>65.87445062974844</v>
+        <v>63.91947688619077</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.80788593241535</v>
+        <v>52.6224893759126</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>64.73794547066015</v>
+        <v>67.08870981320744</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>73.05357268217436</v>
+        <v>74.66174895942794</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>12.26165804133268</v>
+        <v>10.19569017285347</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.68804937920946</v>
+        <v>47.15352982734962</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.68527073075916</v>
+        <v>59.94324117110236</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.536371414091057</v>
+        <v>6.018876462340163</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.77944030761295</v>
+        <v>7.304985530990914</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>15.32943818551244</v>
+        <v>13.99569661663666</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.288412274891616</v>
+        <v>-2.231729961683753</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>7.537844155341457</v>
+        <v>8.636621218452703</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8.749383422059806</v>
+        <v>10.26696583660896</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.421903009014212</v>
+        <v>3.252607329301497</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>18.78435799749023</v>
+        <v>21.94737615154988</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>20.50629282484485</v>
+        <v>25.89554801047058</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.12590559870281</v>
+        <v>17.78137507993265</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.54857120857929</v>
+        <v>20.09144853984178</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.81350115353504</v>
+        <v>25.47288328083347</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>52.73886093640911</v>
+        <v>26.15515610888211</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.94378802613486</v>
+        <v>26.84461673200627</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.40578349009344</v>
+        <v>34.37056986291817</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.840366711822423</v>
+        <v>9.318917219173905</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.28350351167261</v>
+        <v>20.36693765611346</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.89820804588982</v>
+        <v>30.87673489252485</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.5737575162966415</v>
+        <v>-1.550183898712993</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>6.455873201664652</v>
+        <v>6.616460557752534</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15.3724590496021</v>
+        <v>17.79255730495284</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>2.60733492859546</v>
+        <v>-1.958627609440514</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>18.38102008757655</v>
+        <v>19.02578779608691</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.32654029779855</v>
+        <v>32.56527277104313</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18.77371281055625</v>
+        <v>15.19839878072948</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.94614494940927</v>
+        <v>32.18089057836421</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.77899925047129</v>
+        <v>47.64809953795331</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.824442468703641</v>
+        <v>6.089332884436004</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.24240243667835</v>
+        <v>23.94495938535616</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>32.04511860129851</v>
+        <v>33.73157974568833</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.23098125814033</v>
+        <v>14.03377249468424</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.08596406037377</v>
+        <v>24.07771431378509</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.33804549355963</v>
+        <v>35.00850618930667</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.078503375771245</v>
+        <v>-1.616465304084953</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>11.05350528023489</v>
+        <v>10.80402580111889</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.57311107844853</v>
+        <v>21.28422650960009</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4.831596885926938</v>
+        <v>2.273982825524628</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.64994194223956</v>
+        <v>28.20353478597367</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.77044544060399</v>
+        <v>43.99881543101443</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.10018800084122</v>
+        <v>29.294521524663</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.50026755380701</v>
+        <v>42.81906016807901</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>53.9041011761034</v>
+        <v>58.64557522143675</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>12.99658441721425</v>
+        <v>10.94825700367632</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.15769705853518</v>
+        <v>33.01942814145518</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.27330581168069</v>
+        <v>45.40591309413225</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.124299019665973</v>
+        <v>6.477278891887382</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.67464322926291</v>
+        <v>17.10007451688342</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.40961485312043</v>
+        <v>25.54080901870173</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.843084841244007</v>
+        <v>2.061068732408051</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.83314721840996</v>
+        <v>26.50960215436063</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.1439724063105</v>
+        <v>29.20179052432424</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.49537363179893</v>
+        <v>11.75785259893211</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52.17435705493348</v>
+        <v>44.71667313207286</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>55.48810152950757</v>
+        <v>49.7176574000801</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.40953428455411</v>
+        <v>27.272426058462</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.69057999444264</v>
+        <v>31.8596913937452</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.08731444379374</v>
+        <v>33.72578369674149</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.62454971582991</v>
+        <v>8.998427156617693</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.46322043592585</v>
+        <v>15.2293985499414</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.54403875069735</v>
+        <v>24.20961322051135</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.29786458606538</v>
+        <v>17.17739079108102</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.41707350370663</v>
+        <v>33.19274976920061</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.23441990704467</v>
+        <v>39.69593403799912</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3.907985327195881</v>
+        <v>5.578338271215955</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>23.96579100030667</v>
+        <v>24.14085779394681</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.87402613080202</v>
+        <v>31.10971577164622</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>9.7894723526042</v>
+        <v>11.40046744605351</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.43905708930588</v>
+        <v>43.36023144551068</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>49.50001038182117</v>
+        <v>52.49454194401063</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43.7894734712321</v>
+        <v>40.63548147101162</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>58.05460992182696</v>
+        <v>57.2434666247166</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64.25628118895463</v>
+        <v>66.27330432647389</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.87901018536992</v>
+        <v>20.99125445196513</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>46.08623717243358</v>
+        <v>42.11698450012969</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.66403595432278</v>
+        <v>49.61758979744519</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.500261868533</v>
+        <v>17.51462946296743</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.34565486645768</v>
+        <v>31.30686000890397</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.75973241090233</v>
+        <v>41.33684066402542</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3.664071733050342</v>
+        <v>0.5925002474315786</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.84597850529758</v>
+        <v>20.44281349413361</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.66259354456118</v>
+        <v>29.5735320380565</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>8.159736569196014</v>
+        <v>8.694051232457337</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.60140958919179</v>
+        <v>42.7501360099031</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>57.31670880559009</v>
+        <v>57.57225064575144</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.83362891720522</v>
+        <v>45.38937134998923</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>62.43585055554193</v>
+        <v>61.1361599546938</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.73564641901005</v>
+        <v>71.39292619949774</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.21517600332121</v>
+        <v>16.20665880104774</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47.57950995773091</v>
+        <v>44.24825523218885</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>58.6499946341526</v>
+        <v>55.80589492347968</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.4383223874070872</v>
+        <v>0.5031021335940729</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.08225834905011</v>
+        <v>14.67992211042186</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.69926990321974</v>
+        <v>25.70735933944851</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1.735095805018666</v>
+        <v>2.871386839592832</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.01861515934262</v>
+        <v>30.48360946485813</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.05484008567245</v>
+        <v>36.31975190758077</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>8.167382443569517</v>
+        <v>11.79957176796459</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>59.61327747130537</v>
+        <v>52.74891719435295</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.01947542514155</v>
+        <v>58.98722866282348</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.14897097237645</v>
+        <v>32.21863275308161</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.7235397948524</v>
+        <v>35.24946367128866</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.64941508024822</v>
+        <v>36.70399806865006</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.074227096741305</v>
+        <v>3.277549632527332</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>9.713787615085474</v>
+        <v>8.159307376962385</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>12.90080425065987</v>
+        <v>19.05158084031306</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>13.21032901741043</v>
+        <v>14.54462601721759</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.34718468529698</v>
+        <v>38.17403422175931</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.516327190513</v>
+        <v>43.0362122125427</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1.948546879491929</v>
+        <v>-1.926478607959909</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.73447354905847</v>
+        <v>30.7435305520917</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.71151533559762</v>
+        <v>36.74639340310003</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>3.68804113074944</v>
+        <v>6.131738374661076</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>55.43569379630075</v>
+        <v>53.72990483512313</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>58.35126113122094</v>
+        <v>59.17955526731589</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>41.99636297441364</v>
+        <v>46.23778015717532</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>59.28683174169492</v>
+        <v>59.61336302456688</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>66.23791245984461</v>
+        <v>66.44432743197311</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>10.5724160054796</v>
+        <v>13.70075315924327</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>52.02750162818908</v>
+        <v>50.94841928899876</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.56390883915414</v>
+        <v>57.20417463132763</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.70855046073833</v>
+        <v>17.84703580632659</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>40.67868013159789</v>
+        <v>38.63897416953368</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>43.88853956567151</v>
+        <v>48.18541616745869</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1.813618181436883</v>
+        <v>-5.364320350030708</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.27880912718874</v>
+        <v>27.19468711765464</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>30.84212280669795</v>
+        <v>35.27270166956848</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>5.997351269541692</v>
+        <v>7.080133076949091</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>52.04226380275583</v>
+        <v>53.84403014567314</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>65.35035517877012</v>
+        <v>66.74889148959697</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>53.19251891632032</v>
+        <v>52.14949382404112</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>69.43208199322162</v>
+        <v>67.74836066226941</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>74.5842841729131</v>
+        <v>75.05992062984566</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.312322945480963</v>
+        <v>9.678489517752082</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.75945078716383</v>
+        <v>53.76916798082443</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>61.24995795214089</v>
+        <v>62.40063624925344</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>7.915037547873958</v>
+        <v>6.663793615869684</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>7.099761535321608</v>
+        <v>-0.08694124238999379</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>9.901810745714787</v>
+        <v>8.334279797235244</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>2.28968064608349</v>
+        <v>0.3994629123078983</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>7.321703503994424</v>
+        <v>5.125293775198909</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>6.885146683507966</v>
+        <v>8.584583198891044</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>6.375760863995239</v>
+        <v>2.283125995274942</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>14.62885525830619</v>
+        <v>16.75338858553676</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>17.62963516053619</v>
+        <v>21.28954531509338</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.94955171484558</v>
+        <v>13.149787543468</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.09544159994214</v>
+        <v>19.13820759531826</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.23979372774582</v>
+        <v>20.73684492045638</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.185238737724873</v>
+        <v>3.999432515465717</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.310879880139204</v>
+        <v>-0.3051947298553337</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.075116245680194</v>
+        <v>6.568722792367668</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.777998517472438</v>
+        <v>8.563262803890501</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.4146351548708</v>
+        <v>18.29699379732224</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>33.09035919283737</v>
+        <v>30.05752581578499</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1.689179179322601</v>
+        <v>-1.973901316926176</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.2900756328906</v>
+        <v>9.591947384930307</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.18821195311088</v>
+        <v>22.39277254084981</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.024363354476808</v>
+        <v>-0.3257102929629774</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.31757157645011</v>
+        <v>24.67974991933671</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.16105237469093</v>
+        <v>38.10613275256474</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.80132933122611</v>
+        <v>25.1750699893941</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.64867101620681</v>
+        <v>37.65770741762094</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>48.44860194958778</v>
+        <v>47.79837345666164</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.668311021089366</v>
+        <v>3.082459350814249</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.95618197940751</v>
+        <v>25.17357449685903</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>41.01990614196957</v>
+        <v>34.73220361980054</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>7.114822016688294</v>
+        <v>8.63304833357183</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.66756191535383</v>
+        <v>20.30740961927753</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.30344928926473</v>
+        <v>33.38205737385912</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.9594234773025683</v>
+        <v>-4.917382556109187</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.79448015254412</v>
+        <v>12.95189642353558</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>23.62230491762082</v>
+        <v>25.13557794870762</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>4.587305498301632</v>
+        <v>1.013954501182884</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.39139329231298</v>
+        <v>32.40603852422032</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>45.49880377373586</v>
+        <v>48.50583828158399</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.08886367580575</v>
+        <v>38.74826494086954</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>59.01545016520922</v>
+        <v>53.71370888012988</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>62.10331481919471</v>
+        <v>60.16265893406706</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>8.0215279206295</v>
+        <v>9.818251176128795</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>37.91430080898625</v>
+        <v>36.11390783704724</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.95136719749206</v>
+        <v>50.04337127110053</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1.965329821593105</v>
+        <v>-0.9927097499050053</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>7.621541671959653</v>
+        <v>0.4837121052363695</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>11.40669790990645</v>
+        <v>7.135627849245013</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>2.552296418108501</v>
+        <v>-3.907505306819266</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7.69860088300044</v>
+        <v>7.011610276852105</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.2973834862591</v>
+        <v>7.833637122165932</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>2.554655063515987</v>
+        <v>-4.89337963524545</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.86098790551419</v>
+        <v>15.75596844094402</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.77453833337003</v>
+        <v>18.99334849930716</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.4322149923051</v>
+        <v>5.893095001944516</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>14.24711032022874</v>
+        <v>9.62330385862227</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.11166993638948</v>
+        <v>11.42128603614889</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.6192083207072</v>
+        <v>0.2184800363579456</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.498024142895209</v>
+        <v>-0.2727531476612555</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.31260536414124</v>
+        <v>3.626054977179455</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.723710134294873</v>
+        <v>-1.550381417142335</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>6.25677688635065</v>
+        <v>1.907654285323487</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>17.43269584933546</v>
+        <v>12.08666347808183</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>3.207517698060457</v>
+        <v>-5.083408997798285</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1.104728950420814</v>
+        <v>-3.493387561961127</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>9.077186638505038</v>
+        <v>7.050508688193188</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>3.293140626324856</v>
+        <v>-8.293284654904566</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>5.932673022203019</v>
+        <v>7.519631543844346</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.46454158651683</v>
+        <v>20.27787115460104</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>6.238195478534184</v>
+        <v>3.361093279570639</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.36325458688375</v>
+        <v>22.13690116406882</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.65208208764525</v>
+        <v>35.42440696283867</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-0.9403216539197778</v>
+        <v>-6.617400090333048</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>7.130035197815314</v>
+        <v>1.994660340452331</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>9.535145862900269</v>
+        <v>8.918848696553335</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.09265862325965557</v>
+        <v>0.7099575775598179</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>6.914487110651354</v>
+        <v>3.582867907792702</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.0934491037691</v>
+        <v>20.37297990850513</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>2.813875911835186</v>
+        <v>-7.502075346427715</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1.888287650323687</v>
+        <v>-2.331572573467716</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.55861190376477</v>
+        <v>13.77250282738931</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3.048955574424443</v>
+        <v>-6.917501815964959</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>11.17067378281905</v>
+        <v>13.02925252502972</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.51738943104414</v>
+        <v>34.84494083850591</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.4251099349407</v>
+        <v>13.58746254320232</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.12189120478497</v>
+        <v>33.13431200703597</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.76806813487428</v>
+        <v>49.05605735063934</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1.414335986766307</v>
+        <v>-9.153625210280746</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.68541433733215</v>
+        <v>7.797622604827197</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.91812276344944</v>
+        <v>21.83314646173978</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.62330980118158</v>
+        <v>1.814205732047402</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>14.43340266099413</v>
+        <v>17.70148689986705</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.98232827841262</v>
+        <v>33.71000458696469</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.887084131715092</v>
+        <v>-2.02993933063083</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.86939700473752</v>
+        <v>35.1969223423427</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.66441589431417</v>
+        <v>43.38216403557296</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.876204137884635</v>
+        <v>7.511854152025796</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>57.98913359135192</v>
+        <v>56.32632562256648</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>63.37199656083864</v>
+        <v>66.36838059529994</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.92212143415044</v>
+        <v>40.66211546625561</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>43.90893555204592</v>
+        <v>49.41986914572162</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.96991033058961</v>
+        <v>49.13233208203742</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.05645307248366</v>
+        <v>13.54899825059451</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.36189022217087</v>
+        <v>31.42133535846523</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>61.7894185095742</v>
+        <v>51.1955128315597</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>8.197368615263297</v>
+        <v>7.31161199688705</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.57296395618686</v>
+        <v>23.59133668323337</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.13377887047232</v>
+        <v>31.80015457604408</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.544015002806567</v>
+        <v>-5.10708528345585</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.36419928964419</v>
+        <v>19.93894700465008</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.77901441634457</v>
+        <v>27.18660501613679</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.791436821340991</v>
+        <v>-1.517649147986338</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.07346957595282</v>
+        <v>38.95250494052851</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>43.5966207178295</v>
+        <v>47.45026291690625</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.78062166311593</v>
+        <v>36.02365167900081</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>46.13832496969655</v>
+        <v>45.66862749301443</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>51.39512631513038</v>
+        <v>51.56174660970993</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>13.97059429442141</v>
+        <v>7.802265913095025</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.70431719856244</v>
+        <v>37.52596291229241</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.42807596878777</v>
+        <v>45.64128216682578</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>10.60514756345684</v>
+        <v>9.907645520210151</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.72927068761663</v>
+        <v>27.04380104213472</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.81709494363959</v>
+        <v>40.05456716432198</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>2.436188268254234</v>
+        <v>-3.78177708307342</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.7484300325757</v>
+        <v>25.6416897528076</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>33.25073983253233</v>
+        <v>36.0206612119858</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>6.593846926833788</v>
+        <v>4.141433735676982</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.5241856009267</v>
+        <v>48.38125675537241</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>64.55036731516707</v>
+        <v>64.66419826175374</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>47.30500055620236</v>
+        <v>49.84613558858327</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>62.16787434000535</v>
+        <v>63.18540298873604</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>67.66602248404322</v>
+        <v>70.72922840744717</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.18428862233741</v>
+        <v>9.386877143600657</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>48.23242404414599</v>
+        <v>47.2071863095672</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>60.9318624739557</v>
+        <v>62.69105698099686</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>7.868798569616184</v>
+        <v>4.621756138592811</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.855133281616837</v>
+        <v>3.265008728635184</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>10.82373914357468</v>
+        <v>9.283338981991605</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4.533812849405709</v>
+        <v>-1.205280693849007</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.712817600724517</v>
+        <v>-2.105423560464216</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.924147257505767</v>
+        <v>1.790716414234423</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>7.595740409336294</v>
+        <v>0.6242617126481758</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.16237562723899</v>
+        <v>11.88231432499768</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>14.98277026615106</v>
+        <v>16.54344403017486</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>11.55608723360487</v>
+        <v>9.217763536326165</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>14.88638031621339</v>
+        <v>10.83619576377464</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>17.09736992646025</v>
+        <v>16.07819983441737</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>6.268058082585231</v>
+        <v>-6.478148302406291</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>5.40948929875541</v>
+        <v>-3.667179033795128</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.327713174795761</v>
+        <v>2.073467359583214</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>5.515246188177272</v>
+        <v>2.068753849735744</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>13.72986942378452</v>
+        <v>9.836774090542798</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.68376715221412</v>
+        <v>20.83144495155254</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>1.230762366246818</v>
+        <v>-5.31457332884605</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.183236547516721</v>
+        <v>-2.534799922969819</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.6726713823195</v>
+        <v>10.70055465998658</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>3.332151535622348</v>
+        <v>-6.011869887832725</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.509080903064191</v>
+        <v>10.41429828583036</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.53558404514825</v>
+        <v>24.07028836048397</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.325151434961752</v>
+        <v>6.957171140416493</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.90845057104774</v>
+        <v>17.39251860951444</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.93966986263877</v>
+        <v>29.92445074601069</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.5894694104664104</v>
+        <v>-9.554186784069492</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>7.696725918655508</v>
+        <v>7.950934956328246</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.40963826855248</v>
+        <v>19.60813349018994</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>7.618072424681383</v>
+        <v>6.025422009803847</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.7993220534932</v>
+        <v>13.50197216168064</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.04163141930874</v>
+        <v>26.96408430529959</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2.848008779855366</v>
+        <v>-5.59253044634835</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>4.122661432318381</v>
+        <v>0.4312284490079765</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.88740825672835</v>
+        <v>14.38784389661034</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>6.52398117872524</v>
+        <v>-1.516906794612728</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.53559598144284</v>
+        <v>18.19996947146797</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.46218938867398</v>
+        <v>35.99578040330188</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>19.1667700920173</v>
+        <v>19.24025070823061</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.72854186664653</v>
+        <v>30.42551969330087</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>44.60011329321802</v>
+        <v>46.31815685210577</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.185279030807457</v>
+        <v>-1.107014124416947</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.17204440027628</v>
+        <v>18.46670415299176</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.22908302804102</v>
+        <v>32.10914025724731</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>1.542324839500928</v>
+        <v>-4.456587497629974</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1.230859855662143</v>
+        <v>-2.325382853499553</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>5.796654818144507</v>
+        <v>3.428056752323892</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>3.405883738780819</v>
+        <v>-5.429759221679715</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.058381806314678</v>
+        <v>-1.970516203989122</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.925406022109346</v>
+        <v>1.775906977914232</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>5.584276720716119</v>
+        <v>-5.929752391848668</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.364424287398206</v>
+        <v>14.09193580998161</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.85421013778376</v>
+        <v>17.85308614954857</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>8.708250925307221</v>
+        <v>7.069737068994524</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8.723925749065081</v>
+        <v>6.656621863989079</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.93630050875405</v>
+        <v>9.134484642100649</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>2.207848793265633</v>
+        <v>-11.05467565382206</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.5255359384587877</v>
+        <v>-11.96167154437398</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.7056106646747189</v>
+        <v>-6.948300678303477</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.05591421088146</v>
+        <v>12.51459906687117</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.04836948545892</v>
+        <v>27.18231840383282</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.73226749913275</v>
+        <v>31.26363635511316</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1.950511748618684</v>
+        <v>0.2154229670920866</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>18.36707709875999</v>
+        <v>17.80676503906708</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.93123616986278</v>
+        <v>24.12088010837354</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.604391316913597</v>
+        <v>4.001389167659926</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.22662368402699</v>
+        <v>36.90355268089981</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.8557545055658</v>
+        <v>43.06335884212641</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>35.46374714406318</v>
+        <v>34.93798939420314</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.23657746195251</v>
+        <v>45.23890001122433</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>47.57298480280338</v>
+        <v>51.51203235482426</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>14.33023870551012</v>
+        <v>9.389627180783606</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.28009881478042</v>
+        <v>33.52922745558102</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.44398512028243</v>
+        <v>41.13147191445841</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.7401677725948</v>
+        <v>15.27126867617588</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.94582287708903</v>
+        <v>30.9933136328284</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>43.7787960626994</v>
+        <v>40.64051266077487</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1.397235564321079</v>
+        <v>-2.532565347906301</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.69646757564809</v>
+        <v>20.04711794249828</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.53180773003844</v>
+        <v>28.57891312662895</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>6.548840911397239</v>
+        <v>5.415497115884371</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>42.31294976911946</v>
+        <v>42.87370318901262</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>58.33154072812454</v>
+        <v>56.56292538557002</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.79512065078364</v>
+        <v>46.8260364857793</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.25780545232745</v>
+        <v>58.89183017926143</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>65.5433484310868</v>
+        <v>66.59793135128949</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.324341829855298</v>
+        <v>8.309305524878431</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>43.42012674363886</v>
+        <v>42.89116251155468</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>51.05753352660929</v>
+        <v>51.64669866057891</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.6660842476778</v>
+        <v>9.414138037059342</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.7736604593118</v>
+        <v>9.842943228348055</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>13.66316495647685</v>
+        <v>14.93321464117539</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>5.86159686179758</v>
+        <v>4.155882230784551</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.65382407873681</v>
+        <v>7.810993849576667</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.98440475325142</v>
+        <v>11.36694559129639</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.74248743169872</v>
+        <v>7.268982356754032</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.611812670052</v>
+        <v>23.53862433764349</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.49377900386967</v>
+        <v>27.11312360358448</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.46661597514757</v>
+        <v>16.52704086549103</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.64142538273289</v>
+        <v>19.7590586401741</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.17337162774361</v>
+        <v>23.15229416393754</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.65339659723742</v>
+        <v>7.21443392609908</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>8.314073028416249</v>
+        <v>7.663594137433209</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.29210879683588</v>
+        <v>14.39772786582347</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>4.021736235039931</v>
+        <v>2.844281678868192</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.73877933334377</v>
+        <v>4.808052095404843</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>20.16682603598812</v>
+        <v>14.21351469494835</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>3.153448629460396</v>
+        <v>-2.379195922344993</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1.425803776848813</v>
+        <v>-4.212315792681453</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.81141893032906</v>
+        <v>8.437645541242668</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1.665209212395812</v>
+        <v>-5.226598152357655</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>4.488303450681826</v>
+        <v>6.795111085500226</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.95996252254182</v>
+        <v>19.441834390515</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>8.112553204639102</v>
+        <v>4.89342979951094</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>13.49486991409838</v>
+        <v>11.96075457079563</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.27767573661352</v>
+        <v>25.12918795347483</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.010541775236884</v>
+        <v>-3.940713860998423</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>5.563001820705786</v>
+        <v>3.464231997389712</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>11.66147907453905</v>
+        <v>14.28027879279172</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.02744253566838</v>
+        <v>12.81677869851876</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.5781469943455</v>
+        <v>19.26595089843162</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.91423098536136</v>
+        <v>28.41557789613729</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1.334899615471198</v>
+        <v>-1.838023018080191</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.46584222106364</v>
+        <v>5.783560180377298</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.32486180030519</v>
+        <v>15.86690299066815</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.994080400404286</v>
+        <v>5.32618736265257</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.97323910050909</v>
+        <v>27.05539118689199</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.71007389589024</v>
+        <v>41.26659464391885</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.13808146766155</v>
+        <v>24.14781578779314</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>32.51604824530038</v>
+        <v>33.8658584659948</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.19191429839252</v>
+        <v>44.62917669955339</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>5.034556875304983</v>
+        <v>8.029695612477827</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.30627749990826</v>
+        <v>21.99678317922116</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.48399571359378</v>
+        <v>31.58132998724304</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.186458541392181</v>
+        <v>5.094805790487269</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.844700449512768</v>
+        <v>0.03599026703724562</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.850810565701231</v>
+        <v>0.8024141686463526</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.517961594584875</v>
+        <v>6.713994720627509</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.520575071091603</v>
+        <v>-1.523425063418356</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.036421976862382</v>
+        <v>-0.6247813969985163</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.046683207500248</v>
+        <v>3.391108946023731</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.001606267328583</v>
+        <v>7.715896479421895</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.176779284041025</v>
+        <v>7.854630193715794</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.766233008299281</v>
+        <v>1.789259560887047</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>4.085967639950681</v>
+        <v>-0.09153139490556583</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>8.493697588390503</v>
+        <v>2.716634611313507</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.657928696254864</v>
+        <v>3.11937624376055</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>4.744612727465675</v>
+        <v>-3.081710689939237</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>4.90290523562539</v>
+        <v>-1.578601922438322</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.045996513364042</v>
+        <v>1.678078424878809</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.679316903585438</v>
+        <v>-0.38766221538312</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.01955757141587</v>
+        <v>2.874686472616402</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.772652564015161</v>
+        <v>2.276347931194421</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.235335755747187</v>
+        <v>-6.186314837344346</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.838007913688681</v>
+        <v>-0.1970920488242509</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.843396838461395</v>
+        <v>-5.290025364507761</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>3.219987234454567</v>
+        <v>-1.196573547354594</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.459037946518883</v>
+        <v>4.284680859944613</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.259394583859411</v>
+        <v>-5.823729364510717</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.109473555333537</v>
+        <v>0.1169288134653783</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.101998133232179</v>
+        <v>7.121041038280845</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>2.477271492232617</v>
+        <v>-5.2844935218149</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1.407658588339874</v>
+        <v>-4.951027640555933</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>1.793133859312562</v>
+        <v>-1.805127427495416</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.7056105862889</v>
+        <v>13.87284688757737</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.48529509569077</v>
+        <v>14.26484742935442</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.59321922809735</v>
+        <v>19.95158147835531</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>3.368898776943304</v>
+        <v>3.385661059554067</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>10.02847348643794</v>
+        <v>2.106193379978272</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.61476816883337</v>
+        <v>8.627290259285385</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.973108753626377</v>
+        <v>6.064595178607645</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.95177406330669</v>
+        <v>17.51959968822272</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.63574293077399</v>
+        <v>27.32920125472548</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>19.10265823530314</v>
+        <v>15.14201838226115</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.9333736739306</v>
+        <v>21.19869663715412</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.2896866961518</v>
+        <v>29.11011841211271</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.04781158414996</v>
+        <v>8.965640157170169</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>18.70964732582516</v>
+        <v>13.94231524561867</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.18618932602412</v>
+        <v>18.34884554657285</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.62748766906389</v>
+        <v>16.33784843992278</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.36197334909344</v>
+        <v>20.71672861373827</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.77636759327479</v>
+        <v>29.35065082349087</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>2.783268233021818</v>
+        <v>2.501729647015893</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.19020910246846</v>
+        <v>17.74896678595879</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.85615083533862</v>
+        <v>20.26027450756096</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.18765319307396</v>
+        <v>12.73427115835209</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.03627433035611</v>
+        <v>36.76607510068383</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.50885025807686</v>
+        <v>41.7842805422249</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>30.57443769127411</v>
+        <v>29.00240825858799</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.99122781999776</v>
+        <v>33.61858486014754</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.58803577299776</v>
+        <v>36.78394836971928</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.82661545069957</v>
+        <v>22.4347104937079</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.07187604110753</v>
+        <v>28.65756902844603</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>41.09870029042973</v>
+        <v>37.62733079174144</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.75155531292509</v>
+        <v>11.4781106473808</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.88620925058107</v>
+        <v>18.24088998692453</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.04241961667352</v>
+        <v>26.17993107778045</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>3.839872773229203</v>
+        <v>-4.917134710021527</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.113756222902094</v>
+        <v>-1.401266550298216</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.89266894747807</v>
+        <v>5.644404112502285</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.293550041305318</v>
+        <v>-3.339300873438136</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.60300982929544</v>
+        <v>14.31209127819613</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.80477365616181</v>
+        <v>24.26675604968973</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>15.56992321459253</v>
+        <v>12.4107795668176</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.90227660068995</v>
+        <v>22.3652319275062</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.9159839825668</v>
+        <v>31.48419135512812</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>11.44472490520643</v>
+        <v>2.221869437093051</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.90273979780647</v>
+        <v>15.11513919994572</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.51531155771429</v>
+        <v>21.58027142740256</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.48015473157164</v>
+        <v>17.08415929391025</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.28518926917002</v>
+        <v>24.77876567751692</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.52943484822336</v>
+        <v>34.1887895467636</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.801928849370565</v>
+        <v>-1.962438458735276</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>11.8227509827605</v>
+        <v>8.104993566607911</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.55672753894003</v>
+        <v>15.10671610876861</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>9.100068349472037</v>
+        <v>4.059069580897043</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.43610147799451</v>
+        <v>28.85129625942205</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>42.72621322781965</v>
+        <v>41.44934111812812</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.83839293054246</v>
+        <v>32.97154040073039</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.29181342576429</v>
+        <v>43.62125513592542</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>48.92063619075937</v>
+        <v>51.38703647916065</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.49680142482246</v>
+        <v>12.70587689465062</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>32.78279848687272</v>
+        <v>31.00815653116499</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>38.57370715907819</v>
+        <v>40.04811193839807</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.63128317635515</v>
+        <v>12.98494960703479</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.76833407795537</v>
+        <v>28.1458304762031</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.02646775730476</v>
+        <v>37.7004489183264</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>3.776175895226043</v>
+        <v>5.262823984103543</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.43526036152442</v>
+        <v>26.22562235347657</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.00877967703231</v>
+        <v>34.34063454980016</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.52129404826059</v>
+        <v>14.69865819948667</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>50.15438876013047</v>
+        <v>48.79286167482922</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>59.83876987491043</v>
+        <v>57.52345669864552</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>46.30741426591857</v>
+        <v>45.96459464461557</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.33521029793044</v>
+        <v>47.10276817728512</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>55.85549850699122</v>
+        <v>54.04829775044213</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.56528353876732</v>
+        <v>9.363854540760849</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.23321644494606</v>
+        <v>31.10349512718786</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.14641212329782</v>
+        <v>43.5798089131689</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.04446694148639</v>
+        <v>9.237510525619633</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.50606132340487</v>
+        <v>24.33430999194536</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.20429882547489</v>
+        <v>31.55560072038637</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>3.087243628167116</v>
+        <v>-2.273621328323726</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>15.60073725266252</v>
+        <v>12.48649573188542</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.71189785977598</v>
+        <v>21.96946600867901</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.683932873354937</v>
+        <v>-0.138795787874157</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.59904492658991</v>
+        <v>28.86523700446719</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.79269606910013</v>
+        <v>38.96617517253198</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.50833236004755</v>
+        <v>31.68141667214496</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.77544017250374</v>
+        <v>39.20939833771369</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.24223837646139</v>
+        <v>47.77223245561868</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>7.048527801081079</v>
+        <v>1.998978511813197</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.63466305528258</v>
+        <v>27.13284187510962</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.08371207659322</v>
+        <v>38.11255706632262</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>6.332427041519974</v>
+        <v>6.704631918522937</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.33129535092804</v>
+        <v>23.87449386798368</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.32292143419511</v>
+        <v>35.86059688418592</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1.722857077638388</v>
+        <v>-6.434667385897511</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>14.99246450573011</v>
+        <v>14.32727058042776</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.451499651299</v>
+        <v>27.17232946929679</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>4.211763828508676</v>
+        <v>-0.4735431638918879</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.96808898027904</v>
+        <v>34.36005953597169</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>56.42523721846791</v>
+        <v>52.00278758720647</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>37.14480808300225</v>
+        <v>38.31025951900423</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.64115794013629</v>
+        <v>49.40329310385867</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>67.77769468294825</v>
+        <v>62.97806915179282</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>4.131671381700684</v>
+        <v>-1.68009237171818</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.01394413801755</v>
+        <v>33.02455865518785</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>51.92951361816489</v>
+        <v>47.3941442732327</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>10.28806101909803</v>
+        <v>6.780938970149428</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>18.98639996351838</v>
+        <v>20.09358460592136</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.78410608185689</v>
+        <v>32.47633120940702</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>3.826336689520812</v>
+        <v>2.669653164475241</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.5293659126899</v>
+        <v>32.88755980846491</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>44.1531555707201</v>
+        <v>37.96368039226262</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.28941760129723</v>
+        <v>11.01777778641863</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>54.57962605395542</v>
+        <v>50.28305824917591</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>63.49488831206251</v>
+        <v>58.34400261749493</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.53269051082874</v>
+        <v>34.20734690685026</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.61927901822662</v>
+        <v>39.41396284777875</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>39.4761640052764</v>
+        <v>41.43498603600559</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>12.71970068437743</v>
+        <v>11.46542417605245</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.2003928216181</v>
+        <v>25.91145529738701</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.84526339784193</v>
+        <v>42.27770075666654</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>12.95716328906714</v>
+        <v>8.319161346471766</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.4975214852942</v>
+        <v>23.89578907654359</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.70072658056193</v>
+        <v>31.89079164728491</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>3.714291914124345</v>
+        <v>-2.70234717671415</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.07327088371197</v>
+        <v>15.06775965181946</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.32579635366529</v>
+        <v>22.48309617588141</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>5.25593053952403</v>
+        <v>-0.1400067080471938</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.83943585038118</v>
+        <v>32.51186061229606</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.66841427231395</v>
+        <v>42.77691177548532</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.35426454413477</v>
+        <v>28.33990246954932</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.3735870803496</v>
+        <v>40.92376119452246</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.57958421973261</v>
+        <v>50.72541339904029</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>6.832049651429948</v>
+        <v>3.258037262553337</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.17113612534079</v>
+        <v>28.27919935096159</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.47682500855048</v>
+        <v>37.94088962916018</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.525064058374271</v>
+        <v>10.35031583016075</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.5250026901177</v>
+        <v>26.0043133449077</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.80475502543767</v>
+        <v>36.6928420500659</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>3.226287289177559</v>
+        <v>-2.63604394519958</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>22.96239743161758</v>
+        <v>19.53541697422888</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.63770945140685</v>
+        <v>28.39070669285683</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>5.389538182371041</v>
+        <v>2.117269233777266</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>39.45145050215666</v>
+        <v>39.5774732000416</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>55.5856918116986</v>
+        <v>54.73345736918059</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.37792660902657</v>
+        <v>41.83646521016683</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>58.37607603001815</v>
+        <v>55.01940916382136</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.6731779689795</v>
+        <v>65.90718223804464</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>7.310779889438354</v>
+        <v>4.126417457066283</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>39.38355566810028</v>
+        <v>36.83570933252101</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>53.63045583870742</v>
+        <v>51.31267928147317</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.95117877115103</v>
+        <v>15.64968109854641</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.71884651542769</v>
+        <v>21.90659393801181</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.13176504833731</v>
+        <v>32.19995768257839</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>10.95456060145241</v>
+        <v>15.84596455155889</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>42.09174443728239</v>
+        <v>38.67321682751372</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>47.19376404217894</v>
+        <v>42.60486798974558</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.33539320495812</v>
+        <v>19.70313037969464</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>50.79796490974192</v>
+        <v>48.464034681985</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.3370787339403</v>
+        <v>55.35984472015362</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.49891783192349</v>
+        <v>35.00051339822522</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.74228648280382</v>
+        <v>37.89467206584725</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.9193337160747</v>
+        <v>41.62889142148698</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.02554566467039</v>
+        <v>22.6348224877125</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.83682278755436</v>
+        <v>26.78988280681492</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>42.35138743254628</v>
+        <v>41.16027374163868</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>19.68452596071571</v>
+        <v>18.43696682917633</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.27150860453449</v>
+        <v>29.24133639871045</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.85932367398265</v>
+        <v>37.11157586396192</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.83129438849219</v>
+        <v>21.47268233709196</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.02002651986489</v>
+        <v>33.51901495659631</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>45.90241713035364</v>
+        <v>41.0874914082704</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.00093850264769</v>
+        <v>11.07645491900579</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>35.77611514855262</v>
+        <v>35.8283752500239</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>41.43697663719907</v>
+        <v>46.33494174481658</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.07595996092189</v>
+        <v>31.78141212651976</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>43.25467223151382</v>
+        <v>44.56043904706443</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>49.6984787472385</v>
+        <v>54.06517083372731</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.38673982520828</v>
+        <v>14.38517537687144</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.81588671168682</v>
+        <v>30.71073251054293</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.15062455172629</v>
+        <v>40.54270064717451</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>18.92377662655762</v>
+        <v>18.5564792223041</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.60885570580977</v>
+        <v>28.65506344099865</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.95661224234026</v>
+        <v>37.0680039389507</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>34.00735470341768</v>
+        <v>20.48876930219369</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.97187270752234</v>
+        <v>36.48777893586959</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>47.65049079068318</v>
+        <v>43.29029832610599</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>11.88054382576194</v>
+        <v>13.1777060278585</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.34940572151538</v>
+        <v>42.58359645152442</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.03371716400909</v>
+        <v>55.34736897111384</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>46.65551730281494</v>
+        <v>44.83722975565883</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>56.34902589556386</v>
+        <v>55.42584807389614</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>63.55833469516757</v>
+        <v>65.35839255891365</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.97970886086433</v>
+        <v>14.47838703330711</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.69710844170226</v>
+        <v>37.41348894069424</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.0420876675466</v>
+        <v>51.57132650569358</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>3.571706087588538</v>
+        <v>5.520289897161698</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>18.9987924846333</v>
+        <v>20.38693667980528</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.94813268549363</v>
+        <v>30.44053050164666</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1.808691430455728</v>
+        <v>-3.419831507051606</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>19.18755371779425</v>
+        <v>18.74602035401612</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.2746165191495</v>
+        <v>23.30578537438867</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>5.27809857046649</v>
+        <v>4.853693303819687</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.29195144441773</v>
+        <v>41.41209751507078</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.75876772027124</v>
+        <v>48.19614940515726</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.48038215686783</v>
+        <v>39.00446761146705</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.80285220171699</v>
+        <v>40.82631648316615</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>45.09793548672198</v>
+        <v>43.81386969943043</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>0.8248440978458049</v>
+        <v>0.4875467633703572</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.93190217824749</v>
+        <v>24.59466136629294</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.42406724846925</v>
+        <v>34.02446238693114</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.965738727243638</v>
+        <v>7.262898530071558</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.40174890014882</v>
+        <v>23.12303149448611</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.08564591151404</v>
+        <v>28.70272549127345</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>2.906295381431566</v>
+        <v>-5.009729390328433</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.36522911683092</v>
+        <v>12.07185597669281</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.08029337795109</v>
+        <v>17.22106407246367</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.851468640963567</v>
+        <v>-3.273710002155306</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.145809835141</v>
+        <v>29.19986533926829</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.93791372577598</v>
+        <v>36.60194098144164</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.08468413388098</v>
+        <v>28.36281599419724</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>38.42747249960071</v>
+        <v>36.7287369542653</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.70153911635913</v>
+        <v>42.42373370554214</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>3.477785405832233</v>
+        <v>-3.691122990652024</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.90794137279112</v>
+        <v>24.94922204430215</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.62366847427888</v>
+        <v>33.01883225101917</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5.815096361712122</v>
+        <v>6.751582137638952</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.57582933031782</v>
+        <v>22.22502336136353</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.38412411931336</v>
+        <v>33.3513907694856</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>2.408264254272851</v>
+        <v>-6.870646121157067</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>15.08878385837269</v>
+        <v>13.5613353514168</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.26679257879988</v>
+        <v>22.07341480065448</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>4.439679909592712</v>
+        <v>-3.120901714398551</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.11507158927991</v>
+        <v>32.71859450707836</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.80771252302365</v>
+        <v>47.67675509703308</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>40.05947709647388</v>
+        <v>39.90955314070299</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>58.7437172578765</v>
+        <v>52.33535134873232</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>63.35551859590065</v>
+        <v>61.24409882946109</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2.423846568537599</v>
+        <v>-3.936711136213729</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>35.93532975992034</v>
+        <v>32.26215335453508</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.81710734339602</v>
+        <v>43.8755543116935</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.34357652664782</v>
+        <v>8.884603604534345</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.85754579378587</v>
+        <v>5.537040907896126</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>15.4669660402486</v>
+        <v>13.47537652838719</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4.735911733542448</v>
+        <v>1.078454672173111</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.480562544310265</v>
+        <v>6.155842346111111</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>10.33565908138481</v>
+        <v>9.253410080824862</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.27607016195713</v>
+        <v>6.646900179956189</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>18.57742808749994</v>
+        <v>19.76527869386208</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.57529355360122</v>
+        <v>24.97986841398863</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.96572494143013</v>
+        <v>14.46567517920592</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.6133646917224</v>
+        <v>16.00913885243611</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.61535950763182</v>
+        <v>19.65526914139604</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>10.041053987241</v>
+        <v>3.220340655525009</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>9.677551333616538</v>
+        <v>3.031005208230784</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.37606864673099</v>
+        <v>11.3615281024821</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.42848138995911</v>
+        <v>5.258927097386998</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.70491165016729</v>
+        <v>14.60096587681535</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.2343504924947</v>
+        <v>24.46382227393136</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1.264405697689686</v>
+        <v>-5.382749630386479</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>3.29565802682</v>
+        <v>2.942818011435479</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>14.75703921778226</v>
+        <v>13.50059314665555</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>3.004874852320821</v>
+        <v>-4.496779978743978</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>12.25055495864065</v>
+        <v>16.04499590649871</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.10115269882478</v>
+        <v>28.41749305713901</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.99982998387075</v>
+        <v>17.05886933102353</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.46079171545928</v>
+        <v>26.46287234179226</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>36.49630973778626</v>
+        <v>35.50192813247403</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1.12595908874993</v>
+        <v>-6.68004932333263</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>15.95969142184904</v>
+        <v>13.80070036041709</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.75570274939625</v>
+        <v>24.46851440476299</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>11.60812665892957</v>
+        <v>8.101373917993806</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.43760160746142</v>
+        <v>18.12944086771128</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.73132641068822</v>
+        <v>28.76408223769003</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>0.5376381392080098</v>
+        <v>-6.460591256111178</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>10.93072889576121</v>
+        <v>6.714663766438475</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>19.04591058708147</v>
+        <v>16.51380477713268</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>3.118692447781761</v>
+        <v>-0.82443714289826</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>21.61450612511682</v>
+        <v>24.84271258581655</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>37.97437060000158</v>
+        <v>39.12625747345815</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.60365244688882</v>
+        <v>28.94820124444028</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>38.115304552418</v>
+        <v>38.45877528211317</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.80975529888907</v>
+        <v>42.80435494891022</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>2.186767764313007</v>
+        <v>-2.167576555839721</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.37803342784964</v>
+        <v>22.76589513258153</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>37.91365802530204</v>
+        <v>36.48256471317207</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>11.69501944936505</v>
+        <v>6.671073040650976</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>14.99496117220789</v>
+        <v>8.673711988625508</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.08606128372922</v>
+        <v>17.62522971118829</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>4.683519612493569</v>
+        <v>0.3110872675329865</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>18.17631360147663</v>
+        <v>16.4417708413537</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>19.2288676822193</v>
+        <v>19.24850472809424</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>11.77927727752603</v>
+        <v>6.715881849131456</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.99210991583075</v>
+        <v>28.97098022406933</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.84895882519523</v>
+        <v>34.80170214754647</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.0805973615345</v>
+        <v>20.65243759755968</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.72671656112716</v>
+        <v>24.176209518036</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.42572967388585</v>
+        <v>28.29359404269425</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.63432499786591</v>
+        <v>9.158902769788975</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.63223344038221</v>
+        <v>11.92644600229149</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.31030121506435</v>
+        <v>24.10053593734635</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>6.309660980291802</v>
+        <v>5.148115668884012</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.21327320180314</v>
+        <v>14.23656009998435</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.14637950744379</v>
+        <v>26.34803499691969</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.172108251751041</v>
+        <v>1.937393344969371</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.50871031123508</v>
+        <v>9.819356053791811</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.81880595623065</v>
+        <v>22.68543532783691</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>5.259585098879107</v>
+        <v>-3.208314238606976</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.87602754679047</v>
+        <v>17.45308301923054</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.07142037428714</v>
+        <v>32.81862832420367</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>18.56200970378706</v>
+        <v>14.32055305208177</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.98028466362933</v>
+        <v>28.90494860322038</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.09576883162681</v>
+        <v>41.46550847947179</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2.260312960521073</v>
+        <v>-3.530903086553634</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.79524327312296</v>
+        <v>12.93003189317452</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.30811532222355</v>
+        <v>26.87214183196583</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>6.903639990598101</v>
+        <v>5.722924303550359</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.06329369007003</v>
+        <v>14.00597939418846</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.950580565734</v>
+        <v>25.21192869518914</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.583869137266323</v>
+        <v>-0.7997022031293195</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.09723297115114</v>
+        <v>11.22812907339776</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.01489758269775</v>
+        <v>21.71420161649824</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2.092272944927871</v>
+        <v>-3.015646997127947</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.92009932936517</v>
+        <v>22.44154149547296</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.65187242379597</v>
+        <v>38.30808414743671</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.665463903195</v>
+        <v>28.2306212740658</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.57876264792052</v>
+        <v>38.41925627100084</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.72775305759019</v>
+        <v>50.07378421796771</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-0.1206019089979087</v>
+        <v>-2.620121740690363</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.25272894205949</v>
+        <v>18.14898956463742</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>38.29031010708587</v>
+        <v>36.15775608284132</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>15.43679275677295</v>
+        <v>14.59880742527208</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>19.80970398338904</v>
+        <v>22.93359472564001</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.00310734595864</v>
+        <v>36.17236024736335</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>3.917984189438322</v>
+        <v>5.652176570340529</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>40.24580279009491</v>
+        <v>36.93981175646977</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>43.44164392399747</v>
+        <v>44.04093026391378</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>12.92544012360753</v>
+        <v>16.27282241452563</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>60.38726783260338</v>
+        <v>54.46104424494926</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>63.67797424124099</v>
+        <v>63.72909882200953</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.55045612768222</v>
+        <v>37.2211106357278</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.10375292206486</v>
+        <v>41.6646879674881</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>45.99035231845466</v>
+        <v>46.59616430025371</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.95042462143504</v>
+        <v>25.13319520743774</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>24.77518806211573</v>
+        <v>31.13400571354957</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>60.97245516580485</v>
+        <v>53.80603196108891</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.77895390903651</v>
+        <v>20.74072093932085</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.59484416165054</v>
+        <v>30.50424978989191</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.38513930722793</v>
+        <v>36.92339708949413</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>4.221805383507437</v>
+        <v>4.917049522748437</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.02179019406413</v>
+        <v>22.5779535678713</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.03931496182168</v>
+        <v>28.68220033935503</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>9.627039500191634</v>
+        <v>5.969078138641878</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>40.18830214416279</v>
+        <v>36.57170321986082</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>46.55597621616241</v>
+        <v>44.48190876152635</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.51851113038806</v>
+        <v>36.24851943823327</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>48.63675648805868</v>
+        <v>42.52336288146089</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.08797796079152</v>
+        <v>49.71285737492416</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.20745766899075</v>
+        <v>15.70007842915286</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>37.73505929863519</v>
+        <v>34.94445566517806</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.69691588774351</v>
+        <v>43.61616214071796</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>21.54909298413788</v>
+        <v>19.86533585693115</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.01936221205361</v>
+        <v>29.42886413666595</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>39.02565785892467</v>
+        <v>39.67612802786363</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>4.120722412524362</v>
+        <v>2.474854193316519</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.72619044061726</v>
+        <v>24.15086494346173</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.00023726029597</v>
+        <v>32.63040244405105</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>8.764271789151461</v>
+        <v>10.37584978633286</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>43.79570437967838</v>
+        <v>45.35886620577953</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>58.99611484878238</v>
+        <v>59.09619602626815</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.20697617354887</v>
+        <v>46.24377074039664</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>58.03222693404823</v>
+        <v>56.92775943887091</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>65.88114775085043</v>
+        <v>65.23169509479378</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>9.325259889269685</v>
+        <v>12.50737216485228</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>40.65713494356229</v>
+        <v>39.23333944168859</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.72198445974246</v>
+        <v>54.92433798954804</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>3.284788881627129</v>
+        <v>3.572426802562587</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.67289523431732</v>
+        <v>16.68303727666902</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.97193930325443</v>
+        <v>26.35964434520851</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2.357623200221987</v>
+        <v>-3.82952859024766</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>19.19677436359531</v>
+        <v>18.39638683525268</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>20.01230711002366</v>
+        <v>21.68908508223445</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>4.699205957451689</v>
+        <v>2.439724706155012</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>35.48095557506316</v>
+        <v>38.04399385188064</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>42.89708283905462</v>
+        <v>44.56264145179404</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.27356964489849</v>
+        <v>37.30363824722492</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>45.33615681478658</v>
+        <v>40.13282801956417</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.95896028348763</v>
+        <v>41.48571232335542</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>0.7423582496803647</v>
+        <v>-1.210717744134206</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>20.98987059265198</v>
+        <v>22.95188109489222</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.48466112697534</v>
+        <v>31.64994803900738</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.521900941132145</v>
+        <v>7.404087308468588</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.30248899621768</v>
+        <v>23.2341754395781</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.58541899146753</v>
+        <v>29.42430832907182</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.102525407597465</v>
+        <v>-4.185600761042855</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>17.59612096019423</v>
+        <v>13.27987422694019</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.14116840948211</v>
+        <v>19.39442283920193</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>6.249908756459536</v>
+        <v>-1.067608472757398</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.96509511543963</v>
+        <v>31.51724012891501</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.39210755515342</v>
+        <v>40.35628123927047</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.07057517781629</v>
+        <v>31.42456200617767</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.17012250227749</v>
+        <v>40.00505192956717</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>47.72222303159128</v>
+        <v>44.93138763707083</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>4.16298417182351</v>
+        <v>-2.66442298915487</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>31.58212843627221</v>
+        <v>27.13623397030756</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.99608483100934</v>
+        <v>36.77587430966775</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>7.725283644534404</v>
+        <v>7.70074654641224</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>27.76032129650866</v>
+        <v>22.55838919572875</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.63182755075574</v>
+        <v>33.55330835371406</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1.549856952406081</v>
+        <v>-6.755344360244427</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>14.57016189120939</v>
+        <v>13.39761509918148</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.93891338098921</v>
+        <v>21.68207812795364</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>3.964136396846023</v>
+        <v>-2.449658905046013</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.31010996662618</v>
+        <v>32.77816727316834</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>46.32370263870337</v>
+        <v>48.10175316443804</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>40.45502975007042</v>
+        <v>38.63881908011846</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.29060181001304</v>
+        <v>50.34744185895057</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>61.04972679361194</v>
+        <v>59.56849146836699</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1.992670587353228</v>
+        <v>-4.829171250072724</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>30.65433803113751</v>
+        <v>30.74266976984317</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>47.05387996824454</v>
+        <v>44.2369863649011</v>
       </c>
     </row>
   </sheetData>
